--- a/Filtered_By_Region/Region III/Region III_QRF.xlsx
+++ b/Filtered_By_Region/Region III/Region III_QRF.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT64"/>
+  <dimension ref="A1:AU64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,6 +669,11 @@
           <t>Unnamed: 45</t>
         </is>
       </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -718,7 +724,6 @@
       <c r="L2" t="n">
         <v>1</v>
       </c>
-      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -727,17 +732,6 @@
       <c r="O2" t="n">
         <v>1</v>
       </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
@@ -774,7 +768,6 @@
       <c r="AL2" t="n">
         <v>0</v>
       </c>
-      <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -785,9 +778,6 @@
           <t xml:space="preserve">CONSTRUCTION OF SLOPE PROTECTION </t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -859,21 +849,16 @@
       <c r="O3" t="n">
         <v>1</v>
       </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" s="2" t="n">
+      <c r="U3" s="3" t="n">
         <v>44378</v>
       </c>
-      <c r="V3" s="2" t="n">
+      <c r="V3" s="3" t="n">
         <v>44390</v>
       </c>
-      <c r="W3" s="2" t="n">
+      <c r="W3" s="3" t="n">
         <v>44410</v>
       </c>
-      <c r="X3" s="2" t="n">
+      <c r="X3" s="3" t="n">
         <v>44413</v>
       </c>
       <c r="Y3" t="inlineStr">
@@ -881,7 +866,6 @@
           <t>VANMARVIL CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
         <v>0</v>
       </c>
@@ -918,16 +902,11 @@
       <c r="AL3" t="n">
         <v>0</v>
       </c>
-      <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -999,21 +978,16 @@
       <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" s="2" t="n">
+      <c r="U4" s="3" t="n">
         <v>44378</v>
       </c>
-      <c r="V4" s="2" t="n">
+      <c r="V4" s="3" t="n">
         <v>44390</v>
       </c>
-      <c r="W4" s="2" t="n">
+      <c r="W4" s="3" t="n">
         <v>44410</v>
       </c>
-      <c r="X4" s="2" t="n">
+      <c r="X4" s="3" t="n">
         <v>44420</v>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1021,7 +995,6 @@
           <t>VANMARVIL CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
         <v>0</v>
       </c>
@@ -1058,16 +1031,11 @@
       <c r="AL4" t="n">
         <v>0</v>
       </c>
-      <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1139,21 +1107,16 @@
       <c r="O5" t="n">
         <v>1</v>
       </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" s="2" t="n">
+      <c r="U5" s="3" t="n">
         <v>44378</v>
       </c>
-      <c r="V5" s="2" t="n">
+      <c r="V5" s="3" t="n">
         <v>44390</v>
       </c>
-      <c r="W5" s="2" t="n">
+      <c r="W5" s="3" t="n">
         <v>44410</v>
       </c>
-      <c r="X5" s="2" t="n">
+      <c r="X5" s="3" t="n">
         <v>44420</v>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1161,7 +1124,6 @@
           <t>FNR Builders and Sons Supply Inc.</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
@@ -1198,16 +1160,11 @@
       <c r="AL5" t="n">
         <v>0</v>
       </c>
-      <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1279,21 +1236,16 @@
       <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" s="2" t="n">
+      <c r="U6" s="3" t="n">
         <v>44378</v>
       </c>
-      <c r="V6" s="2" t="n">
+      <c r="V6" s="3" t="n">
         <v>44390</v>
       </c>
-      <c r="W6" s="2" t="n">
+      <c r="W6" s="3" t="n">
         <v>44410</v>
       </c>
-      <c r="X6" s="2" t="n">
+      <c r="X6" s="3" t="n">
         <v>44412</v>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1301,7 +1253,6 @@
           <t>FNR Builders and Sons Supply Inc.</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
         <v>0</v>
       </c>
@@ -1338,16 +1289,11 @@
       <c r="AL6" t="n">
         <v>0</v>
       </c>
-      <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1419,21 +1365,16 @@
       <c r="O7" t="n">
         <v>1</v>
       </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" s="2" t="n">
+      <c r="U7" s="3" t="n">
         <v>44378</v>
       </c>
-      <c r="V7" s="2" t="n">
+      <c r="V7" s="3" t="n">
         <v>44390</v>
       </c>
-      <c r="W7" s="2" t="n">
+      <c r="W7" s="3" t="n">
         <v>44410</v>
       </c>
-      <c r="X7" s="2" t="n">
+      <c r="X7" s="3" t="n">
         <v>44420</v>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1441,7 +1382,6 @@
           <t>FNR Builders and Sons Supply Inc.</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
@@ -1478,16 +1418,11 @@
       <c r="AL7" t="n">
         <v>0</v>
       </c>
-      <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1559,21 +1494,16 @@
       <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" s="2" t="n">
+      <c r="U8" s="3" t="n">
         <v>44378</v>
       </c>
-      <c r="V8" s="2" t="n">
+      <c r="V8" s="3" t="n">
         <v>44390</v>
       </c>
-      <c r="W8" s="2" t="n">
+      <c r="W8" s="3" t="n">
         <v>44410</v>
       </c>
-      <c r="X8" s="2" t="n">
+      <c r="X8" s="3" t="n">
         <v>44412</v>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1581,7 +1511,6 @@
           <t>MACCO Construction</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
         <v>0</v>
       </c>
@@ -1618,16 +1547,11 @@
       <c r="AL8" t="n">
         <v>0</v>
       </c>
-      <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1699,21 +1623,16 @@
       <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" s="2" t="n">
+      <c r="U9" s="3" t="n">
         <v>44378</v>
       </c>
-      <c r="V9" s="2" t="n">
+      <c r="V9" s="3" t="n">
         <v>44390</v>
       </c>
-      <c r="W9" s="2" t="n">
+      <c r="W9" s="3" t="n">
         <v>44410</v>
       </c>
-      <c r="X9" s="2" t="n">
+      <c r="X9" s="3" t="n">
         <v>44412</v>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1721,7 +1640,6 @@
           <t>MACCO Construction</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="n">
         <v>0</v>
       </c>
@@ -1758,16 +1676,11 @@
       <c r="AL9" t="n">
         <v>0</v>
       </c>
-      <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1839,10 +1752,10 @@
       <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P10" s="2" t="n">
+      <c r="P10" s="3" t="n">
         <v>44489</v>
       </c>
-      <c r="Q10" s="2" t="n">
+      <c r="Q10" s="3" t="n">
         <v>44439</v>
       </c>
       <c r="R10" t="inlineStr">
@@ -1855,15 +1768,13 @@
           <t>2021-CON-00012</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" s="2" t="n">
+      <c r="V10" s="3" t="n">
         <v>44362</v>
       </c>
-      <c r="W10" s="2" t="n">
+      <c r="W10" s="3" t="n">
         <v>44362</v>
       </c>
-      <c r="X10" s="2" t="n">
+      <c r="X10" s="3" t="n">
         <v>44371</v>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1871,7 +1782,6 @@
           <t>T. G. OCAMPO CONSTRUCTION &amp; SURVEYING SERVICES</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="n">
         <v>0</v>
       </c>
@@ -1908,16 +1818,11 @@
       <c r="AL10" t="n">
         <v>0</v>
       </c>
-      <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1989,10 +1894,10 @@
       <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="P11" s="2" t="n">
+      <c r="P11" s="3" t="n">
         <v>44459</v>
       </c>
-      <c r="Q11" s="2" t="n">
+      <c r="Q11" s="3" t="n">
         <v>44403</v>
       </c>
       <c r="R11" t="inlineStr">
@@ -2005,15 +1910,13 @@
           <t>2021-CON-00011</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" s="2" t="n">
+      <c r="V11" s="3" t="n">
         <v>44362</v>
       </c>
-      <c r="W11" s="2" t="n">
+      <c r="W11" s="3" t="n">
         <v>44362</v>
       </c>
-      <c r="X11" s="2" t="n">
+      <c r="X11" s="3" t="n">
         <v>44370</v>
       </c>
       <c r="Y11" t="inlineStr">
@@ -2021,7 +1924,6 @@
           <t>TURQUOISE CONSTRUCTION &amp; REALTY DEVELOPMENT</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="n">
         <v>0</v>
       </c>
@@ -2058,16 +1960,11 @@
       <c r="AL11" t="n">
         <v>0</v>
       </c>
-      <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2139,10 +2036,10 @@
       <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P12" s="2" t="n">
+      <c r="P12" s="3" t="n">
         <v>44489</v>
       </c>
-      <c r="Q12" s="2" t="n">
+      <c r="Q12" s="3" t="n">
         <v>44439</v>
       </c>
       <c r="R12" t="inlineStr">
@@ -2155,15 +2052,13 @@
           <t>2021-CON-00013</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" s="2" t="n">
+      <c r="V12" s="3" t="n">
         <v>44362</v>
       </c>
-      <c r="W12" s="2" t="n">
+      <c r="W12" s="3" t="n">
         <v>44362</v>
       </c>
-      <c r="X12" s="2" t="n">
+      <c r="X12" s="3" t="n">
         <v>44370</v>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2171,7 +2066,6 @@
           <t>RODMAC CONSTRUCTION &amp;TRADING</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
         <v>0</v>
       </c>
@@ -2208,16 +2102,11 @@
       <c r="AL12" t="n">
         <v>0</v>
       </c>
-      <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2289,10 +2178,10 @@
       <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P13" s="2" t="n">
+      <c r="P13" s="3" t="n">
         <v>44489</v>
       </c>
-      <c r="Q13" s="2" t="n">
+      <c r="Q13" s="3" t="n">
         <v>44446</v>
       </c>
       <c r="R13" t="inlineStr">
@@ -2305,15 +2194,13 @@
           <t>2021-CON-00014</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" s="2" t="n">
+      <c r="V13" s="3" t="n">
         <v>44362</v>
       </c>
-      <c r="W13" s="2" t="n">
+      <c r="W13" s="3" t="n">
         <v>44362</v>
       </c>
-      <c r="X13" s="2" t="n">
+      <c r="X13" s="3" t="n">
         <v>44371</v>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2321,7 +2208,6 @@
           <t>ALTITUDE ENGINEERING AND CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="n">
         <v>0</v>
       </c>
@@ -2358,16 +2244,11 @@
       <c r="AL13" t="n">
         <v>0</v>
       </c>
-      <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2439,10 +2320,10 @@
       <c r="O14" t="n">
         <v>1</v>
       </c>
-      <c r="P14" s="2" t="n">
+      <c r="P14" s="3" t="n">
         <v>44489</v>
       </c>
-      <c r="Q14" s="2" t="n">
+      <c r="Q14" s="3" t="n">
         <v>44445</v>
       </c>
       <c r="R14" t="inlineStr">
@@ -2455,15 +2336,13 @@
           <t>2021-CON-00015</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" s="2" t="n">
+      <c r="V14" s="3" t="n">
         <v>44362</v>
       </c>
-      <c r="W14" s="2" t="n">
+      <c r="W14" s="3" t="n">
         <v>44362</v>
       </c>
-      <c r="X14" s="2" t="n">
+      <c r="X14" s="3" t="n">
         <v>44370</v>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2471,7 +2350,6 @@
           <t>RODMAC CONSTRUCTION &amp;TRADING</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="n">
         <v>0</v>
       </c>
@@ -2508,16 +2386,11 @@
       <c r="AL14" t="n">
         <v>0</v>
       </c>
-      <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2589,10 +2462,10 @@
       <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="P15" s="2" t="n">
+      <c r="P15" s="3" t="n">
         <v>44491</v>
       </c>
-      <c r="Q15" s="2" t="n">
+      <c r="Q15" s="3" t="n">
         <v>44481</v>
       </c>
       <c r="R15" t="inlineStr">
@@ -2605,19 +2478,19 @@
           <t>PB-21--025</t>
         </is>
       </c>
-      <c r="T15" s="2" t="n">
+      <c r="T15" s="3" t="n">
         <v>44369</v>
       </c>
-      <c r="U15" s="2" t="n">
+      <c r="U15" s="3" t="n">
         <v>44378</v>
       </c>
-      <c r="V15" s="2" t="n">
+      <c r="V15" s="3" t="n">
         <v>44391</v>
       </c>
-      <c r="W15" s="2" t="n">
+      <c r="W15" s="3" t="n">
         <v>44398</v>
       </c>
-      <c r="X15" s="2" t="n">
+      <c r="X15" s="3" t="n">
         <v>44439</v>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2625,7 +2498,6 @@
           <t>DUAMON Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="n">
         <v>0</v>
       </c>
@@ -2662,16 +2534,11 @@
       <c r="AL15" t="n">
         <v>0</v>
       </c>
-      <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2743,10 +2610,10 @@
       <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P16" s="2" t="n">
+      <c r="P16" s="3" t="n">
         <v>44508</v>
       </c>
-      <c r="Q16" s="2" t="n">
+      <c r="Q16" s="3" t="n">
         <v>44496</v>
       </c>
       <c r="R16" t="inlineStr">
@@ -2759,19 +2626,19 @@
           <t>PB-21--024</t>
         </is>
       </c>
-      <c r="T16" s="2" t="n">
+      <c r="T16" s="3" t="n">
         <v>44369</v>
       </c>
-      <c r="U16" s="2" t="n">
+      <c r="U16" s="3" t="n">
         <v>44378</v>
       </c>
-      <c r="V16" s="2" t="n">
+      <c r="V16" s="3" t="n">
         <v>44391</v>
       </c>
-      <c r="W16" s="2" t="n">
+      <c r="W16" s="3" t="n">
         <v>44398</v>
       </c>
-      <c r="X16" s="2" t="n">
+      <c r="X16" s="3" t="n">
         <v>44411</v>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2779,7 +2646,6 @@
           <t>EMICA Builders and Supply</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="n">
         <v>0</v>
       </c>
@@ -2816,16 +2682,11 @@
       <c r="AL16" t="n">
         <v>0</v>
       </c>
-      <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2897,10 +2758,10 @@
       <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P17" s="2" t="n">
+      <c r="P17" s="3" t="n">
         <v>44508</v>
       </c>
-      <c r="Q17" s="2" t="n">
+      <c r="Q17" s="3" t="n">
         <v>44489</v>
       </c>
       <c r="R17" t="inlineStr">
@@ -2913,19 +2774,19 @@
           <t>PB-21--023</t>
         </is>
       </c>
-      <c r="T17" s="2" t="n">
+      <c r="T17" s="3" t="n">
         <v>44369</v>
       </c>
-      <c r="U17" s="2" t="n">
+      <c r="U17" s="3" t="n">
         <v>44378</v>
       </c>
-      <c r="V17" s="2" t="n">
+      <c r="V17" s="3" t="n">
         <v>44391</v>
       </c>
-      <c r="W17" s="2" t="n">
+      <c r="W17" s="3" t="n">
         <v>44398</v>
       </c>
-      <c r="X17" s="2" t="n">
+      <c r="X17" s="3" t="n">
         <v>44411</v>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2933,7 +2794,6 @@
           <t>RHR Construction</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="n">
         <v>0</v>
       </c>
@@ -2970,16 +2830,11 @@
       <c r="AL17" t="n">
         <v>0</v>
       </c>
-      <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr">
         <is>
           <t>others</t>
@@ -3051,10 +2906,10 @@
       <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P18" s="2" t="n">
+      <c r="P18" s="3" t="n">
         <v>44463</v>
       </c>
-      <c r="Q18" s="2" t="n">
+      <c r="Q18" s="3" t="n">
         <v>44459</v>
       </c>
       <c r="R18" t="inlineStr">
@@ -3067,19 +2922,19 @@
           <t>PB-21--026</t>
         </is>
       </c>
-      <c r="T18" s="2" t="n">
+      <c r="T18" s="3" t="n">
         <v>44369</v>
       </c>
-      <c r="U18" s="2" t="n">
+      <c r="U18" s="3" t="n">
         <v>44378</v>
       </c>
-      <c r="V18" s="2" t="n">
+      <c r="V18" s="3" t="n">
         <v>44391</v>
       </c>
-      <c r="W18" s="2" t="n">
+      <c r="W18" s="3" t="n">
         <v>44398</v>
       </c>
-      <c r="X18" s="2" t="n">
+      <c r="X18" s="3" t="n">
         <v>44411</v>
       </c>
       <c r="Y18" t="inlineStr">
@@ -3087,7 +2942,6 @@
           <t>EMICA Builders and Supply</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="n">
         <v>0</v>
       </c>
@@ -3124,16 +2978,11 @@
       <c r="AL18" t="n">
         <v>0</v>
       </c>
-      <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO18" t="inlineStr"/>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3205,10 +3054,10 @@
       <c r="O19" t="n">
         <v>1</v>
       </c>
-      <c r="P19" s="2" t="n">
+      <c r="P19" s="3" t="n">
         <v>44435</v>
       </c>
-      <c r="Q19" s="2" t="n">
+      <c r="Q19" s="3" t="n">
         <v>44409</v>
       </c>
       <c r="R19" t="inlineStr">
@@ -3221,19 +3070,19 @@
           <t>2021-06-09-002-QRF</t>
         </is>
       </c>
-      <c r="T19" s="2" t="n">
+      <c r="T19" s="3" t="n">
         <v>44357</v>
       </c>
-      <c r="U19" s="2" t="n">
+      <c r="U19" s="3" t="n">
         <v>44362</v>
       </c>
-      <c r="V19" s="2" t="n">
+      <c r="V19" s="3" t="n">
         <v>44362</v>
       </c>
-      <c r="W19" s="2" t="n">
+      <c r="W19" s="3" t="n">
         <v>44365</v>
       </c>
-      <c r="X19" s="2" t="n">
+      <c r="X19" s="3" t="n">
         <v>44375</v>
       </c>
       <c r="Y19" t="inlineStr">
@@ -3241,7 +3090,6 @@
           <t>Joynieltin Construction and Trading</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="n">
         <v>0</v>
       </c>
@@ -3278,16 +3126,11 @@
       <c r="AL19" t="n">
         <v>0</v>
       </c>
-      <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO19" t="inlineStr"/>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3359,27 +3202,24 @@
       <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="P20" s="2" t="n">
+      <c r="P20" s="3" t="n">
         <v>44543</v>
       </c>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr">
         <is>
           <t>06/23-06/302021</t>
         </is>
       </c>
-      <c r="U20" s="2" t="n">
+      <c r="U20" s="3" t="n">
         <v>44377</v>
       </c>
-      <c r="V20" s="2" t="n">
+      <c r="V20" s="3" t="n">
         <v>44389</v>
       </c>
-      <c r="W20" s="2" t="n">
+      <c r="W20" s="3" t="n">
         <v>44392</v>
       </c>
-      <c r="X20" s="2" t="n">
+      <c r="X20" s="3" t="n">
         <v>44424</v>
       </c>
       <c r="Y20" t="inlineStr">
@@ -3387,7 +3227,6 @@
           <t>POWERMETAL CONSTRUCTION CO.</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="n">
         <v>0</v>
       </c>
@@ -3424,16 +3263,11 @@
       <c r="AL20" t="n">
         <v>0</v>
       </c>
-      <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO20" t="inlineStr"/>
-      <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3494,7 +3328,6 @@
       <c r="L21" t="n">
         <v>1</v>
       </c>
-      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3503,17 +3336,6 @@
       <c r="O21" t="n">
         <v>1</v>
       </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="n">
         <v>0</v>
       </c>
@@ -3550,16 +3372,11 @@
       <c r="AL21" t="n">
         <v>0</v>
       </c>
-      <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO21" t="inlineStr"/>
-      <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3620,7 +3437,6 @@
       <c r="L22" t="n">
         <v>1</v>
       </c>
-      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3629,17 +3445,6 @@
       <c r="O22" t="n">
         <v>1</v>
       </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="n">
         <v>0</v>
       </c>
@@ -3676,16 +3481,11 @@
       <c r="AL22" t="n">
         <v>0</v>
       </c>
-      <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO22" t="inlineStr"/>
-      <c r="AP22" t="inlineStr"/>
-      <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3746,7 +3546,6 @@
       <c r="L23" t="n">
         <v>1</v>
       </c>
-      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3755,17 +3554,6 @@
       <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="n">
         <v>0</v>
       </c>
@@ -3802,16 +3590,11 @@
       <c r="AL23" t="n">
         <v>0</v>
       </c>
-      <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO23" t="inlineStr"/>
-      <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="inlineStr"/>
-      <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3872,7 +3655,6 @@
       <c r="L24" t="n">
         <v>1</v>
       </c>
-      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3881,17 +3663,6 @@
       <c r="O24" t="n">
         <v>1</v>
       </c>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="n">
         <v>0</v>
       </c>
@@ -3928,16 +3699,11 @@
       <c r="AL24" t="n">
         <v>0</v>
       </c>
-      <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO24" t="inlineStr"/>
-      <c r="AP24" t="inlineStr"/>
-      <c r="AQ24" t="inlineStr"/>
-      <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3998,7 +3764,6 @@
       <c r="L25" t="n">
         <v>1</v>
       </c>
-      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4007,17 +3772,6 @@
       <c r="O25" t="n">
         <v>1</v>
       </c>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="n">
         <v>0</v>
       </c>
@@ -4054,16 +3808,11 @@
       <c r="AL25" t="n">
         <v>0</v>
       </c>
-      <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO25" t="inlineStr"/>
-      <c r="AP25" t="inlineStr"/>
-      <c r="AQ25" t="inlineStr"/>
-      <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -4124,7 +3873,6 @@
       <c r="L26" t="n">
         <v>1</v>
       </c>
-      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4133,17 +3881,6 @@
       <c r="O26" t="n">
         <v>1</v>
       </c>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="n">
         <v>0</v>
       </c>
@@ -4180,16 +3917,11 @@
       <c r="AL26" t="n">
         <v>0</v>
       </c>
-      <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO26" t="inlineStr"/>
-      <c r="AP26" t="inlineStr"/>
-      <c r="AQ26" t="inlineStr"/>
-      <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -4250,7 +3982,6 @@
       <c r="L27" t="n">
         <v>1</v>
       </c>
-      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4259,17 +3990,6 @@
       <c r="O27" t="n">
         <v>1</v>
       </c>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="n">
         <v>0</v>
       </c>
@@ -4306,16 +4026,11 @@
       <c r="AL27" t="n">
         <v>0</v>
       </c>
-      <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO27" t="inlineStr"/>
-      <c r="AP27" t="inlineStr"/>
-      <c r="AQ27" t="inlineStr"/>
-      <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -4376,7 +4091,6 @@
       <c r="L28" t="n">
         <v>1</v>
       </c>
-      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4385,17 +4099,6 @@
       <c r="O28" t="n">
         <v>1</v>
       </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="n">
         <v>0</v>
       </c>
@@ -4432,16 +4135,11 @@
       <c r="AL28" t="n">
         <v>0</v>
       </c>
-      <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO28" t="inlineStr"/>
-      <c r="AP28" t="inlineStr"/>
-      <c r="AQ28" t="inlineStr"/>
-      <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -4502,7 +4200,6 @@
       <c r="L29" t="n">
         <v>1</v>
       </c>
-      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4511,17 +4208,6 @@
       <c r="O29" t="n">
         <v>1</v>
       </c>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="n">
         <v>0</v>
       </c>
@@ -4558,16 +4244,11 @@
       <c r="AL29" t="n">
         <v>0</v>
       </c>
-      <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO29" t="inlineStr"/>
-      <c r="AP29" t="inlineStr"/>
-      <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="inlineStr"/>
       <c r="AS29" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -4628,7 +4309,6 @@
       <c r="L30" t="n">
         <v>1</v>
       </c>
-      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4637,17 +4317,6 @@
       <c r="O30" t="n">
         <v>1</v>
       </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="n">
         <v>0</v>
       </c>
@@ -4684,16 +4353,11 @@
       <c r="AL30" t="n">
         <v>0</v>
       </c>
-      <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO30" t="inlineStr"/>
-      <c r="AP30" t="inlineStr"/>
-      <c r="AQ30" t="inlineStr"/>
-      <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -4754,7 +4418,6 @@
       <c r="L31" t="n">
         <v>1</v>
       </c>
-      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4763,17 +4426,6 @@
       <c r="O31" t="n">
         <v>1</v>
       </c>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="n">
         <v>0</v>
       </c>
@@ -4810,16 +4462,11 @@
       <c r="AL31" t="n">
         <v>0</v>
       </c>
-      <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO31" t="inlineStr"/>
-      <c r="AP31" t="inlineStr"/>
-      <c r="AQ31" t="inlineStr"/>
-      <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -4880,7 +4527,6 @@
       <c r="L32" t="n">
         <v>1</v>
       </c>
-      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4889,17 +4535,6 @@
       <c r="O32" t="n">
         <v>1</v>
       </c>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="n">
         <v>0</v>
       </c>
@@ -4936,16 +4571,11 @@
       <c r="AL32" t="n">
         <v>0</v>
       </c>
-      <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO32" t="inlineStr"/>
-      <c r="AP32" t="inlineStr"/>
-      <c r="AQ32" t="inlineStr"/>
-      <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -5006,7 +4636,6 @@
       <c r="L33" t="n">
         <v>1</v>
       </c>
-      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5015,17 +4644,6 @@
       <c r="O33" t="n">
         <v>1</v>
       </c>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="n">
         <v>0</v>
       </c>
@@ -5062,16 +4680,11 @@
       <c r="AL33" t="n">
         <v>0</v>
       </c>
-      <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO33" t="inlineStr"/>
-      <c r="AP33" t="inlineStr"/>
-      <c r="AQ33" t="inlineStr"/>
-      <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -5132,7 +4745,6 @@
       <c r="L34" t="n">
         <v>1</v>
       </c>
-      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5141,17 +4753,6 @@
       <c r="O34" t="n">
         <v>1</v>
       </c>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="n">
         <v>0</v>
       </c>
@@ -5188,16 +4789,11 @@
       <c r="AL34" t="n">
         <v>0</v>
       </c>
-      <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO34" t="inlineStr"/>
-      <c r="AP34" t="inlineStr"/>
-      <c r="AQ34" t="inlineStr"/>
-      <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -5258,7 +4854,6 @@
       <c r="L35" t="n">
         <v>1</v>
       </c>
-      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5267,17 +4862,6 @@
       <c r="O35" t="n">
         <v>1</v>
       </c>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="n">
         <v>0</v>
       </c>
@@ -5314,16 +4898,11 @@
       <c r="AL35" t="n">
         <v>0</v>
       </c>
-      <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO35" t="inlineStr"/>
-      <c r="AP35" t="inlineStr"/>
-      <c r="AQ35" t="inlineStr"/>
-      <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -5384,7 +4963,6 @@
       <c r="L36" t="n">
         <v>1</v>
       </c>
-      <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5393,17 +4971,6 @@
       <c r="O36" t="n">
         <v>1</v>
       </c>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="n">
         <v>0</v>
       </c>
@@ -5440,16 +5007,11 @@
       <c r="AL36" t="n">
         <v>0</v>
       </c>
-      <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO36" t="inlineStr"/>
-      <c r="AP36" t="inlineStr"/>
-      <c r="AQ36" t="inlineStr"/>
-      <c r="AR36" t="inlineStr"/>
       <c r="AS36" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -5510,7 +5072,6 @@
       <c r="L37" t="n">
         <v>1</v>
       </c>
-      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5519,17 +5080,6 @@
       <c r="O37" t="n">
         <v>1</v>
       </c>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="n">
         <v>0</v>
       </c>
@@ -5566,16 +5116,11 @@
       <c r="AL37" t="n">
         <v>0</v>
       </c>
-      <c r="AM37" t="inlineStr"/>
       <c r="AN37" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO37" t="inlineStr"/>
-      <c r="AP37" t="inlineStr"/>
-      <c r="AQ37" t="inlineStr"/>
-      <c r="AR37" t="inlineStr"/>
       <c r="AS37" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -5636,7 +5181,6 @@
       <c r="L38" t="n">
         <v>1</v>
       </c>
-      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5645,17 +5189,6 @@
       <c r="O38" t="n">
         <v>1</v>
       </c>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="n">
         <v>0</v>
       </c>
@@ -5692,16 +5225,11 @@
       <c r="AL38" t="n">
         <v>0</v>
       </c>
-      <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO38" t="inlineStr"/>
-      <c r="AP38" t="inlineStr"/>
-      <c r="AQ38" t="inlineStr"/>
-      <c r="AR38" t="inlineStr"/>
       <c r="AS38" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -5762,7 +5290,6 @@
       <c r="L39" t="n">
         <v>1</v>
       </c>
-      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5771,17 +5298,6 @@
       <c r="O39" t="n">
         <v>1</v>
       </c>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="n">
         <v>0</v>
       </c>
@@ -5818,16 +5334,11 @@
       <c r="AL39" t="n">
         <v>0</v>
       </c>
-      <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO39" t="inlineStr"/>
-      <c r="AP39" t="inlineStr"/>
-      <c r="AQ39" t="inlineStr"/>
-      <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -5888,7 +5399,6 @@
       <c r="L40" t="n">
         <v>1</v>
       </c>
-      <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5897,17 +5407,6 @@
       <c r="O40" t="n">
         <v>1</v>
       </c>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="n">
         <v>0</v>
       </c>
@@ -5944,16 +5443,11 @@
       <c r="AL40" t="n">
         <v>0</v>
       </c>
-      <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO40" t="inlineStr"/>
-      <c r="AP40" t="inlineStr"/>
-      <c r="AQ40" t="inlineStr"/>
-      <c r="AR40" t="inlineStr"/>
       <c r="AS40" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -6014,7 +5508,6 @@
       <c r="L41" t="n">
         <v>1</v>
       </c>
-      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6023,17 +5516,6 @@
       <c r="O41" t="n">
         <v>1</v>
       </c>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="n">
         <v>0</v>
       </c>
@@ -6070,16 +5552,11 @@
       <c r="AL41" t="n">
         <v>0</v>
       </c>
-      <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO41" t="inlineStr"/>
-      <c r="AP41" t="inlineStr"/>
-      <c r="AQ41" t="inlineStr"/>
-      <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -6140,7 +5617,6 @@
       <c r="L42" t="n">
         <v>1</v>
       </c>
-      <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6149,17 +5625,6 @@
       <c r="O42" t="n">
         <v>1</v>
       </c>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="n">
         <v>0</v>
       </c>
@@ -6196,16 +5661,11 @@
       <c r="AL42" t="n">
         <v>0</v>
       </c>
-      <c r="AM42" t="inlineStr"/>
       <c r="AN42" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO42" t="inlineStr"/>
-      <c r="AP42" t="inlineStr"/>
-      <c r="AQ42" t="inlineStr"/>
-      <c r="AR42" t="inlineStr"/>
       <c r="AS42" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -6266,7 +5726,6 @@
       <c r="L43" t="n">
         <v>1</v>
       </c>
-      <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6275,17 +5734,6 @@
       <c r="O43" t="n">
         <v>1</v>
       </c>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="n">
         <v>0</v>
       </c>
@@ -6322,16 +5770,11 @@
       <c r="AL43" t="n">
         <v>0</v>
       </c>
-      <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO43" t="inlineStr"/>
-      <c r="AP43" t="inlineStr"/>
-      <c r="AQ43" t="inlineStr"/>
-      <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -6392,7 +5835,6 @@
       <c r="L44" t="n">
         <v>1</v>
       </c>
-      <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6401,17 +5843,6 @@
       <c r="O44" t="n">
         <v>1</v>
       </c>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="n">
         <v>0</v>
       </c>
@@ -6448,16 +5879,11 @@
       <c r="AL44" t="n">
         <v>0</v>
       </c>
-      <c r="AM44" t="inlineStr"/>
       <c r="AN44" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO44" t="inlineStr"/>
-      <c r="AP44" t="inlineStr"/>
-      <c r="AQ44" t="inlineStr"/>
-      <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -6518,7 +5944,6 @@
       <c r="L45" t="n">
         <v>1</v>
       </c>
-      <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6527,17 +5952,6 @@
       <c r="O45" t="n">
         <v>1</v>
       </c>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="n">
         <v>0</v>
       </c>
@@ -6574,16 +5988,11 @@
       <c r="AL45" t="n">
         <v>0</v>
       </c>
-      <c r="AM45" t="inlineStr"/>
       <c r="AN45" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO45" t="inlineStr"/>
-      <c r="AP45" t="inlineStr"/>
-      <c r="AQ45" t="inlineStr"/>
-      <c r="AR45" t="inlineStr"/>
       <c r="AS45" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -6644,7 +6053,6 @@
       <c r="L46" t="n">
         <v>1</v>
       </c>
-      <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6653,17 +6061,6 @@
       <c r="O46" t="n">
         <v>1</v>
       </c>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="n">
         <v>0</v>
       </c>
@@ -6700,16 +6097,11 @@
       <c r="AL46" t="n">
         <v>0</v>
       </c>
-      <c r="AM46" t="inlineStr"/>
       <c r="AN46" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO46" t="inlineStr"/>
-      <c r="AP46" t="inlineStr"/>
-      <c r="AQ46" t="inlineStr"/>
-      <c r="AR46" t="inlineStr"/>
       <c r="AS46" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -6770,7 +6162,6 @@
       <c r="L47" t="n">
         <v>1</v>
       </c>
-      <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6779,17 +6170,6 @@
       <c r="O47" t="n">
         <v>1</v>
       </c>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="n">
         <v>0</v>
       </c>
@@ -6826,16 +6206,11 @@
       <c r="AL47" t="n">
         <v>0</v>
       </c>
-      <c r="AM47" t="inlineStr"/>
       <c r="AN47" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO47" t="inlineStr"/>
-      <c r="AP47" t="inlineStr"/>
-      <c r="AQ47" t="inlineStr"/>
-      <c r="AR47" t="inlineStr"/>
       <c r="AS47" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -6907,25 +6282,17 @@
       <c r="O48" t="n">
         <v>1</v>
       </c>
-      <c r="P48" s="2" t="n">
+      <c r="P48" s="3" t="n">
         <v>44439</v>
       </c>
-      <c r="Q48" s="2" t="n">
+      <c r="Q48" s="3" t="n">
         <v>44439</v>
       </c>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr">
         <is>
           <t>J.P. Aquino Construction</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="n">
         <v>0</v>
       </c>
@@ -6962,16 +6329,11 @@
       <c r="AL48" t="n">
         <v>0</v>
       </c>
-      <c r="AM48" t="inlineStr"/>
       <c r="AN48" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO48" t="inlineStr"/>
-      <c r="AP48" t="inlineStr"/>
-      <c r="AQ48" t="inlineStr"/>
-      <c r="AR48" t="inlineStr"/>
       <c r="AS48" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -7043,25 +6405,17 @@
       <c r="O49" t="n">
         <v>1</v>
       </c>
-      <c r="P49" s="2" t="n">
+      <c r="P49" s="3" t="n">
         <v>44439</v>
       </c>
-      <c r="Q49" s="2" t="n">
+      <c r="Q49" s="3" t="n">
         <v>44439</v>
       </c>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr">
         <is>
           <t>J.P. Aquino Construction</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="n">
         <v>0</v>
       </c>
@@ -7098,16 +6452,11 @@
       <c r="AL49" t="n">
         <v>0</v>
       </c>
-      <c r="AM49" t="inlineStr"/>
       <c r="AN49" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO49" t="inlineStr"/>
-      <c r="AP49" t="inlineStr"/>
-      <c r="AQ49" t="inlineStr"/>
-      <c r="AR49" t="inlineStr"/>
       <c r="AS49" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -7179,25 +6528,17 @@
       <c r="O50" t="n">
         <v>1</v>
       </c>
-      <c r="P50" s="2" t="n">
+      <c r="P50" s="3" t="n">
         <v>44434</v>
       </c>
-      <c r="Q50" s="2" t="n">
+      <c r="Q50" s="3" t="n">
         <v>44434</v>
       </c>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr">
         <is>
           <t>Boycing Construction Services</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="n">
         <v>0</v>
       </c>
@@ -7234,16 +6575,11 @@
       <c r="AL50" t="n">
         <v>0</v>
       </c>
-      <c r="AM50" t="inlineStr"/>
       <c r="AN50" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO50" t="inlineStr"/>
-      <c r="AP50" t="inlineStr"/>
-      <c r="AQ50" t="inlineStr"/>
-      <c r="AR50" t="inlineStr"/>
       <c r="AS50" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -7304,7 +6640,6 @@
       <c r="L51" t="n">
         <v>1</v>
       </c>
-      <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7313,17 +6648,6 @@
       <c r="O51" t="n">
         <v>1</v>
       </c>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="n">
         <v>0</v>
       </c>
@@ -7360,16 +6684,11 @@
       <c r="AL51" t="n">
         <v>0</v>
       </c>
-      <c r="AM51" t="inlineStr"/>
       <c r="AN51" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO51" t="inlineStr"/>
-      <c r="AP51" t="inlineStr"/>
-      <c r="AQ51" t="inlineStr"/>
-      <c r="AR51" t="inlineStr"/>
       <c r="AS51" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -7430,7 +6749,6 @@
       <c r="L52" t="n">
         <v>1</v>
       </c>
-      <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7439,17 +6757,6 @@
       <c r="O52" t="n">
         <v>1</v>
       </c>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="n">
         <v>0</v>
       </c>
@@ -7486,16 +6793,11 @@
       <c r="AL52" t="n">
         <v>0</v>
       </c>
-      <c r="AM52" t="inlineStr"/>
       <c r="AN52" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO52" t="inlineStr"/>
-      <c r="AP52" t="inlineStr"/>
-      <c r="AQ52" t="inlineStr"/>
-      <c r="AR52" t="inlineStr"/>
       <c r="AS52" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -7569,25 +6871,22 @@
       <c r="O53" t="n">
         <v>1</v>
       </c>
-      <c r="P53" s="2" t="n">
+      <c r="P53" s="3" t="n">
         <v>45227</v>
       </c>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" s="2" t="n">
+      <c r="T53" s="3" t="n">
         <v>44992</v>
       </c>
-      <c r="U53" s="2" t="n">
+      <c r="U53" s="3" t="n">
         <v>45000</v>
       </c>
-      <c r="V53" s="2" t="n">
+      <c r="V53" s="3" t="n">
         <v>45012</v>
       </c>
-      <c r="W53" s="2" t="n">
+      <c r="W53" s="3" t="n">
         <v>45029</v>
       </c>
-      <c r="X53" s="2" t="n">
+      <c r="X53" s="3" t="n">
         <v>45040</v>
       </c>
       <c r="Y53" t="inlineStr">
@@ -7595,7 +6894,6 @@
           <t>AMC CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="n">
         <v>0</v>
       </c>
@@ -7632,14 +6930,9 @@
       <c r="AL53" t="n">
         <v>0</v>
       </c>
-      <c r="AM53" t="inlineStr"/>
       <c r="AN53" t="n">
         <v>8.23</v>
       </c>
-      <c r="AO53" t="inlineStr"/>
-      <c r="AP53" t="inlineStr"/>
-      <c r="AQ53" t="inlineStr"/>
-      <c r="AR53" t="inlineStr"/>
       <c r="AS53" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -7715,10 +7008,10 @@
       <c r="O54" t="n">
         <v>1</v>
       </c>
-      <c r="P54" s="2" t="n">
+      <c r="P54" s="3" t="n">
         <v>45069</v>
       </c>
-      <c r="Q54" s="2" t="n">
+      <c r="Q54" s="3" t="n">
         <v>45063</v>
       </c>
       <c r="R54" t="inlineStr">
@@ -7731,19 +7024,19 @@
           <t>23-03-001</t>
         </is>
       </c>
-      <c r="T54" s="2" t="n">
+      <c r="T54" s="3" t="n">
         <v>44979</v>
       </c>
-      <c r="U54" s="2" t="n">
+      <c r="U54" s="3" t="n">
         <v>44986</v>
       </c>
-      <c r="V54" s="2" t="n">
+      <c r="V54" s="3" t="n">
         <v>44998</v>
       </c>
-      <c r="W54" s="2" t="n">
+      <c r="W54" s="3" t="n">
         <v>45001</v>
       </c>
-      <c r="X54" s="2" t="n">
+      <c r="X54" s="3" t="n">
         <v>45016</v>
       </c>
       <c r="Y54" t="inlineStr">
@@ -7751,7 +7044,6 @@
           <t>EMICA Builders and Supply</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="n">
         <v>0</v>
       </c>
@@ -7788,14 +7080,9 @@
       <c r="AL54" t="n">
         <v>0</v>
       </c>
-      <c r="AM54" t="inlineStr"/>
       <c r="AN54" t="n">
         <v>7.23</v>
       </c>
-      <c r="AO54" t="inlineStr"/>
-      <c r="AP54" t="inlineStr"/>
-      <c r="AQ54" t="inlineStr"/>
-      <c r="AR54" t="inlineStr"/>
       <c r="AS54" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -7869,10 +7156,10 @@
       <c r="O55" t="n">
         <v>1</v>
       </c>
-      <c r="P55" s="2" t="n">
+      <c r="P55" s="3" t="n">
         <v>45198</v>
       </c>
-      <c r="Q55" s="2" t="n">
+      <c r="Q55" s="3" t="n">
         <v>45147</v>
       </c>
       <c r="R55" t="inlineStr">
@@ -7885,19 +7172,19 @@
           <t>23-008</t>
         </is>
       </c>
-      <c r="T55" s="2" t="n">
+      <c r="T55" s="3" t="n">
         <v>45036</v>
       </c>
-      <c r="U55" s="2" t="n">
+      <c r="U55" s="3" t="n">
         <v>45048</v>
       </c>
-      <c r="V55" s="2" t="n">
+      <c r="V55" s="3" t="n">
         <v>45061</v>
       </c>
-      <c r="W55" s="2" t="n">
+      <c r="W55" s="3" t="n">
         <v>45062</v>
       </c>
-      <c r="X55" s="2" t="n">
+      <c r="X55" s="3" t="n">
         <v>45071</v>
       </c>
       <c r="Y55" t="inlineStr">
@@ -7946,11 +7233,9 @@
       <c r="AL55" t="n">
         <v>0</v>
       </c>
-      <c r="AM55" t="inlineStr"/>
       <c r="AN55" t="n">
         <v>8.23</v>
       </c>
-      <c r="AO55" t="inlineStr"/>
       <c r="AP55" t="n">
         <v>2</v>
       </c>
@@ -8035,10 +7320,10 @@
       <c r="O56" t="n">
         <v>1</v>
       </c>
-      <c r="P56" s="2" t="n">
+      <c r="P56" s="3" t="n">
         <v>45069</v>
       </c>
-      <c r="Q56" s="2" t="n">
+      <c r="Q56" s="3" t="n">
         <v>45068</v>
       </c>
       <c r="R56" t="inlineStr">
@@ -8051,19 +7336,19 @@
           <t>23-03-003</t>
         </is>
       </c>
-      <c r="T56" s="2" t="n">
+      <c r="T56" s="3" t="n">
         <v>44979</v>
       </c>
-      <c r="U56" s="2" t="n">
+      <c r="U56" s="3" t="n">
         <v>44986</v>
       </c>
-      <c r="V56" s="2" t="n">
+      <c r="V56" s="3" t="n">
         <v>44998</v>
       </c>
-      <c r="W56" s="2" t="n">
+      <c r="W56" s="3" t="n">
         <v>45001</v>
       </c>
-      <c r="X56" s="2" t="n">
+      <c r="X56" s="3" t="n">
         <v>45016</v>
       </c>
       <c r="Y56" t="inlineStr">
@@ -8071,7 +7356,6 @@
           <t>EMICA Builders and Supply</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="n">
         <v>0</v>
       </c>
@@ -8108,14 +7392,9 @@
       <c r="AL56" t="n">
         <v>0</v>
       </c>
-      <c r="AM56" t="inlineStr"/>
       <c r="AN56" t="n">
         <v>7.23</v>
       </c>
-      <c r="AO56" t="inlineStr"/>
-      <c r="AP56" t="inlineStr"/>
-      <c r="AQ56" t="inlineStr"/>
-      <c r="AR56" t="inlineStr"/>
       <c r="AS56" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -8191,10 +7470,10 @@
       <c r="O57" t="n">
         <v>1</v>
       </c>
-      <c r="P57" s="2" t="n">
+      <c r="P57" s="3" t="n">
         <v>45144</v>
       </c>
-      <c r="Q57" s="2" t="n">
+      <c r="Q57" s="3" t="n">
         <v>45135</v>
       </c>
       <c r="R57" t="inlineStr">
@@ -8207,19 +7486,19 @@
           <t>23-03-002</t>
         </is>
       </c>
-      <c r="T57" s="2" t="n">
+      <c r="T57" s="3" t="n">
         <v>44979</v>
       </c>
-      <c r="U57" s="2" t="n">
+      <c r="U57" s="3" t="n">
         <v>44986</v>
       </c>
-      <c r="V57" s="2" t="n">
+      <c r="V57" s="3" t="n">
         <v>44998</v>
       </c>
-      <c r="W57" s="2" t="n">
+      <c r="W57" s="3" t="n">
         <v>45001</v>
       </c>
-      <c r="X57" s="2" t="n">
+      <c r="X57" s="3" t="n">
         <v>45016</v>
       </c>
       <c r="Y57" t="inlineStr">
@@ -8227,7 +7506,6 @@
           <t>EMICA Builders and Supply</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="n">
         <v>0</v>
       </c>
@@ -8264,14 +7542,9 @@
       <c r="AL57" t="n">
         <v>0</v>
       </c>
-      <c r="AM57" t="inlineStr"/>
       <c r="AN57" t="n">
         <v>8.23</v>
       </c>
-      <c r="AO57" t="inlineStr"/>
-      <c r="AP57" t="inlineStr"/>
-      <c r="AQ57" t="inlineStr"/>
-      <c r="AR57" t="inlineStr"/>
       <c r="AS57" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -8345,10 +7618,10 @@
       <c r="O58" t="n">
         <v>1</v>
       </c>
-      <c r="P58" s="2" t="n">
+      <c r="P58" s="3" t="n">
         <v>45155</v>
       </c>
-      <c r="Q58" s="2" t="n">
+      <c r="Q58" s="3" t="n">
         <v>45155</v>
       </c>
       <c r="R58" t="inlineStr">
@@ -8361,17 +7634,16 @@
           <t>INFRA-NE-Emergency-22-2023</t>
         </is>
       </c>
-      <c r="T58" s="2" t="n">
+      <c r="T58" s="3" t="n">
         <v>44985</v>
       </c>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" s="2" t="n">
+      <c r="V58" s="3" t="n">
         <v>44993</v>
       </c>
-      <c r="W58" s="2" t="n">
+      <c r="W58" s="3" t="n">
         <v>44998</v>
       </c>
-      <c r="X58" s="2" t="n">
+      <c r="X58" s="3" t="n">
         <v>45002</v>
       </c>
       <c r="Y58" t="inlineStr">
@@ -8379,7 +7651,6 @@
           <t>J.V. BUAN CONSTRUCTION *T</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="n">
         <v>0</v>
       </c>
@@ -8416,14 +7687,9 @@
       <c r="AL58" t="n">
         <v>0</v>
       </c>
-      <c r="AM58" t="inlineStr"/>
       <c r="AN58" t="n">
         <v>7.23</v>
       </c>
-      <c r="AO58" t="inlineStr"/>
-      <c r="AP58" t="inlineStr"/>
-      <c r="AQ58" t="inlineStr"/>
-      <c r="AR58" t="inlineStr"/>
       <c r="AS58" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -8497,10 +7763,10 @@
       <c r="O59" t="n">
         <v>1</v>
       </c>
-      <c r="P59" s="2" t="n">
+      <c r="P59" s="3" t="n">
         <v>45155</v>
       </c>
-      <c r="Q59" s="2" t="n">
+      <c r="Q59" s="3" t="n">
         <v>45155</v>
       </c>
       <c r="R59" t="inlineStr">
@@ -8513,17 +7779,16 @@
           <t>INFRA-NE-Emergency-23-2023</t>
         </is>
       </c>
-      <c r="T59" s="2" t="n">
+      <c r="T59" s="3" t="n">
         <v>44985</v>
       </c>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" s="2" t="n">
+      <c r="V59" s="3" t="n">
         <v>44993</v>
       </c>
-      <c r="W59" s="2" t="n">
+      <c r="W59" s="3" t="n">
         <v>44998</v>
       </c>
-      <c r="X59" s="2" t="n">
+      <c r="X59" s="3" t="n">
         <v>45002</v>
       </c>
       <c r="Y59" t="inlineStr">
@@ -8531,7 +7796,6 @@
           <t>JOYUS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="n">
         <v>0</v>
       </c>
@@ -8568,14 +7832,9 @@
       <c r="AL59" t="n">
         <v>0</v>
       </c>
-      <c r="AM59" t="inlineStr"/>
       <c r="AN59" t="n">
         <v>7.23</v>
       </c>
-      <c r="AO59" t="inlineStr"/>
-      <c r="AP59" t="inlineStr"/>
-      <c r="AQ59" t="inlineStr"/>
-      <c r="AR59" t="inlineStr"/>
       <c r="AS59" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -8649,10 +7908,10 @@
       <c r="O60" t="n">
         <v>1</v>
       </c>
-      <c r="P60" s="2" t="n">
+      <c r="P60" s="3" t="n">
         <v>45155</v>
       </c>
-      <c r="Q60" s="2" t="n">
+      <c r="Q60" s="3" t="n">
         <v>45155</v>
       </c>
       <c r="R60" t="inlineStr">
@@ -8665,17 +7924,16 @@
           <t>INFRA-NE-Emergency-24-2023</t>
         </is>
       </c>
-      <c r="T60" s="2" t="n">
+      <c r="T60" s="3" t="n">
         <v>44985</v>
       </c>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" s="2" t="n">
+      <c r="V60" s="3" t="n">
         <v>44993</v>
       </c>
-      <c r="W60" s="2" t="n">
+      <c r="W60" s="3" t="n">
         <v>44998</v>
       </c>
-      <c r="X60" s="2" t="n">
+      <c r="X60" s="3" t="n">
         <v>45002</v>
       </c>
       <c r="Y60" t="inlineStr">
@@ -8683,7 +7941,6 @@
           <t>IJK MAE CONSTRUCTION INC.</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="n">
         <v>0</v>
       </c>
@@ -8720,14 +7977,9 @@
       <c r="AL60" t="n">
         <v>0</v>
       </c>
-      <c r="AM60" t="inlineStr"/>
       <c r="AN60" t="n">
         <v>7.23</v>
       </c>
-      <c r="AO60" t="inlineStr"/>
-      <c r="AP60" t="inlineStr"/>
-      <c r="AQ60" t="inlineStr"/>
-      <c r="AR60" t="inlineStr"/>
       <c r="AS60" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -8801,27 +8053,24 @@
       <c r="O61" t="n">
         <v>1</v>
       </c>
-      <c r="P61" s="2" t="n">
+      <c r="P61" s="3" t="n">
         <v>45805</v>
       </c>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr">
         <is>
           <t>CSCB-CY2023-002</t>
         </is>
       </c>
-      <c r="T61" s="2" t="n">
+      <c r="T61" s="3" t="n">
         <v>45134</v>
       </c>
-      <c r="U61" s="2" t="n">
+      <c r="U61" s="3" t="n">
         <v>45142</v>
       </c>
-      <c r="V61" s="2" t="n">
+      <c r="V61" s="3" t="n">
         <v>45155</v>
       </c>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" s="2" t="n">
+      <c r="X61" s="3" t="n">
         <v>45173</v>
       </c>
       <c r="Y61" t="inlineStr">
@@ -8829,7 +8078,6 @@
           <t>FROMARC BUILDERS &amp; GENERAL MERCHANDISE</t>
         </is>
       </c>
-      <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="n">
         <v>0</v>
       </c>
@@ -8866,14 +8114,9 @@
       <c r="AL61" t="n">
         <v>0.09999999999999998</v>
       </c>
-      <c r="AM61" t="inlineStr"/>
       <c r="AN61" t="n">
         <v>5.25</v>
       </c>
-      <c r="AO61" t="inlineStr"/>
-      <c r="AP61" t="inlineStr"/>
-      <c r="AQ61" t="inlineStr"/>
-      <c r="AR61" t="inlineStr"/>
       <c r="AS61" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -8947,27 +8190,24 @@
       <c r="O62" t="n">
         <v>1</v>
       </c>
-      <c r="P62" s="2" t="n">
+      <c r="P62" s="3" t="n">
         <v>45474</v>
       </c>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr">
         <is>
           <t>CSCB-CY2023-002</t>
         </is>
       </c>
-      <c r="T62" s="2" t="n">
+      <c r="T62" s="3" t="n">
         <v>45134</v>
       </c>
-      <c r="U62" s="2" t="n">
+      <c r="U62" s="3" t="n">
         <v>45142</v>
       </c>
-      <c r="V62" s="2" t="n">
+      <c r="V62" s="3" t="n">
         <v>45155</v>
       </c>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" s="2" t="n">
+      <c r="X62" s="3" t="n">
         <v>45190</v>
       </c>
       <c r="Y62" t="inlineStr">
@@ -8975,7 +8215,6 @@
           <t>High Vision Builders</t>
         </is>
       </c>
-      <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="n">
         <v>0</v>
       </c>
@@ -9012,14 +8251,9 @@
       <c r="AL62" t="n">
         <v>0</v>
       </c>
-      <c r="AM62" t="inlineStr"/>
       <c r="AN62" t="n">
         <v>3.24</v>
       </c>
-      <c r="AO62" t="inlineStr"/>
-      <c r="AP62" t="inlineStr"/>
-      <c r="AQ62" t="inlineStr"/>
-      <c r="AR62" t="inlineStr"/>
       <c r="AS62" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -9093,27 +8327,24 @@
       <c r="O63" t="n">
         <v>0.25</v>
       </c>
-      <c r="P63" s="2" t="n">
+      <c r="P63" s="3" t="n">
         <v>45474</v>
       </c>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr">
         <is>
           <t>CSCB-CY2023-003</t>
         </is>
       </c>
-      <c r="T63" s="2" t="n">
+      <c r="T63" s="3" t="n">
         <v>45134</v>
       </c>
-      <c r="U63" s="2" t="n">
+      <c r="U63" s="3" t="n">
         <v>45142</v>
       </c>
-      <c r="V63" s="2" t="n">
+      <c r="V63" s="3" t="n">
         <v>45155</v>
       </c>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" s="2" t="n">
+      <c r="X63" s="3" t="n">
         <v>45173</v>
       </c>
       <c r="Y63" t="inlineStr">
@@ -9162,12 +8393,6 @@
       <c r="AL63" t="n">
         <v>0</v>
       </c>
-      <c r="AM63" t="inlineStr"/>
-      <c r="AN63" t="inlineStr"/>
-      <c r="AO63" t="inlineStr"/>
-      <c r="AP63" t="inlineStr"/>
-      <c r="AQ63" t="inlineStr"/>
-      <c r="AR63" t="inlineStr"/>
       <c r="AS63" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -9243,27 +8468,25 @@
       <c r="O64" t="n">
         <v>1</v>
       </c>
-      <c r="P64" s="2" t="n">
+      <c r="P64" s="3" t="n">
         <v>45638</v>
       </c>
-      <c r="Q64" s="2" t="n">
+      <c r="Q64" s="3" t="n">
         <v>45698</v>
       </c>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" s="2" t="n">
+      <c r="T64" s="3" t="n">
         <v>45253</v>
       </c>
-      <c r="U64" s="2" t="n">
+      <c r="U64" s="3" t="n">
         <v>45259</v>
       </c>
-      <c r="V64" s="2" t="n">
+      <c r="V64" s="3" t="n">
         <v>45272</v>
       </c>
-      <c r="W64" s="2" t="n">
+      <c r="W64" s="3" t="n">
         <v>45289</v>
       </c>
-      <c r="X64" s="2" t="n">
+      <c r="X64" s="3" t="n">
         <v>45293</v>
       </c>
       <c r="Y64" t="inlineStr">
@@ -9271,7 +8494,6 @@
           <t>ARESBI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="n">
         <v>0</v>
       </c>
@@ -9308,14 +8530,9 @@
       <c r="AL64" t="n">
         <v>0</v>
       </c>
-      <c r="AM64" t="inlineStr"/>
       <c r="AN64" t="n">
         <v>4.25</v>
       </c>
-      <c r="AO64" t="inlineStr"/>
-      <c r="AP64" t="inlineStr"/>
-      <c r="AQ64" t="inlineStr"/>
-      <c r="AR64" t="inlineStr"/>
       <c r="AS64" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -9324,6 +8541,79 @@
       <c r="AT64" t="inlineStr">
         <is>
           <t>Completed</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AU2:AU64" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>

--- a/Filtered_By_Region/Region III/Region III_QRF.xlsx
+++ b/Filtered_By_Region/Region III/Region III_QRF.xlsx
@@ -32,12 +32,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,14 +64,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -435,5356 +447,5386 @@
   <dimension ref="A1:AA64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="24" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="29" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="23" customWidth="1" min="9" max="9"/>
+    <col width="22" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="17" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
+    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="26" customWidth="1" min="16" max="16"/>
+    <col width="27" customWidth="1" min="17" max="17"/>
+    <col width="28" customWidth="1" min="18" max="18"/>
+    <col width="28" customWidth="1" min="19" max="19"/>
+    <col width="31" customWidth="1" min="20" max="20"/>
+    <col width="27" customWidth="1" min="21" max="21"/>
+    <col width="21" customWidth="1" min="22" max="22"/>
+    <col width="33" customWidth="1" min="23" max="23"/>
+    <col width="31" customWidth="1" min="24" max="24"/>
+    <col width="48" customWidth="1" min="25" max="25"/>
+    <col width="84" customWidth="1" min="26" max="26"/>
+    <col width="28" customWidth="1" min="27" max="27"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>REGION</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" s="3" t="inlineStr">
         <is>
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AA1" s="3" t="inlineStr">
-        <is>
-          <t>Status as of July 4, 2025</t>
+      <c r="AA1" s="4" t="inlineStr">
+        <is>
+          <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>QRF 2019</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>105656</v>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>San Gregorio ES</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>RIZAL</t>
         </is>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="n">
+      <c r="H2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="5" t="n">
         <v>3156045.84</v>
       </c>
-      <c r="L2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="4" t="inlineStr"/>
-      <c r="N2" s="4" t="inlineStr">
+      <c r="L2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="5" t="inlineStr"/>
+      <c r="N2" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="4" t="inlineStr"/>
-      <c r="Q2" s="4" t="inlineStr"/>
-      <c r="R2" s="4" t="inlineStr"/>
-      <c r="S2" s="4" t="inlineStr"/>
-      <c r="T2" s="4" t="inlineStr"/>
-      <c r="U2" s="4" t="inlineStr"/>
-      <c r="V2" s="4" t="inlineStr"/>
-      <c r="W2" s="4" t="inlineStr"/>
-      <c r="X2" s="4" t="inlineStr"/>
-      <c r="Y2" s="4" t="inlineStr"/>
-      <c r="Z2" s="4" t="inlineStr"/>
-      <c r="AA2" s="4" t="n"/>
+      <c r="O2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="5" t="inlineStr"/>
+      <c r="Q2" s="5" t="inlineStr"/>
+      <c r="R2" s="5" t="inlineStr"/>
+      <c r="S2" s="5" t="inlineStr"/>
+      <c r="T2" s="5" t="inlineStr"/>
+      <c r="U2" s="5" t="inlineStr"/>
+      <c r="V2" s="5" t="inlineStr"/>
+      <c r="W2" s="5" t="inlineStr"/>
+      <c r="X2" s="5" t="inlineStr"/>
+      <c r="Y2" s="5" t="inlineStr"/>
+      <c r="Z2" s="5" t="inlineStr"/>
+      <c r="AA2" s="6" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Aurora</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <v>104409</v>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>Baler CS</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>BALER  (Capital)</t>
         </is>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="n">
+      <c r="H3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="J3" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="K3" s="5" t="n">
         <v>12208837.24</v>
       </c>
-      <c r="L3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="4" t="n">
+      <c r="L3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="5" t="n">
         <v>12145374.43</v>
       </c>
-      <c r="N3" s="4" t="inlineStr">
+      <c r="N3" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="4" t="inlineStr"/>
-      <c r="Q3" s="4" t="inlineStr"/>
-      <c r="R3" s="4" t="inlineStr"/>
-      <c r="S3" s="4" t="inlineStr"/>
-      <c r="T3" s="4" t="inlineStr"/>
-      <c r="U3" s="5" t="n">
+      <c r="O3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="5" t="inlineStr"/>
+      <c r="Q3" s="5" t="inlineStr"/>
+      <c r="R3" s="5" t="inlineStr"/>
+      <c r="S3" s="5" t="inlineStr"/>
+      <c r="T3" s="5" t="inlineStr"/>
+      <c r="U3" s="7" t="n">
         <v>44378</v>
       </c>
-      <c r="V3" s="5" t="n">
+      <c r="V3" s="7" t="n">
         <v>44390</v>
       </c>
-      <c r="W3" s="5" t="n">
+      <c r="W3" s="7" t="n">
         <v>44410</v>
       </c>
-      <c r="X3" s="5" t="n">
+      <c r="X3" s="7" t="n">
         <v>44413</v>
       </c>
-      <c r="Y3" s="4" t="inlineStr">
+      <c r="Y3" s="5" t="inlineStr">
         <is>
           <t>VANMARVIL CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z3" s="4" t="inlineStr"/>
-      <c r="AA3" s="4" t="n"/>
+      <c r="Z3" s="5" t="inlineStr"/>
+      <c r="AA3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Aurora</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>500117</v>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>Mariano L. Sindac IS</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>BALER  (Capital)</t>
         </is>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="n">
+      <c r="H4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="J4" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="5" t="n">
         <v>2855188.91</v>
       </c>
-      <c r="L4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="4" t="n">
+      <c r="L4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5" t="n">
         <v>2826418.46</v>
       </c>
-      <c r="N4" s="4" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="4" t="inlineStr"/>
-      <c r="Q4" s="4" t="inlineStr"/>
-      <c r="R4" s="4" t="inlineStr"/>
-      <c r="S4" s="4" t="inlineStr"/>
-      <c r="T4" s="4" t="inlineStr"/>
-      <c r="U4" s="5" t="n">
+      <c r="O4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="5" t="inlineStr"/>
+      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="R4" s="5" t="inlineStr"/>
+      <c r="S4" s="5" t="inlineStr"/>
+      <c r="T4" s="5" t="inlineStr"/>
+      <c r="U4" s="7" t="n">
         <v>44378</v>
       </c>
-      <c r="V4" s="5" t="n">
+      <c r="V4" s="7" t="n">
         <v>44390</v>
       </c>
-      <c r="W4" s="5" t="n">
+      <c r="W4" s="7" t="n">
         <v>44410</v>
       </c>
-      <c r="X4" s="5" t="n">
+      <c r="X4" s="7" t="n">
         <v>44420</v>
       </c>
-      <c r="Y4" s="4" t="inlineStr">
+      <c r="Y4" s="5" t="inlineStr">
         <is>
           <t>VANMARVIL CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z4" s="4" t="inlineStr"/>
-      <c r="AA4" s="4" t="n"/>
+      <c r="Z4" s="5" t="inlineStr"/>
+      <c r="AA4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Aurora</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>157513</v>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>Butas na Bato ES</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>DINGALAN</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4" t="n">
+      <c r="H5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="J5" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="K5" s="5" t="n">
         <v>1443287.54</v>
       </c>
-      <c r="L5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="4" t="n">
+      <c r="L5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="5" t="n">
         <v>824303.98</v>
       </c>
-      <c r="N5" s="4" t="inlineStr">
+      <c r="N5" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="4" t="inlineStr"/>
-      <c r="Q5" s="4" t="inlineStr"/>
-      <c r="R5" s="4" t="inlineStr"/>
-      <c r="S5" s="4" t="inlineStr"/>
-      <c r="T5" s="4" t="inlineStr"/>
-      <c r="U5" s="5" t="n">
+      <c r="O5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="5" t="inlineStr"/>
+      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="R5" s="5" t="inlineStr"/>
+      <c r="S5" s="5" t="inlineStr"/>
+      <c r="T5" s="5" t="inlineStr"/>
+      <c r="U5" s="7" t="n">
         <v>44378</v>
       </c>
-      <c r="V5" s="5" t="n">
+      <c r="V5" s="7" t="n">
         <v>44390</v>
       </c>
-      <c r="W5" s="5" t="n">
+      <c r="W5" s="7" t="n">
         <v>44410</v>
       </c>
-      <c r="X5" s="5" t="n">
+      <c r="X5" s="7" t="n">
         <v>44420</v>
       </c>
-      <c r="Y5" s="4" t="inlineStr">
+      <c r="Y5" s="5" t="inlineStr">
         <is>
           <t>FNR Builders and Sons Supply Inc.</t>
         </is>
       </c>
-      <c r="Z5" s="4" t="inlineStr"/>
-      <c r="AA5" s="4" t="n"/>
+      <c r="Z5" s="5" t="inlineStr"/>
+      <c r="AA5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Aurora</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <v>104462</v>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>Umiray ES</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>DINGALAN</t>
         </is>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4" t="n">
+      <c r="H6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J6" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="5" t="n">
         <v>6119107.42</v>
       </c>
-      <c r="L6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="4" t="n">
+      <c r="L6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5" t="n">
         <v>3473983.7</v>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N6" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="4" t="inlineStr"/>
-      <c r="Q6" s="4" t="inlineStr"/>
-      <c r="R6" s="4" t="inlineStr"/>
-      <c r="S6" s="4" t="inlineStr"/>
-      <c r="T6" s="4" t="inlineStr"/>
-      <c r="U6" s="5" t="n">
+      <c r="O6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="5" t="inlineStr"/>
+      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="R6" s="5" t="inlineStr"/>
+      <c r="S6" s="5" t="inlineStr"/>
+      <c r="T6" s="5" t="inlineStr"/>
+      <c r="U6" s="7" t="n">
         <v>44378</v>
       </c>
-      <c r="V6" s="5" t="n">
+      <c r="V6" s="7" t="n">
         <v>44390</v>
       </c>
-      <c r="W6" s="5" t="n">
+      <c r="W6" s="7" t="n">
         <v>44410</v>
       </c>
-      <c r="X6" s="5" t="n">
+      <c r="X6" s="7" t="n">
         <v>44412</v>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y6" s="5" t="inlineStr">
         <is>
           <t>FNR Builders and Sons Supply Inc.</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="inlineStr"/>
-      <c r="AA6" s="4" t="n"/>
+      <c r="Z6" s="5" t="inlineStr"/>
+      <c r="AA6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Aurora</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="5" t="n">
         <v>300695</v>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Umiray NHS</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>DINGALAN</t>
         </is>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4" t="n">
+      <c r="H7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="J7" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="K7" s="5" t="n">
         <v>14192889.56140313</v>
       </c>
-      <c r="L7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="4" t="n">
+      <c r="L7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="5" t="n">
         <v>8060094.7</v>
       </c>
-      <c r="N7" s="4" t="inlineStr">
+      <c r="N7" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="4" t="inlineStr"/>
-      <c r="Q7" s="4" t="inlineStr"/>
-      <c r="R7" s="4" t="inlineStr"/>
-      <c r="S7" s="4" t="inlineStr"/>
-      <c r="T7" s="4" t="inlineStr"/>
-      <c r="U7" s="5" t="n">
+      <c r="O7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="5" t="inlineStr"/>
+      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="R7" s="5" t="inlineStr"/>
+      <c r="S7" s="5" t="inlineStr"/>
+      <c r="T7" s="5" t="inlineStr"/>
+      <c r="U7" s="7" t="n">
         <v>44378</v>
       </c>
-      <c r="V7" s="5" t="n">
+      <c r="V7" s="7" t="n">
         <v>44390</v>
       </c>
-      <c r="W7" s="5" t="n">
+      <c r="W7" s="7" t="n">
         <v>44410</v>
       </c>
-      <c r="X7" s="5" t="n">
+      <c r="X7" s="7" t="n">
         <v>44420</v>
       </c>
-      <c r="Y7" s="4" t="inlineStr">
+      <c r="Y7" s="5" t="inlineStr">
         <is>
           <t>FNR Builders and Sons Supply Inc.</t>
         </is>
       </c>
-      <c r="Z7" s="4" t="inlineStr"/>
-      <c r="AA7" s="4" t="n"/>
+      <c r="Z7" s="5" t="inlineStr"/>
+      <c r="AA7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Aurora</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="5" t="n">
         <v>104484</v>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>Bagtu ES</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>MARIA AURORA</t>
         </is>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4" t="n">
+      <c r="H8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J8" s="4" t="inlineStr">
+      <c r="J8" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="K8" s="5" t="n">
         <v>4959821.715479272</v>
       </c>
-      <c r="L8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" s="4" t="n">
+      <c r="L8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5" t="n">
         <v>3124102.63</v>
       </c>
-      <c r="N8" s="4" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="4" t="inlineStr"/>
-      <c r="Q8" s="4" t="inlineStr"/>
-      <c r="R8" s="4" t="inlineStr"/>
-      <c r="S8" s="4" t="inlineStr"/>
-      <c r="T8" s="4" t="inlineStr"/>
-      <c r="U8" s="5" t="n">
+      <c r="O8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="5" t="inlineStr"/>
+      <c r="Q8" s="5" t="inlineStr"/>
+      <c r="R8" s="5" t="inlineStr"/>
+      <c r="S8" s="5" t="inlineStr"/>
+      <c r="T8" s="5" t="inlineStr"/>
+      <c r="U8" s="7" t="n">
         <v>44378</v>
       </c>
-      <c r="V8" s="5" t="n">
+      <c r="V8" s="7" t="n">
         <v>44390</v>
       </c>
-      <c r="W8" s="5" t="n">
+      <c r="W8" s="7" t="n">
         <v>44410</v>
       </c>
-      <c r="X8" s="5" t="n">
+      <c r="X8" s="7" t="n">
         <v>44412</v>
       </c>
-      <c r="Y8" s="4" t="inlineStr">
+      <c r="Y8" s="5" t="inlineStr">
         <is>
           <t>MACCO Construction</t>
         </is>
       </c>
-      <c r="Z8" s="4" t="inlineStr"/>
-      <c r="AA8" s="4" t="n"/>
+      <c r="Z8" s="5" t="inlineStr"/>
+      <c r="AA8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Aurora</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="5" t="n">
         <v>104516</v>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>Dikapinisan ES</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>SAN LUIS</t>
         </is>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4" t="n">
+      <c r="H9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J9" s="4" t="inlineStr">
+      <c r="J9" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="K9" s="5" t="n">
         <v>4282656.05</v>
       </c>
-      <c r="L9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="4" t="n">
+      <c r="L9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5" t="n">
         <v>2698145.03</v>
       </c>
-      <c r="N9" s="4" t="inlineStr">
+      <c r="N9" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="4" t="inlineStr"/>
-      <c r="Q9" s="4" t="inlineStr"/>
-      <c r="R9" s="4" t="inlineStr"/>
-      <c r="S9" s="4" t="inlineStr"/>
-      <c r="T9" s="4" t="inlineStr"/>
-      <c r="U9" s="5" t="n">
+      <c r="O9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="5" t="inlineStr"/>
+      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="R9" s="5" t="inlineStr"/>
+      <c r="S9" s="5" t="inlineStr"/>
+      <c r="T9" s="5" t="inlineStr"/>
+      <c r="U9" s="7" t="n">
         <v>44378</v>
       </c>
-      <c r="V9" s="5" t="n">
+      <c r="V9" s="7" t="n">
         <v>44390</v>
       </c>
-      <c r="W9" s="5" t="n">
+      <c r="W9" s="7" t="n">
         <v>44410</v>
       </c>
-      <c r="X9" s="5" t="n">
+      <c r="X9" s="7" t="n">
         <v>44412</v>
       </c>
-      <c r="Y9" s="4" t="inlineStr">
+      <c r="Y9" s="5" t="inlineStr">
         <is>
           <t>MACCO Construction</t>
         </is>
       </c>
-      <c r="Z9" s="4" t="inlineStr"/>
-      <c r="AA9" s="4" t="n"/>
+      <c r="Z9" s="5" t="inlineStr"/>
+      <c r="AA9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Bataan</t>
         </is>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="5" t="n">
         <v>104577</v>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>Jose C. Payumo Jr. ES</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>DINALUPIHAN</t>
         </is>
       </c>
-      <c r="G10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4" t="n">
+      <c r="G10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J10" s="4" t="inlineStr">
+      <c r="J10" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="K10" s="5" t="n">
         <v>3696132.03</v>
       </c>
-      <c r="L10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="4" t="n">
+      <c r="L10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5" t="n">
         <v>3675824.03</v>
       </c>
-      <c r="N10" s="4" t="inlineStr">
+      <c r="N10" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="5" t="n">
+      <c r="O10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="7" t="n">
         <v>44489</v>
       </c>
-      <c r="Q10" s="5" t="n">
+      <c r="Q10" s="7" t="n">
         <v>44439</v>
       </c>
-      <c r="R10" s="4" t="inlineStr">
+      <c r="R10" s="5" t="inlineStr">
         <is>
           <t>QRF2021-001</t>
         </is>
       </c>
-      <c r="S10" s="4" t="inlineStr">
+      <c r="S10" s="5" t="inlineStr">
         <is>
           <t>2021-CON-00012</t>
         </is>
       </c>
-      <c r="T10" s="4" t="inlineStr"/>
-      <c r="U10" s="4" t="inlineStr"/>
-      <c r="V10" s="5" t="n">
+      <c r="T10" s="5" t="inlineStr"/>
+      <c r="U10" s="5" t="inlineStr"/>
+      <c r="V10" s="7" t="n">
         <v>44362</v>
       </c>
-      <c r="W10" s="5" t="n">
+      <c r="W10" s="7" t="n">
         <v>44362</v>
       </c>
-      <c r="X10" s="5" t="n">
+      <c r="X10" s="7" t="n">
         <v>44371</v>
       </c>
-      <c r="Y10" s="4" t="inlineStr">
+      <c r="Y10" s="5" t="inlineStr">
         <is>
           <t>T. G. OCAMPO CONSTRUCTION &amp; SURVEYING SERVICES</t>
         </is>
       </c>
-      <c r="Z10" s="4" t="inlineStr"/>
-      <c r="AA10" s="4" t="n"/>
+      <c r="Z10" s="5" t="inlineStr"/>
+      <c r="AA10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Bataan</t>
         </is>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="5" t="n">
         <v>104544</v>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>Binukawan ES</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>BAGAC</t>
         </is>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4" t="n">
+      <c r="H11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J11" s="4" t="inlineStr">
+      <c r="J11" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="K11" s="5" t="n">
         <v>1443939.49</v>
       </c>
-      <c r="L11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="4" t="n">
+      <c r="L11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="5" t="n">
         <v>1423597.95</v>
       </c>
-      <c r="N11" s="4" t="inlineStr">
+      <c r="N11" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="5" t="n">
+      <c r="O11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="7" t="n">
         <v>44459</v>
       </c>
-      <c r="Q11" s="5" t="n">
+      <c r="Q11" s="7" t="n">
         <v>44403</v>
       </c>
-      <c r="R11" s="4" t="inlineStr">
+      <c r="R11" s="5" t="inlineStr">
         <is>
           <t>QRF2021-002</t>
         </is>
       </c>
-      <c r="S11" s="4" t="inlineStr">
+      <c r="S11" s="5" t="inlineStr">
         <is>
           <t>2021-CON-00011</t>
         </is>
       </c>
-      <c r="T11" s="4" t="inlineStr"/>
-      <c r="U11" s="4" t="inlineStr"/>
-      <c r="V11" s="5" t="n">
+      <c r="T11" s="5" t="inlineStr"/>
+      <c r="U11" s="5" t="inlineStr"/>
+      <c r="V11" s="7" t="n">
         <v>44362</v>
       </c>
-      <c r="W11" s="5" t="n">
+      <c r="W11" s="7" t="n">
         <v>44362</v>
       </c>
-      <c r="X11" s="5" t="n">
+      <c r="X11" s="7" t="n">
         <v>44370</v>
       </c>
-      <c r="Y11" s="4" t="inlineStr">
+      <c r="Y11" s="5" t="inlineStr">
         <is>
           <t>TURQUOISE CONSTRUCTION &amp; REALTY DEVELOPMENT</t>
         </is>
       </c>
-      <c r="Z11" s="4" t="inlineStr"/>
-      <c r="AA11" s="4" t="n"/>
+      <c r="Z11" s="5" t="inlineStr"/>
+      <c r="AA11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Bataan</t>
         </is>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="5" t="n">
         <v>104684</v>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" s="5" t="inlineStr">
         <is>
           <t>Puting Buhangin ES</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>ORION</t>
         </is>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4" t="n">
+      <c r="H12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="J12" s="4" t="inlineStr">
+      <c r="J12" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="K12" s="5" t="n">
         <v>4132161.22</v>
       </c>
-      <c r="L12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" s="4" t="n">
+      <c r="L12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="5" t="n">
         <v>4111644.41</v>
       </c>
-      <c r="N12" s="4" t="inlineStr">
+      <c r="N12" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" s="5" t="n">
+      <c r="O12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="7" t="n">
         <v>44489</v>
       </c>
-      <c r="Q12" s="5" t="n">
+      <c r="Q12" s="7" t="n">
         <v>44439</v>
       </c>
-      <c r="R12" s="4" t="inlineStr">
+      <c r="R12" s="5" t="inlineStr">
         <is>
           <t>QRF2021-003</t>
         </is>
       </c>
-      <c r="S12" s="4" t="inlineStr">
+      <c r="S12" s="5" t="inlineStr">
         <is>
           <t>2021-CON-00013</t>
         </is>
       </c>
-      <c r="T12" s="4" t="inlineStr"/>
-      <c r="U12" s="4" t="inlineStr"/>
-      <c r="V12" s="5" t="n">
+      <c r="T12" s="5" t="inlineStr"/>
+      <c r="U12" s="5" t="inlineStr"/>
+      <c r="V12" s="7" t="n">
         <v>44362</v>
       </c>
-      <c r="W12" s="5" t="n">
+      <c r="W12" s="7" t="n">
         <v>44362</v>
       </c>
-      <c r="X12" s="5" t="n">
+      <c r="X12" s="7" t="n">
         <v>44370</v>
       </c>
-      <c r="Y12" s="4" t="inlineStr">
+      <c r="Y12" s="5" t="inlineStr">
         <is>
           <t>RODMAC CONSTRUCTION &amp;TRADING</t>
         </is>
       </c>
-      <c r="Z12" s="4" t="inlineStr"/>
-      <c r="AA12" s="4" t="n"/>
+      <c r="Z12" s="5" t="inlineStr"/>
+      <c r="AA12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Bataan</t>
         </is>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="5" t="n">
         <v>104685</v>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="5" t="inlineStr">
         <is>
           <t>Sabatan ES</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>ORION</t>
         </is>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="G13" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4" t="n">
+      <c r="H13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="J13" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K13" s="4" t="n">
+      <c r="K13" s="5" t="n">
         <v>2637397.45</v>
       </c>
-      <c r="L13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" s="4" t="n">
+      <c r="L13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="5" t="n">
         <v>2616736.88</v>
       </c>
-      <c r="N13" s="4" t="inlineStr">
+      <c r="N13" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" s="5" t="n">
+      <c r="O13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="7" t="n">
         <v>44489</v>
       </c>
-      <c r="Q13" s="5" t="n">
+      <c r="Q13" s="7" t="n">
         <v>44446</v>
       </c>
-      <c r="R13" s="4" t="inlineStr">
+      <c r="R13" s="5" t="inlineStr">
         <is>
           <t>QRF2021-004</t>
         </is>
       </c>
-      <c r="S13" s="4" t="inlineStr">
+      <c r="S13" s="5" t="inlineStr">
         <is>
           <t>2021-CON-00014</t>
         </is>
       </c>
-      <c r="T13" s="4" t="inlineStr"/>
-      <c r="U13" s="4" t="inlineStr"/>
-      <c r="V13" s="5" t="n">
+      <c r="T13" s="5" t="inlineStr"/>
+      <c r="U13" s="5" t="inlineStr"/>
+      <c r="V13" s="7" t="n">
         <v>44362</v>
       </c>
-      <c r="W13" s="5" t="n">
+      <c r="W13" s="7" t="n">
         <v>44362</v>
       </c>
-      <c r="X13" s="5" t="n">
+      <c r="X13" s="7" t="n">
         <v>44371</v>
       </c>
-      <c r="Y13" s="4" t="inlineStr">
+      <c r="Y13" s="5" t="inlineStr">
         <is>
           <t>ALTITUDE ENGINEERING AND CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z13" s="4" t="inlineStr"/>
-      <c r="AA13" s="4" t="n"/>
+      <c r="Z13" s="5" t="inlineStr"/>
+      <c r="AA13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Bataan</t>
         </is>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="5" t="n">
         <v>104698</v>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" s="5" t="inlineStr">
         <is>
           <t>Sta. Rosa ES</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>PILAR</t>
         </is>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="G14" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4" t="n">
+      <c r="H14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J14" s="4" t="inlineStr">
+      <c r="J14" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="K14" s="5" t="n">
         <v>3568719.22</v>
       </c>
-      <c r="L14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" s="4" t="n">
+      <c r="L14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="5" t="n">
         <v>3548642.04</v>
       </c>
-      <c r="N14" s="4" t="inlineStr">
+      <c r="N14" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" s="5" t="n">
+      <c r="O14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="7" t="n">
         <v>44489</v>
       </c>
-      <c r="Q14" s="5" t="n">
+      <c r="Q14" s="7" t="n">
         <v>44445</v>
       </c>
-      <c r="R14" s="4" t="inlineStr">
+      <c r="R14" s="5" t="inlineStr">
         <is>
           <t>QRF2021-005</t>
         </is>
       </c>
-      <c r="S14" s="4" t="inlineStr">
+      <c r="S14" s="5" t="inlineStr">
         <is>
           <t>2021-CON-00015</t>
         </is>
       </c>
-      <c r="T14" s="4" t="inlineStr"/>
-      <c r="U14" s="4" t="inlineStr"/>
-      <c r="V14" s="5" t="n">
+      <c r="T14" s="5" t="inlineStr"/>
+      <c r="U14" s="5" t="inlineStr"/>
+      <c r="V14" s="7" t="n">
         <v>44362</v>
       </c>
-      <c r="W14" s="5" t="n">
+      <c r="W14" s="7" t="n">
         <v>44362</v>
       </c>
-      <c r="X14" s="5" t="n">
+      <c r="X14" s="7" t="n">
         <v>44370</v>
       </c>
-      <c r="Y14" s="4" t="inlineStr">
+      <c r="Y14" s="5" t="inlineStr">
         <is>
           <t>RODMAC CONSTRUCTION &amp;TRADING</t>
         </is>
       </c>
-      <c r="Z14" s="4" t="inlineStr"/>
-      <c r="AA14" s="4" t="n"/>
+      <c r="Z14" s="5" t="inlineStr"/>
+      <c r="AA14" s="6" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Bulacan</t>
         </is>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="5" t="n">
         <v>158542</v>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E15" s="5" t="inlineStr">
         <is>
           <t>St. Martha Elementary School</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>BOCAUE</t>
         </is>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="G15" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4" t="n">
+      <c r="H15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="J15" s="4" t="inlineStr">
+      <c r="J15" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K15" s="4" t="n">
+      <c r="K15" s="5" t="n">
         <v>751760.04</v>
       </c>
-      <c r="L15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" s="4" t="n">
+      <c r="L15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="5" t="n">
         <v>697369.88</v>
       </c>
-      <c r="N15" s="4" t="inlineStr">
+      <c r="N15" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="5" t="n">
+      <c r="O15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="7" t="n">
         <v>44491</v>
       </c>
-      <c r="Q15" s="5" t="n">
+      <c r="Q15" s="7" t="n">
         <v>44481</v>
       </c>
-      <c r="R15" s="4" t="inlineStr">
+      <c r="R15" s="5" t="inlineStr">
         <is>
           <t>PB-21-014</t>
         </is>
       </c>
-      <c r="S15" s="4" t="inlineStr">
+      <c r="S15" s="5" t="inlineStr">
         <is>
           <t>PB-21--025</t>
         </is>
       </c>
-      <c r="T15" s="5" t="n">
+      <c r="T15" s="7" t="n">
         <v>44369</v>
       </c>
-      <c r="U15" s="5" t="n">
+      <c r="U15" s="7" t="n">
         <v>44378</v>
       </c>
-      <c r="V15" s="5" t="n">
+      <c r="V15" s="7" t="n">
         <v>44391</v>
       </c>
-      <c r="W15" s="5" t="n">
+      <c r="W15" s="7" t="n">
         <v>44398</v>
       </c>
-      <c r="X15" s="5" t="n">
+      <c r="X15" s="7" t="n">
         <v>44439</v>
       </c>
-      <c r="Y15" s="4" t="inlineStr">
+      <c r="Y15" s="5" t="inlineStr">
         <is>
           <t>DUAMON Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="Z15" s="4" t="inlineStr"/>
-      <c r="AA15" s="4" t="n"/>
+      <c r="Z15" s="5" t="inlineStr"/>
+      <c r="AA15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Bulacan</t>
         </is>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="5" t="n">
         <v>127616</v>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="E16" s="5" t="inlineStr">
         <is>
           <t>Cacarong Bata Elementary School</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>PANDI</t>
         </is>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="G16" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4" t="n">
+      <c r="H16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="J16" s="4" t="inlineStr">
+      <c r="J16" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K16" s="4" t="n">
+      <c r="K16" s="5" t="n">
         <v>1781937.72</v>
       </c>
-      <c r="L16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" s="4" t="n">
+      <c r="L16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="5" t="n">
         <v>2105320.7</v>
       </c>
-      <c r="N16" s="4" t="inlineStr">
+      <c r="N16" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" s="5" t="n">
+      <c r="O16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="7" t="n">
         <v>44508</v>
       </c>
-      <c r="Q16" s="5" t="n">
+      <c r="Q16" s="7" t="n">
         <v>44496</v>
       </c>
-      <c r="R16" s="4" t="inlineStr">
+      <c r="R16" s="5" t="inlineStr">
         <is>
           <t>PB-21-013</t>
         </is>
       </c>
-      <c r="S16" s="4" t="inlineStr">
+      <c r="S16" s="5" t="inlineStr">
         <is>
           <t>PB-21--024</t>
         </is>
       </c>
-      <c r="T16" s="5" t="n">
+      <c r="T16" s="7" t="n">
         <v>44369</v>
       </c>
-      <c r="U16" s="5" t="n">
+      <c r="U16" s="7" t="n">
         <v>44378</v>
       </c>
-      <c r="V16" s="5" t="n">
+      <c r="V16" s="7" t="n">
         <v>44391</v>
       </c>
-      <c r="W16" s="5" t="n">
+      <c r="W16" s="7" t="n">
         <v>44398</v>
       </c>
-      <c r="X16" s="5" t="n">
+      <c r="X16" s="7" t="n">
         <v>44411</v>
       </c>
-      <c r="Y16" s="4" t="inlineStr">
+      <c r="Y16" s="5" t="inlineStr">
         <is>
           <t>EMICA Builders and Supply</t>
         </is>
       </c>
-      <c r="Z16" s="4" t="inlineStr"/>
-      <c r="AA16" s="4" t="n"/>
+      <c r="Z16" s="5" t="inlineStr"/>
+      <c r="AA16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Bulacan</t>
         </is>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="5" t="n">
         <v>105035</v>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E17" s="5" t="inlineStr">
         <is>
           <t>Garlang Elementary School</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>SAN ILDEFONSO</t>
         </is>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="G17" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4" t="n">
+      <c r="H17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J17" s="4" t="inlineStr">
+      <c r="J17" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K17" s="4" t="n">
+      <c r="K17" s="5" t="n">
         <v>2807039.59</v>
       </c>
-      <c r="L17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" s="4" t="n">
+      <c r="L17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="5" t="n">
         <v>1556027.8</v>
       </c>
-      <c r="N17" s="4" t="inlineStr">
+      <c r="N17" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" s="5" t="n">
+      <c r="O17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="7" t="n">
         <v>44508</v>
       </c>
-      <c r="Q17" s="5" t="n">
+      <c r="Q17" s="7" t="n">
         <v>44489</v>
       </c>
-      <c r="R17" s="4" t="inlineStr">
+      <c r="R17" s="5" t="inlineStr">
         <is>
           <t>PB-21-012</t>
         </is>
       </c>
-      <c r="S17" s="4" t="inlineStr">
+      <c r="S17" s="5" t="inlineStr">
         <is>
           <t>PB-21--023</t>
         </is>
       </c>
-      <c r="T17" s="5" t="n">
+      <c r="T17" s="7" t="n">
         <v>44369</v>
       </c>
-      <c r="U17" s="5" t="n">
+      <c r="U17" s="7" t="n">
         <v>44378</v>
       </c>
-      <c r="V17" s="5" t="n">
+      <c r="V17" s="7" t="n">
         <v>44391</v>
       </c>
-      <c r="W17" s="5" t="n">
+      <c r="W17" s="7" t="n">
         <v>44398</v>
       </c>
-      <c r="X17" s="5" t="n">
+      <c r="X17" s="7" t="n">
         <v>44411</v>
       </c>
-      <c r="Y17" s="4" t="inlineStr">
+      <c r="Y17" s="5" t="inlineStr">
         <is>
           <t>RHR Construction</t>
         </is>
       </c>
-      <c r="Z17" s="4" t="inlineStr"/>
-      <c r="AA17" s="4" t="n"/>
+      <c r="Z17" s="5" t="inlineStr"/>
+      <c r="AA17" s="6" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Bulacan</t>
         </is>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" s="5" t="n">
         <v>306728</v>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E18" s="5" t="inlineStr">
         <is>
           <t>Sta. Catalina Bata National High School</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>SAN ILDEFONSO</t>
         </is>
       </c>
-      <c r="G18" s="4" t="n">
+      <c r="G18" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4" t="n">
+      <c r="H18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J18" s="4" t="inlineStr">
+      <c r="J18" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K18" s="4" t="n">
+      <c r="K18" s="5" t="n">
         <v>432073.49</v>
       </c>
-      <c r="L18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" s="4" t="n">
+      <c r="L18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" s="5" t="n">
         <v>358601.03</v>
       </c>
-      <c r="N18" s="4" t="inlineStr">
+      <c r="N18" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" s="5" t="n">
+      <c r="O18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="7" t="n">
         <v>44463</v>
       </c>
-      <c r="Q18" s="5" t="n">
+      <c r="Q18" s="7" t="n">
         <v>44459</v>
       </c>
-      <c r="R18" s="4" t="inlineStr">
+      <c r="R18" s="5" t="inlineStr">
         <is>
           <t>PB-21-015</t>
         </is>
       </c>
-      <c r="S18" s="4" t="inlineStr">
+      <c r="S18" s="5" t="inlineStr">
         <is>
           <t>PB-21--026</t>
         </is>
       </c>
-      <c r="T18" s="5" t="n">
+      <c r="T18" s="7" t="n">
         <v>44369</v>
       </c>
-      <c r="U18" s="5" t="n">
+      <c r="U18" s="7" t="n">
         <v>44378</v>
       </c>
-      <c r="V18" s="5" t="n">
+      <c r="V18" s="7" t="n">
         <v>44391</v>
       </c>
-      <c r="W18" s="5" t="n">
+      <c r="W18" s="7" t="n">
         <v>44398</v>
       </c>
-      <c r="X18" s="5" t="n">
+      <c r="X18" s="7" t="n">
         <v>44411</v>
       </c>
-      <c r="Y18" s="4" t="inlineStr">
+      <c r="Y18" s="5" t="inlineStr">
         <is>
           <t>EMICA Builders and Supply</t>
         </is>
       </c>
-      <c r="Z18" s="4" t="inlineStr"/>
-      <c r="AA18" s="4" t="n"/>
+      <c r="Z18" s="5" t="inlineStr"/>
+      <c r="AA18" s="6" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Gapan City</t>
         </is>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="5" t="n">
         <v>500727</v>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr">
         <is>
           <t>Sto. Cristo Proper Integrated School</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>CITY OF GAPAN</t>
         </is>
       </c>
-      <c r="G19" s="4" t="n">
+      <c r="G19" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="4" t="n">
+      <c r="H19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J19" s="4" t="inlineStr">
+      <c r="J19" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K19" s="4" t="n">
+      <c r="K19" s="5" t="n">
         <v>573955.04</v>
       </c>
-      <c r="L19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" s="4" t="n">
+      <c r="L19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" s="5" t="n">
         <v>563657.79</v>
       </c>
-      <c r="N19" s="4" t="inlineStr">
+      <c r="N19" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="5" t="n">
+      <c r="O19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="7" t="n">
         <v>44435</v>
       </c>
-      <c r="Q19" s="5" t="n">
+      <c r="Q19" s="7" t="n">
         <v>44409</v>
       </c>
-      <c r="R19" s="4" t="inlineStr">
+      <c r="R19" s="5" t="inlineStr">
         <is>
           <t>2021-06-09-002-QRF</t>
         </is>
       </c>
-      <c r="S19" s="4" t="inlineStr">
+      <c r="S19" s="5" t="inlineStr">
         <is>
           <t>2021-06-09-002-QRF</t>
         </is>
       </c>
-      <c r="T19" s="5" t="n">
+      <c r="T19" s="7" t="n">
         <v>44357</v>
       </c>
-      <c r="U19" s="5" t="n">
+      <c r="U19" s="7" t="n">
         <v>44362</v>
       </c>
-      <c r="V19" s="5" t="n">
+      <c r="V19" s="7" t="n">
         <v>44362</v>
       </c>
-      <c r="W19" s="5" t="n">
+      <c r="W19" s="7" t="n">
         <v>44365</v>
       </c>
-      <c r="X19" s="5" t="n">
+      <c r="X19" s="7" t="n">
         <v>44375</v>
       </c>
-      <c r="Y19" s="4" t="inlineStr">
+      <c r="Y19" s="5" t="inlineStr">
         <is>
           <t>Joynieltin Construction and Trading</t>
         </is>
       </c>
-      <c r="Z19" s="4" t="inlineStr"/>
-      <c r="AA19" s="4" t="n"/>
+      <c r="Z19" s="5" t="inlineStr"/>
+      <c r="AA19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Malolos City</t>
         </is>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20" s="5" t="n">
         <v>104867</v>
       </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="E20" s="5" t="inlineStr">
         <is>
           <t>Caingin ES</t>
         </is>
       </c>
-      <c r="F20" s="4" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>CITY OF MALOLOS  (Capital)</t>
         </is>
       </c>
-      <c r="G20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4" t="n">
+      <c r="G20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J20" s="4" t="inlineStr">
+      <c r="J20" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K20" s="4" t="n">
+      <c r="K20" s="5" t="n">
         <v>1848240.83</v>
       </c>
-      <c r="L20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" s="4" t="n">
+      <c r="L20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" s="5" t="n">
         <v>1841861.9</v>
       </c>
-      <c r="N20" s="4" t="inlineStr">
+      <c r="N20" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" s="5" t="n">
+      <c r="O20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="7" t="n">
         <v>44543</v>
       </c>
-      <c r="Q20" s="4" t="inlineStr"/>
-      <c r="R20" s="4" t="inlineStr"/>
-      <c r="S20" s="4" t="inlineStr"/>
-      <c r="T20" s="4" t="inlineStr">
+      <c r="Q20" s="5" t="inlineStr"/>
+      <c r="R20" s="5" t="inlineStr"/>
+      <c r="S20" s="5" t="inlineStr"/>
+      <c r="T20" s="5" t="inlineStr">
         <is>
           <t>06/23-06/302021</t>
         </is>
       </c>
-      <c r="U20" s="5" t="n">
+      <c r="U20" s="7" t="n">
         <v>44377</v>
       </c>
-      <c r="V20" s="5" t="n">
+      <c r="V20" s="7" t="n">
         <v>44389</v>
       </c>
-      <c r="W20" s="5" t="n">
+      <c r="W20" s="7" t="n">
         <v>44392</v>
       </c>
-      <c r="X20" s="5" t="n">
+      <c r="X20" s="7" t="n">
         <v>44424</v>
       </c>
-      <c r="Y20" s="4" t="inlineStr">
+      <c r="Y20" s="5" t="inlineStr">
         <is>
           <t>POWERMETAL CONSTRUCTION CO.</t>
         </is>
       </c>
-      <c r="Z20" s="4" t="inlineStr"/>
-      <c r="AA20" s="4" t="n"/>
+      <c r="Z20" s="5" t="inlineStr"/>
+      <c r="AA20" s="6" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="5" t="n">
         <v>159015</v>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="E21" s="5" t="inlineStr">
         <is>
           <t>Osmena ES</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>QUEZON</t>
         </is>
       </c>
-      <c r="G21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="4" t="n">
+      <c r="G21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J21" s="4" t="inlineStr">
+      <c r="J21" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K21" s="4" t="n">
+      <c r="K21" s="5" t="n">
         <v>1163078.75</v>
       </c>
-      <c r="L21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" s="4" t="inlineStr"/>
-      <c r="N21" s="4" t="inlineStr">
+      <c r="L21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="5" t="inlineStr"/>
+      <c r="N21" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" s="4" t="inlineStr"/>
-      <c r="Q21" s="4" t="inlineStr"/>
-      <c r="R21" s="4" t="inlineStr"/>
-      <c r="S21" s="4" t="inlineStr"/>
-      <c r="T21" s="4" t="inlineStr"/>
-      <c r="U21" s="4" t="inlineStr"/>
-      <c r="V21" s="4" t="inlineStr"/>
-      <c r="W21" s="4" t="inlineStr"/>
-      <c r="X21" s="4" t="inlineStr"/>
-      <c r="Y21" s="4" t="inlineStr"/>
-      <c r="Z21" s="4" t="inlineStr"/>
-      <c r="AA21" s="4" t="n"/>
+      <c r="O21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="5" t="inlineStr"/>
+      <c r="Q21" s="5" t="inlineStr"/>
+      <c r="R21" s="5" t="inlineStr"/>
+      <c r="S21" s="5" t="inlineStr"/>
+      <c r="T21" s="5" t="inlineStr"/>
+      <c r="U21" s="5" t="inlineStr"/>
+      <c r="V21" s="5" t="inlineStr"/>
+      <c r="W21" s="5" t="inlineStr"/>
+      <c r="X21" s="5" t="inlineStr"/>
+      <c r="Y21" s="5" t="inlineStr"/>
+      <c r="Z21" s="5" t="inlineStr"/>
+      <c r="AA21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" s="5" t="n">
         <v>105625</v>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="E22" s="5" t="inlineStr">
         <is>
           <t>Ricardo L. Joson Elementary School</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>QUEZON</t>
         </is>
       </c>
-      <c r="G22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="4" t="n">
+      <c r="G22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J22" s="4" t="inlineStr">
+      <c r="J22" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K22" s="4" t="n">
+      <c r="K22" s="5" t="n">
         <v>1794967.02832394</v>
       </c>
-      <c r="L22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" s="4" t="inlineStr"/>
-      <c r="N22" s="4" t="inlineStr">
+      <c r="L22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" s="5" t="inlineStr"/>
+      <c r="N22" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" s="4" t="inlineStr"/>
-      <c r="Q22" s="4" t="inlineStr"/>
-      <c r="R22" s="4" t="inlineStr"/>
-      <c r="S22" s="4" t="inlineStr"/>
-      <c r="T22" s="4" t="inlineStr"/>
-      <c r="U22" s="4" t="inlineStr"/>
-      <c r="V22" s="4" t="inlineStr"/>
-      <c r="W22" s="4" t="inlineStr"/>
-      <c r="X22" s="4" t="inlineStr"/>
-      <c r="Y22" s="4" t="inlineStr"/>
-      <c r="Z22" s="4" t="inlineStr"/>
-      <c r="AA22" s="4" t="n"/>
+      <c r="O22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" s="5" t="inlineStr"/>
+      <c r="Q22" s="5" t="inlineStr"/>
+      <c r="R22" s="5" t="inlineStr"/>
+      <c r="S22" s="5" t="inlineStr"/>
+      <c r="T22" s="5" t="inlineStr"/>
+      <c r="U22" s="5" t="inlineStr"/>
+      <c r="V22" s="5" t="inlineStr"/>
+      <c r="W22" s="5" t="inlineStr"/>
+      <c r="X22" s="5" t="inlineStr"/>
+      <c r="Y22" s="5" t="inlineStr"/>
+      <c r="Z22" s="5" t="inlineStr"/>
+      <c r="AA22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="inlineStr">
+      <c r="A23" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D23" s="4" t="n">
+      <c r="D23" s="5" t="n">
         <v>105634</v>
       </c>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="E23" s="5" t="inlineStr">
         <is>
           <t>Tomas Joson ES</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>QUEZON</t>
         </is>
       </c>
-      <c r="G23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="4" t="n">
+      <c r="G23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J23" s="4" t="inlineStr">
+      <c r="J23" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K23" s="4" t="n">
+      <c r="K23" s="5" t="n">
         <v>1504463.25</v>
       </c>
-      <c r="L23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" s="4" t="inlineStr"/>
-      <c r="N23" s="4" t="inlineStr">
+      <c r="L23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" s="5" t="inlineStr"/>
+      <c r="N23" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" s="4" t="inlineStr"/>
-      <c r="Q23" s="4" t="inlineStr"/>
-      <c r="R23" s="4" t="inlineStr"/>
-      <c r="S23" s="4" t="inlineStr"/>
-      <c r="T23" s="4" t="inlineStr"/>
-      <c r="U23" s="4" t="inlineStr"/>
-      <c r="V23" s="4" t="inlineStr"/>
-      <c r="W23" s="4" t="inlineStr"/>
-      <c r="X23" s="4" t="inlineStr"/>
-      <c r="Y23" s="4" t="inlineStr"/>
-      <c r="Z23" s="4" t="inlineStr"/>
-      <c r="AA23" s="4" t="n"/>
+      <c r="O23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="5" t="inlineStr"/>
+      <c r="Q23" s="5" t="inlineStr"/>
+      <c r="R23" s="5" t="inlineStr"/>
+      <c r="S23" s="5" t="inlineStr"/>
+      <c r="T23" s="5" t="inlineStr"/>
+      <c r="U23" s="5" t="inlineStr"/>
+      <c r="V23" s="5" t="inlineStr"/>
+      <c r="W23" s="5" t="inlineStr"/>
+      <c r="X23" s="5" t="inlineStr"/>
+      <c r="Y23" s="5" t="inlineStr"/>
+      <c r="Z23" s="5" t="inlineStr"/>
+      <c r="AA23" s="6" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="inlineStr">
+      <c r="A24" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="D24" s="5" t="n">
         <v>105242</v>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="E24" s="5" t="inlineStr">
         <is>
           <t>Carranglan C/S</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>CARRANGLAN</t>
         </is>
       </c>
-      <c r="G24" s="4" t="n">
+      <c r="G24" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="4" t="n">
+      <c r="H24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J24" s="4" t="inlineStr">
+      <c r="J24" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K24" s="4" t="n">
+      <c r="K24" s="5" t="n">
         <v>1707160.486843938</v>
       </c>
-      <c r="L24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" s="4" t="inlineStr"/>
-      <c r="N24" s="4" t="inlineStr">
+      <c r="L24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" s="5" t="inlineStr"/>
+      <c r="N24" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" s="4" t="inlineStr"/>
-      <c r="Q24" s="4" t="inlineStr"/>
-      <c r="R24" s="4" t="inlineStr"/>
-      <c r="S24" s="4" t="inlineStr"/>
-      <c r="T24" s="4" t="inlineStr"/>
-      <c r="U24" s="4" t="inlineStr"/>
-      <c r="V24" s="4" t="inlineStr"/>
-      <c r="W24" s="4" t="inlineStr"/>
-      <c r="X24" s="4" t="inlineStr"/>
-      <c r="Y24" s="4" t="inlineStr"/>
-      <c r="Z24" s="4" t="inlineStr"/>
-      <c r="AA24" s="4" t="n"/>
+      <c r="O24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="5" t="inlineStr"/>
+      <c r="Q24" s="5" t="inlineStr"/>
+      <c r="R24" s="5" t="inlineStr"/>
+      <c r="S24" s="5" t="inlineStr"/>
+      <c r="T24" s="5" t="inlineStr"/>
+      <c r="U24" s="5" t="inlineStr"/>
+      <c r="V24" s="5" t="inlineStr"/>
+      <c r="W24" s="5" t="inlineStr"/>
+      <c r="X24" s="5" t="inlineStr"/>
+      <c r="Y24" s="5" t="inlineStr"/>
+      <c r="Z24" s="5" t="inlineStr"/>
+      <c r="AA24" s="6" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="A25" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D25" s="4" t="n">
+      <c r="D25" s="5" t="n">
         <v>105498</v>
       </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="E25" s="5" t="inlineStr">
         <is>
           <t>General Ricarte ES</t>
         </is>
       </c>
-      <c r="F25" s="4" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>LLANERA</t>
         </is>
       </c>
-      <c r="G25" s="4" t="n">
+      <c r="G25" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="4" t="n">
+      <c r="H25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J25" s="4" t="inlineStr">
+      <c r="J25" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K25" s="4" t="n">
+      <c r="K25" s="5" t="n">
         <v>2043160.46524502</v>
       </c>
-      <c r="L25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" s="4" t="inlineStr"/>
-      <c r="N25" s="4" t="inlineStr">
+      <c r="L25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="5" t="inlineStr"/>
+      <c r="N25" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" s="4" t="inlineStr"/>
-      <c r="Q25" s="4" t="inlineStr"/>
-      <c r="R25" s="4" t="inlineStr"/>
-      <c r="S25" s="4" t="inlineStr"/>
-      <c r="T25" s="4" t="inlineStr"/>
-      <c r="U25" s="4" t="inlineStr"/>
-      <c r="V25" s="4" t="inlineStr"/>
-      <c r="W25" s="4" t="inlineStr"/>
-      <c r="X25" s="4" t="inlineStr"/>
-      <c r="Y25" s="4" t="inlineStr"/>
-      <c r="Z25" s="4" t="inlineStr"/>
-      <c r="AA25" s="4" t="n"/>
+      <c r="O25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" s="5" t="inlineStr"/>
+      <c r="Q25" s="5" t="inlineStr"/>
+      <c r="R25" s="5" t="inlineStr"/>
+      <c r="S25" s="5" t="inlineStr"/>
+      <c r="T25" s="5" t="inlineStr"/>
+      <c r="U25" s="5" t="inlineStr"/>
+      <c r="V25" s="5" t="inlineStr"/>
+      <c r="W25" s="5" t="inlineStr"/>
+      <c r="X25" s="5" t="inlineStr"/>
+      <c r="Y25" s="5" t="inlineStr"/>
+      <c r="Z25" s="5" t="inlineStr"/>
+      <c r="AA25" s="6" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
+      <c r="A26" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D26" s="4" t="n">
+      <c r="D26" s="5" t="n">
         <v>105655</v>
       </c>
-      <c r="E26" s="4" t="inlineStr">
+      <c r="E26" s="5" t="inlineStr">
         <is>
           <t>San Esteban ES</t>
         </is>
       </c>
-      <c r="F26" s="4" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>RIZAL</t>
         </is>
       </c>
-      <c r="G26" s="4" t="n">
+      <c r="G26" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="4" t="n">
+      <c r="H26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J26" s="4" t="inlineStr">
+      <c r="J26" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K26" s="4" t="n">
+      <c r="K26" s="5" t="n">
         <v>1163078.75</v>
       </c>
-      <c r="L26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" s="4" t="inlineStr"/>
-      <c r="N26" s="4" t="inlineStr">
+      <c r="L26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" s="5" t="inlineStr"/>
+      <c r="N26" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" s="4" t="inlineStr"/>
-      <c r="Q26" s="4" t="inlineStr"/>
-      <c r="R26" s="4" t="inlineStr"/>
-      <c r="S26" s="4" t="inlineStr"/>
-      <c r="T26" s="4" t="inlineStr"/>
-      <c r="U26" s="4" t="inlineStr"/>
-      <c r="V26" s="4" t="inlineStr"/>
-      <c r="W26" s="4" t="inlineStr"/>
-      <c r="X26" s="4" t="inlineStr"/>
-      <c r="Y26" s="4" t="inlineStr"/>
-      <c r="Z26" s="4" t="inlineStr"/>
-      <c r="AA26" s="4" t="n"/>
+      <c r="O26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" s="5" t="inlineStr"/>
+      <c r="Q26" s="5" t="inlineStr"/>
+      <c r="R26" s="5" t="inlineStr"/>
+      <c r="S26" s="5" t="inlineStr"/>
+      <c r="T26" s="5" t="inlineStr"/>
+      <c r="U26" s="5" t="inlineStr"/>
+      <c r="V26" s="5" t="inlineStr"/>
+      <c r="W26" s="5" t="inlineStr"/>
+      <c r="X26" s="5" t="inlineStr"/>
+      <c r="Y26" s="5" t="inlineStr"/>
+      <c r="Z26" s="5" t="inlineStr"/>
+      <c r="AA26" s="6" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="inlineStr">
+      <c r="A27" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="D27" s="5" t="n">
         <v>105194</v>
       </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="E27" s="5" t="inlineStr">
         <is>
           <t>Antipolo ES</t>
         </is>
       </c>
-      <c r="F27" s="4" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>BONGABON</t>
         </is>
       </c>
-      <c r="G27" s="4" t="n">
+      <c r="G27" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="4" t="n">
+      <c r="H27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J27" s="4" t="inlineStr">
+      <c r="J27" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K27" s="4" t="n">
+      <c r="K27" s="5" t="n">
         <v>1436427.512342466</v>
       </c>
-      <c r="L27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" s="4" t="inlineStr"/>
-      <c r="N27" s="4" t="inlineStr">
+      <c r="L27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" s="5" t="inlineStr"/>
+      <c r="N27" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" s="4" t="inlineStr"/>
-      <c r="Q27" s="4" t="inlineStr"/>
-      <c r="R27" s="4" t="inlineStr"/>
-      <c r="S27" s="4" t="inlineStr"/>
-      <c r="T27" s="4" t="inlineStr"/>
-      <c r="U27" s="4" t="inlineStr"/>
-      <c r="V27" s="4" t="inlineStr"/>
-      <c r="W27" s="4" t="inlineStr"/>
-      <c r="X27" s="4" t="inlineStr"/>
-      <c r="Y27" s="4" t="inlineStr"/>
-      <c r="Z27" s="4" t="inlineStr"/>
-      <c r="AA27" s="4" t="n"/>
+      <c r="O27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" s="5" t="inlineStr"/>
+      <c r="Q27" s="5" t="inlineStr"/>
+      <c r="R27" s="5" t="inlineStr"/>
+      <c r="S27" s="5" t="inlineStr"/>
+      <c r="T27" s="5" t="inlineStr"/>
+      <c r="U27" s="5" t="inlineStr"/>
+      <c r="V27" s="5" t="inlineStr"/>
+      <c r="W27" s="5" t="inlineStr"/>
+      <c r="X27" s="5" t="inlineStr"/>
+      <c r="Y27" s="5" t="inlineStr"/>
+      <c r="Z27" s="5" t="inlineStr"/>
+      <c r="AA27" s="6" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="inlineStr">
+      <c r="A28" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D28" s="4" t="n">
+      <c r="D28" s="5" t="n">
         <v>105195</v>
       </c>
-      <c r="E28" s="4" t="inlineStr">
+      <c r="E28" s="5" t="inlineStr">
         <is>
           <t>Ariendo ES</t>
         </is>
       </c>
-      <c r="F28" s="4" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>BONGABON</t>
         </is>
       </c>
-      <c r="G28" s="4" t="n">
+      <c r="G28" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="4" t="n">
+      <c r="H28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J28" s="4" t="inlineStr">
+      <c r="J28" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K28" s="4" t="n">
+      <c r="K28" s="5" t="n">
         <v>1690473.37</v>
       </c>
-      <c r="L28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" s="4" t="inlineStr"/>
-      <c r="N28" s="4" t="inlineStr">
+      <c r="L28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" s="5" t="inlineStr"/>
+      <c r="N28" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" s="4" t="inlineStr"/>
-      <c r="Q28" s="4" t="inlineStr"/>
-      <c r="R28" s="4" t="inlineStr"/>
-      <c r="S28" s="4" t="inlineStr"/>
-      <c r="T28" s="4" t="inlineStr"/>
-      <c r="U28" s="4" t="inlineStr"/>
-      <c r="V28" s="4" t="inlineStr"/>
-      <c r="W28" s="4" t="inlineStr"/>
-      <c r="X28" s="4" t="inlineStr"/>
-      <c r="Y28" s="4" t="inlineStr"/>
-      <c r="Z28" s="4" t="inlineStr"/>
-      <c r="AA28" s="4" t="n"/>
+      <c r="O28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" s="5" t="inlineStr"/>
+      <c r="Q28" s="5" t="inlineStr"/>
+      <c r="R28" s="5" t="inlineStr"/>
+      <c r="S28" s="5" t="inlineStr"/>
+      <c r="T28" s="5" t="inlineStr"/>
+      <c r="U28" s="5" t="inlineStr"/>
+      <c r="V28" s="5" t="inlineStr"/>
+      <c r="W28" s="5" t="inlineStr"/>
+      <c r="X28" s="5" t="inlineStr"/>
+      <c r="Y28" s="5" t="inlineStr"/>
+      <c r="Z28" s="5" t="inlineStr"/>
+      <c r="AA28" s="6" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="inlineStr">
+      <c r="A29" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D29" s="4" t="n">
+      <c r="D29" s="5" t="n">
         <v>105306</v>
       </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="E29" s="5" t="inlineStr">
         <is>
           <t>F. Buencamino Sr. Integrated School (F. Buencamino Sr. ES)</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>GABALDON (BITULOK &amp; SABANI)</t>
         </is>
       </c>
-      <c r="G29" s="4" t="n">
+      <c r="G29" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="4" t="n">
+      <c r="H29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J29" s="4" t="inlineStr">
+      <c r="J29" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K29" s="4" t="n">
+      <c r="K29" s="5" t="n">
         <v>1794967.02832394</v>
       </c>
-      <c r="L29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" s="4" t="inlineStr"/>
-      <c r="N29" s="4" t="inlineStr">
+      <c r="L29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" s="5" t="inlineStr"/>
+      <c r="N29" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" s="4" t="inlineStr"/>
-      <c r="Q29" s="4" t="inlineStr"/>
-      <c r="R29" s="4" t="inlineStr"/>
-      <c r="S29" s="4" t="inlineStr"/>
-      <c r="T29" s="4" t="inlineStr"/>
-      <c r="U29" s="4" t="inlineStr"/>
-      <c r="V29" s="4" t="inlineStr"/>
-      <c r="W29" s="4" t="inlineStr"/>
-      <c r="X29" s="4" t="inlineStr"/>
-      <c r="Y29" s="4" t="inlineStr"/>
-      <c r="Z29" s="4" t="inlineStr"/>
-      <c r="AA29" s="4" t="n"/>
+      <c r="O29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" s="5" t="inlineStr"/>
+      <c r="Q29" s="5" t="inlineStr"/>
+      <c r="R29" s="5" t="inlineStr"/>
+      <c r="S29" s="5" t="inlineStr"/>
+      <c r="T29" s="5" t="inlineStr"/>
+      <c r="U29" s="5" t="inlineStr"/>
+      <c r="V29" s="5" t="inlineStr"/>
+      <c r="W29" s="5" t="inlineStr"/>
+      <c r="X29" s="5" t="inlineStr"/>
+      <c r="Y29" s="5" t="inlineStr"/>
+      <c r="Z29" s="5" t="inlineStr"/>
+      <c r="AA29" s="6" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="inlineStr">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D30" s="4" t="n">
+      <c r="D30" s="5" t="n">
         <v>105313</v>
       </c>
-      <c r="E30" s="4" t="inlineStr">
+      <c r="E30" s="5" t="inlineStr">
         <is>
           <t>Tagumpay ES</t>
         </is>
       </c>
-      <c r="F30" s="4" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>GABALDON (BITULOK &amp; SABANI)</t>
         </is>
       </c>
-      <c r="G30" s="4" t="n">
+      <c r="G30" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="4" t="n">
+      <c r="H30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J30" s="4" t="inlineStr">
+      <c r="J30" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K30" s="4" t="n">
+      <c r="K30" s="5" t="n">
         <v>1066073.88</v>
       </c>
-      <c r="L30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" s="4" t="inlineStr"/>
-      <c r="N30" s="4" t="inlineStr">
+      <c r="L30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" s="5" t="inlineStr"/>
+      <c r="N30" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P30" s="4" t="inlineStr"/>
-      <c r="Q30" s="4" t="inlineStr"/>
-      <c r="R30" s="4" t="inlineStr"/>
-      <c r="S30" s="4" t="inlineStr"/>
-      <c r="T30" s="4" t="inlineStr"/>
-      <c r="U30" s="4" t="inlineStr"/>
-      <c r="V30" s="4" t="inlineStr"/>
-      <c r="W30" s="4" t="inlineStr"/>
-      <c r="X30" s="4" t="inlineStr"/>
-      <c r="Y30" s="4" t="inlineStr"/>
-      <c r="Z30" s="4" t="inlineStr"/>
-      <c r="AA30" s="4" t="n"/>
+      <c r="O30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" s="5" t="inlineStr"/>
+      <c r="Q30" s="5" t="inlineStr"/>
+      <c r="R30" s="5" t="inlineStr"/>
+      <c r="S30" s="5" t="inlineStr"/>
+      <c r="T30" s="5" t="inlineStr"/>
+      <c r="U30" s="5" t="inlineStr"/>
+      <c r="V30" s="5" t="inlineStr"/>
+      <c r="W30" s="5" t="inlineStr"/>
+      <c r="X30" s="5" t="inlineStr"/>
+      <c r="Y30" s="5" t="inlineStr"/>
+      <c r="Z30" s="5" t="inlineStr"/>
+      <c r="AA30" s="6" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="D31" s="5" t="n">
         <v>105757</v>
       </c>
-      <c r="E31" s="4" t="inlineStr">
+      <c r="E31" s="5" t="inlineStr">
         <is>
           <t>Pepito B. Bernardo Mem. School</t>
         </is>
       </c>
-      <c r="F31" s="4" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>SANTA ROSA</t>
         </is>
       </c>
-      <c r="G31" s="4" t="n">
+      <c r="G31" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="4" t="n">
+      <c r="H31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J31" s="4" t="inlineStr">
+      <c r="J31" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K31" s="4" t="n">
+      <c r="K31" s="5" t="n">
         <v>1794967.02832394</v>
       </c>
-      <c r="L31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" s="4" t="inlineStr"/>
-      <c r="N31" s="4" t="inlineStr">
+      <c r="L31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" s="5" t="inlineStr"/>
+      <c r="N31" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" s="4" t="inlineStr"/>
-      <c r="Q31" s="4" t="inlineStr"/>
-      <c r="R31" s="4" t="inlineStr"/>
-      <c r="S31" s="4" t="inlineStr"/>
-      <c r="T31" s="4" t="inlineStr"/>
-      <c r="U31" s="4" t="inlineStr"/>
-      <c r="V31" s="4" t="inlineStr"/>
-      <c r="W31" s="4" t="inlineStr"/>
-      <c r="X31" s="4" t="inlineStr"/>
-      <c r="Y31" s="4" t="inlineStr"/>
-      <c r="Z31" s="4" t="inlineStr"/>
-      <c r="AA31" s="4" t="n"/>
+      <c r="O31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" s="5" t="inlineStr"/>
+      <c r="Q31" s="5" t="inlineStr"/>
+      <c r="R31" s="5" t="inlineStr"/>
+      <c r="S31" s="5" t="inlineStr"/>
+      <c r="T31" s="5" t="inlineStr"/>
+      <c r="U31" s="5" t="inlineStr"/>
+      <c r="V31" s="5" t="inlineStr"/>
+      <c r="W31" s="5" t="inlineStr"/>
+      <c r="X31" s="5" t="inlineStr"/>
+      <c r="Y31" s="5" t="inlineStr"/>
+      <c r="Z31" s="5" t="inlineStr"/>
+      <c r="AA31" s="6" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="B32" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D32" s="4" t="n">
+      <c r="D32" s="5" t="n">
         <v>105227</v>
       </c>
-      <c r="E32" s="4" t="inlineStr">
+      <c r="E32" s="5" t="inlineStr">
         <is>
           <t>San Roque ES</t>
         </is>
       </c>
-      <c r="F32" s="4" t="inlineStr">
+      <c r="F32" s="5" t="inlineStr">
         <is>
           <t>CABIAO</t>
         </is>
       </c>
-      <c r="G32" s="4" t="n">
+      <c r="G32" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="4" t="n">
+      <c r="H32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J32" s="4" t="inlineStr">
+      <c r="J32" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K32" s="4" t="n">
+      <c r="K32" s="5" t="n">
         <v>1942651.42</v>
       </c>
-      <c r="L32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" s="4" t="inlineStr"/>
-      <c r="N32" s="4" t="inlineStr">
+      <c r="L32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" s="5" t="inlineStr"/>
+      <c r="N32" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P32" s="4" t="inlineStr"/>
-      <c r="Q32" s="4" t="inlineStr"/>
-      <c r="R32" s="4" t="inlineStr"/>
-      <c r="S32" s="4" t="inlineStr"/>
-      <c r="T32" s="4" t="inlineStr"/>
-      <c r="U32" s="4" t="inlineStr"/>
-      <c r="V32" s="4" t="inlineStr"/>
-      <c r="W32" s="4" t="inlineStr"/>
-      <c r="X32" s="4" t="inlineStr"/>
-      <c r="Y32" s="4" t="inlineStr"/>
-      <c r="Z32" s="4" t="inlineStr"/>
-      <c r="AA32" s="4" t="n"/>
+      <c r="O32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" s="5" t="inlineStr"/>
+      <c r="Q32" s="5" t="inlineStr"/>
+      <c r="R32" s="5" t="inlineStr"/>
+      <c r="S32" s="5" t="inlineStr"/>
+      <c r="T32" s="5" t="inlineStr"/>
+      <c r="U32" s="5" t="inlineStr"/>
+      <c r="V32" s="5" t="inlineStr"/>
+      <c r="W32" s="5" t="inlineStr"/>
+      <c r="X32" s="5" t="inlineStr"/>
+      <c r="Y32" s="5" t="inlineStr"/>
+      <c r="Z32" s="5" t="inlineStr"/>
+      <c r="AA32" s="6" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="inlineStr">
+      <c r="A33" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="B33" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
         <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D33" s="4" t="n">
+      <c r="D33" s="5" t="n">
         <v>105232</v>
       </c>
-      <c r="E33" s="4" t="inlineStr">
+      <c r="E33" s="5" t="inlineStr">
         <is>
           <t>Sta. Isabel Elementary School</t>
         </is>
       </c>
-      <c r="F33" s="4" t="inlineStr">
+      <c r="F33" s="5" t="inlineStr">
         <is>
           <t>CABIAO</t>
         </is>
       </c>
-      <c r="G33" s="4" t="n">
+      <c r="G33" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" s="4" t="n">
+      <c r="H33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J33" s="4" t="inlineStr">
+      <c r="J33" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K33" s="4" t="n">
+      <c r="K33" s="5" t="n">
         <v>2177382.21</v>
       </c>
-      <c r="L33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" s="4" t="inlineStr"/>
-      <c r="N33" s="4" t="inlineStr">
+      <c r="L33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" s="5" t="inlineStr"/>
+      <c r="N33" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P33" s="4" t="inlineStr"/>
-      <c r="Q33" s="4" t="inlineStr"/>
-      <c r="R33" s="4" t="inlineStr"/>
-      <c r="S33" s="4" t="inlineStr"/>
-      <c r="T33" s="4" t="inlineStr"/>
-      <c r="U33" s="4" t="inlineStr"/>
-      <c r="V33" s="4" t="inlineStr"/>
-      <c r="W33" s="4" t="inlineStr"/>
-      <c r="X33" s="4" t="inlineStr"/>
-      <c r="Y33" s="4" t="inlineStr"/>
-      <c r="Z33" s="4" t="inlineStr"/>
-      <c r="AA33" s="4" t="n"/>
+      <c r="O33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" s="5" t="inlineStr"/>
+      <c r="Q33" s="5" t="inlineStr"/>
+      <c r="R33" s="5" t="inlineStr"/>
+      <c r="S33" s="5" t="inlineStr"/>
+      <c r="T33" s="5" t="inlineStr"/>
+      <c r="U33" s="5" t="inlineStr"/>
+      <c r="V33" s="5" t="inlineStr"/>
+      <c r="W33" s="5" t="inlineStr"/>
+      <c r="X33" s="5" t="inlineStr"/>
+      <c r="Y33" s="5" t="inlineStr"/>
+      <c r="Z33" s="5" t="inlineStr"/>
+      <c r="AA33" s="6" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="inlineStr">
+      <c r="A34" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B34" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
         <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D34" s="4" t="n">
+      <c r="D34" s="5" t="n">
         <v>105454</v>
       </c>
-      <c r="E34" s="4" t="inlineStr">
+      <c r="E34" s="5" t="inlineStr">
         <is>
           <t>San Vicente ES</t>
         </is>
       </c>
-      <c r="F34" s="4" t="inlineStr">
+      <c r="F34" s="5" t="inlineStr">
         <is>
           <t>JAEN</t>
         </is>
       </c>
-      <c r="G34" s="4" t="n">
+      <c r="G34" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" s="4" t="n">
+      <c r="H34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J34" s="4" t="inlineStr">
+      <c r="J34" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K34" s="4" t="n">
+      <c r="K34" s="5" t="n">
         <v>1794967.02832394</v>
       </c>
-      <c r="L34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" s="4" t="inlineStr"/>
-      <c r="N34" s="4" t="inlineStr">
+      <c r="L34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" s="5" t="inlineStr"/>
+      <c r="N34" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P34" s="4" t="inlineStr"/>
-      <c r="Q34" s="4" t="inlineStr"/>
-      <c r="R34" s="4" t="inlineStr"/>
-      <c r="S34" s="4" t="inlineStr"/>
-      <c r="T34" s="4" t="inlineStr"/>
-      <c r="U34" s="4" t="inlineStr"/>
-      <c r="V34" s="4" t="inlineStr"/>
-      <c r="W34" s="4" t="inlineStr"/>
-      <c r="X34" s="4" t="inlineStr"/>
-      <c r="Y34" s="4" t="inlineStr"/>
-      <c r="Z34" s="4" t="inlineStr"/>
-      <c r="AA34" s="4" t="n"/>
+      <c r="O34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" s="5" t="inlineStr"/>
+      <c r="Q34" s="5" t="inlineStr"/>
+      <c r="R34" s="5" t="inlineStr"/>
+      <c r="S34" s="5" t="inlineStr"/>
+      <c r="T34" s="5" t="inlineStr"/>
+      <c r="U34" s="5" t="inlineStr"/>
+      <c r="V34" s="5" t="inlineStr"/>
+      <c r="W34" s="5" t="inlineStr"/>
+      <c r="X34" s="5" t="inlineStr"/>
+      <c r="Y34" s="5" t="inlineStr"/>
+      <c r="Z34" s="5" t="inlineStr"/>
+      <c r="AA34" s="6" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="inlineStr">
+      <c r="A35" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
         <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D35" s="4" t="n">
+      <c r="D35" s="5" t="n">
         <v>105681</v>
       </c>
-      <c r="E35" s="4" t="inlineStr">
+      <c r="E35" s="5" t="inlineStr">
         <is>
           <t>Calaba ES</t>
         </is>
       </c>
-      <c r="F35" s="4" t="inlineStr">
+      <c r="F35" s="5" t="inlineStr">
         <is>
           <t>SAN ISIDRO</t>
         </is>
       </c>
-      <c r="G35" s="4" t="n">
+      <c r="G35" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H35" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" s="4" t="n">
+      <c r="H35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J35" s="4" t="inlineStr">
+      <c r="J35" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K35" s="4" t="n">
+      <c r="K35" s="5" t="n">
         <v>1794967.02832394</v>
       </c>
-      <c r="L35" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" s="4" t="inlineStr"/>
-      <c r="N35" s="4" t="inlineStr">
+      <c r="L35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" s="5" t="inlineStr"/>
+      <c r="N35" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O35" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P35" s="4" t="inlineStr"/>
-      <c r="Q35" s="4" t="inlineStr"/>
-      <c r="R35" s="4" t="inlineStr"/>
-      <c r="S35" s="4" t="inlineStr"/>
-      <c r="T35" s="4" t="inlineStr"/>
-      <c r="U35" s="4" t="inlineStr"/>
-      <c r="V35" s="4" t="inlineStr"/>
-      <c r="W35" s="4" t="inlineStr"/>
-      <c r="X35" s="4" t="inlineStr"/>
-      <c r="Y35" s="4" t="inlineStr"/>
-      <c r="Z35" s="4" t="inlineStr"/>
-      <c r="AA35" s="4" t="n"/>
+      <c r="O35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" s="5" t="inlineStr"/>
+      <c r="Q35" s="5" t="inlineStr"/>
+      <c r="R35" s="5" t="inlineStr"/>
+      <c r="S35" s="5" t="inlineStr"/>
+      <c r="T35" s="5" t="inlineStr"/>
+      <c r="U35" s="5" t="inlineStr"/>
+      <c r="V35" s="5" t="inlineStr"/>
+      <c r="W35" s="5" t="inlineStr"/>
+      <c r="X35" s="5" t="inlineStr"/>
+      <c r="Y35" s="5" t="inlineStr"/>
+      <c r="Z35" s="5" t="inlineStr"/>
+      <c r="AA35" s="6" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="inlineStr">
+      <c r="A36" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B36" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C36" s="4" t="inlineStr">
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
         <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D36" s="4" t="n">
+      <c r="D36" s="5" t="n">
         <v>105683</v>
       </c>
-      <c r="E36" s="4" t="inlineStr">
+      <c r="E36" s="5" t="inlineStr">
         <is>
           <t>Malapit East ES</t>
         </is>
       </c>
-      <c r="F36" s="4" t="inlineStr">
+      <c r="F36" s="5" t="inlineStr">
         <is>
           <t>SAN ISIDRO</t>
         </is>
       </c>
-      <c r="G36" s="4" t="n">
+      <c r="G36" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H36" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" s="4" t="n">
+      <c r="H36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J36" s="4" t="inlineStr">
+      <c r="J36" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K36" s="4" t="n">
+      <c r="K36" s="5" t="n">
         <v>1163078.75</v>
       </c>
-      <c r="L36" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" s="4" t="inlineStr"/>
-      <c r="N36" s="4" t="inlineStr">
+      <c r="L36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" s="5" t="inlineStr"/>
+      <c r="N36" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O36" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P36" s="4" t="inlineStr"/>
-      <c r="Q36" s="4" t="inlineStr"/>
-      <c r="R36" s="4" t="inlineStr"/>
-      <c r="S36" s="4" t="inlineStr"/>
-      <c r="T36" s="4" t="inlineStr"/>
-      <c r="U36" s="4" t="inlineStr"/>
-      <c r="V36" s="4" t="inlineStr"/>
-      <c r="W36" s="4" t="inlineStr"/>
-      <c r="X36" s="4" t="inlineStr"/>
-      <c r="Y36" s="4" t="inlineStr"/>
-      <c r="Z36" s="4" t="inlineStr"/>
-      <c r="AA36" s="4" t="n"/>
+      <c r="O36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" s="5" t="inlineStr"/>
+      <c r="Q36" s="5" t="inlineStr"/>
+      <c r="R36" s="5" t="inlineStr"/>
+      <c r="S36" s="5" t="inlineStr"/>
+      <c r="T36" s="5" t="inlineStr"/>
+      <c r="U36" s="5" t="inlineStr"/>
+      <c r="V36" s="5" t="inlineStr"/>
+      <c r="W36" s="5" t="inlineStr"/>
+      <c r="X36" s="5" t="inlineStr"/>
+      <c r="Y36" s="5" t="inlineStr"/>
+      <c r="Z36" s="5" t="inlineStr"/>
+      <c r="AA36" s="6" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="inlineStr">
+      <c r="A37" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B37" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C37" s="4" t="inlineStr">
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D37" s="4" t="n">
+      <c r="D37" s="5" t="n">
         <v>105687</v>
       </c>
-      <c r="E37" s="4" t="inlineStr">
+      <c r="E37" s="5" t="inlineStr">
         <is>
           <t>San Isidro CS</t>
         </is>
       </c>
-      <c r="F37" s="4" t="inlineStr">
+      <c r="F37" s="5" t="inlineStr">
         <is>
           <t>SAN ISIDRO</t>
         </is>
       </c>
-      <c r="G37" s="4" t="n">
+      <c r="G37" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H37" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" s="4" t="n">
+      <c r="H37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J37" s="4" t="inlineStr">
+      <c r="J37" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K37" s="4" t="n">
+      <c r="K37" s="5" t="n">
         <v>3042657.17250218</v>
       </c>
-      <c r="L37" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" s="4" t="inlineStr"/>
-      <c r="N37" s="4" t="inlineStr">
+      <c r="L37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" s="5" t="inlineStr"/>
+      <c r="N37" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O37" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P37" s="4" t="inlineStr"/>
-      <c r="Q37" s="4" t="inlineStr"/>
-      <c r="R37" s="4" t="inlineStr"/>
-      <c r="S37" s="4" t="inlineStr"/>
-      <c r="T37" s="4" t="inlineStr"/>
-      <c r="U37" s="4" t="inlineStr"/>
-      <c r="V37" s="4" t="inlineStr"/>
-      <c r="W37" s="4" t="inlineStr"/>
-      <c r="X37" s="4" t="inlineStr"/>
-      <c r="Y37" s="4" t="inlineStr"/>
-      <c r="Z37" s="4" t="inlineStr"/>
-      <c r="AA37" s="4" t="n"/>
+      <c r="O37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P37" s="5" t="inlineStr"/>
+      <c r="Q37" s="5" t="inlineStr"/>
+      <c r="R37" s="5" t="inlineStr"/>
+      <c r="S37" s="5" t="inlineStr"/>
+      <c r="T37" s="5" t="inlineStr"/>
+      <c r="U37" s="5" t="inlineStr"/>
+      <c r="V37" s="5" t="inlineStr"/>
+      <c r="W37" s="5" t="inlineStr"/>
+      <c r="X37" s="5" t="inlineStr"/>
+      <c r="Y37" s="5" t="inlineStr"/>
+      <c r="Z37" s="5" t="inlineStr"/>
+      <c r="AA37" s="6" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="inlineStr">
+      <c r="A38" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B38" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="B38" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
         <is>
           <t>Pampanga</t>
         </is>
       </c>
-      <c r="D38" s="4" t="n">
+      <c r="D38" s="5" t="n">
         <v>105899</v>
       </c>
-      <c r="E38" s="4" t="inlineStr">
+      <c r="E38" s="5" t="inlineStr">
         <is>
           <t>Arenas ES</t>
         </is>
       </c>
-      <c r="F38" s="4" t="inlineStr">
+      <c r="F38" s="5" t="inlineStr">
         <is>
           <t>ARAYAT</t>
         </is>
       </c>
-      <c r="G38" s="4" t="n">
+      <c r="G38" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" s="4" t="n">
+      <c r="H38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J38" s="4" t="inlineStr">
+      <c r="J38" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K38" s="4" t="n">
+      <c r="K38" s="5" t="n">
         <v>3803405</v>
       </c>
-      <c r="L38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" s="4" t="inlineStr"/>
-      <c r="N38" s="4" t="inlineStr">
+      <c r="L38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" s="5" t="inlineStr"/>
+      <c r="N38" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P38" s="4" t="inlineStr"/>
-      <c r="Q38" s="4" t="inlineStr"/>
-      <c r="R38" s="4" t="inlineStr"/>
-      <c r="S38" s="4" t="inlineStr"/>
-      <c r="T38" s="4" t="inlineStr"/>
-      <c r="U38" s="4" t="inlineStr"/>
-      <c r="V38" s="4" t="inlineStr"/>
-      <c r="W38" s="4" t="inlineStr"/>
-      <c r="X38" s="4" t="inlineStr"/>
-      <c r="Y38" s="4" t="inlineStr"/>
-      <c r="Z38" s="4" t="inlineStr"/>
-      <c r="AA38" s="4" t="n"/>
+      <c r="O38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" s="5" t="inlineStr"/>
+      <c r="Q38" s="5" t="inlineStr"/>
+      <c r="R38" s="5" t="inlineStr"/>
+      <c r="S38" s="5" t="inlineStr"/>
+      <c r="T38" s="5" t="inlineStr"/>
+      <c r="U38" s="5" t="inlineStr"/>
+      <c r="V38" s="5" t="inlineStr"/>
+      <c r="W38" s="5" t="inlineStr"/>
+      <c r="X38" s="5" t="inlineStr"/>
+      <c r="Y38" s="5" t="inlineStr"/>
+      <c r="Z38" s="5" t="inlineStr"/>
+      <c r="AA38" s="6" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="inlineStr">
+      <c r="A39" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B39" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C39" s="4" t="inlineStr">
+      <c r="B39" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
         <is>
           <t>Pampanga</t>
         </is>
       </c>
-      <c r="D39" s="4" t="n">
+      <c r="D39" s="5" t="n">
         <v>105903</v>
       </c>
-      <c r="E39" s="4" t="inlineStr">
+      <c r="E39" s="5" t="inlineStr">
         <is>
           <t>Cacutud ES</t>
         </is>
       </c>
-      <c r="F39" s="4" t="inlineStr">
+      <c r="F39" s="5" t="inlineStr">
         <is>
           <t>ARAYAT</t>
         </is>
       </c>
-      <c r="G39" s="4" t="n">
+      <c r="G39" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H39" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" s="4" t="n">
+      <c r="H39" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J39" s="4" t="inlineStr">
+      <c r="J39" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K39" s="4" t="n">
+      <c r="K39" s="5" t="n">
         <v>4312538.87</v>
       </c>
-      <c r="L39" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" s="4" t="inlineStr"/>
-      <c r="N39" s="4" t="inlineStr">
+      <c r="L39" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" s="5" t="inlineStr"/>
+      <c r="N39" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O39" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P39" s="4" t="inlineStr"/>
-      <c r="Q39" s="4" t="inlineStr"/>
-      <c r="R39" s="4" t="inlineStr"/>
-      <c r="S39" s="4" t="inlineStr"/>
-      <c r="T39" s="4" t="inlineStr"/>
-      <c r="U39" s="4" t="inlineStr"/>
-      <c r="V39" s="4" t="inlineStr"/>
-      <c r="W39" s="4" t="inlineStr"/>
-      <c r="X39" s="4" t="inlineStr"/>
-      <c r="Y39" s="4" t="inlineStr"/>
-      <c r="Z39" s="4" t="inlineStr"/>
-      <c r="AA39" s="4" t="n"/>
+      <c r="O39" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P39" s="5" t="inlineStr"/>
+      <c r="Q39" s="5" t="inlineStr"/>
+      <c r="R39" s="5" t="inlineStr"/>
+      <c r="S39" s="5" t="inlineStr"/>
+      <c r="T39" s="5" t="inlineStr"/>
+      <c r="U39" s="5" t="inlineStr"/>
+      <c r="V39" s="5" t="inlineStr"/>
+      <c r="W39" s="5" t="inlineStr"/>
+      <c r="X39" s="5" t="inlineStr"/>
+      <c r="Y39" s="5" t="inlineStr"/>
+      <c r="Z39" s="5" t="inlineStr"/>
+      <c r="AA39" s="6" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="inlineStr">
+      <c r="A40" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B40" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="B40" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
         <is>
           <t>Pampanga</t>
         </is>
       </c>
-      <c r="D40" s="4" t="n">
+      <c r="D40" s="5" t="n">
         <v>105882</v>
       </c>
-      <c r="E40" s="4" t="inlineStr">
+      <c r="E40" s="5" t="inlineStr">
         <is>
           <t>Camba ES</t>
         </is>
       </c>
-      <c r="F40" s="4" t="inlineStr">
+      <c r="F40" s="5" t="inlineStr">
         <is>
           <t>ARAYAT</t>
         </is>
       </c>
-      <c r="G40" s="4" t="n">
+      <c r="G40" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H40" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" s="4" t="n">
+      <c r="H40" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="J40" s="4" t="inlineStr">
+      <c r="J40" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K40" s="4" t="n">
+      <c r="K40" s="5" t="n">
         <v>3124890.21</v>
       </c>
-      <c r="L40" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" s="4" t="inlineStr"/>
-      <c r="N40" s="4" t="inlineStr">
+      <c r="L40" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" s="5" t="inlineStr"/>
+      <c r="N40" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O40" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P40" s="4" t="inlineStr"/>
-      <c r="Q40" s="4" t="inlineStr"/>
-      <c r="R40" s="4" t="inlineStr"/>
-      <c r="S40" s="4" t="inlineStr"/>
-      <c r="T40" s="4" t="inlineStr"/>
-      <c r="U40" s="4" t="inlineStr"/>
-      <c r="V40" s="4" t="inlineStr"/>
-      <c r="W40" s="4" t="inlineStr"/>
-      <c r="X40" s="4" t="inlineStr"/>
-      <c r="Y40" s="4" t="inlineStr"/>
-      <c r="Z40" s="4" t="inlineStr"/>
-      <c r="AA40" s="4" t="n"/>
+      <c r="O40" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" s="5" t="inlineStr"/>
+      <c r="Q40" s="5" t="inlineStr"/>
+      <c r="R40" s="5" t="inlineStr"/>
+      <c r="S40" s="5" t="inlineStr"/>
+      <c r="T40" s="5" t="inlineStr"/>
+      <c r="U40" s="5" t="inlineStr"/>
+      <c r="V40" s="5" t="inlineStr"/>
+      <c r="W40" s="5" t="inlineStr"/>
+      <c r="X40" s="5" t="inlineStr"/>
+      <c r="Y40" s="5" t="inlineStr"/>
+      <c r="Z40" s="5" t="inlineStr"/>
+      <c r="AA40" s="6" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="inlineStr">
+      <c r="A41" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B41" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="B41" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
         <is>
           <t>Pampanga</t>
         </is>
       </c>
-      <c r="D41" s="4" t="n">
+      <c r="D41" s="5" t="n">
         <v>300884</v>
       </c>
-      <c r="E41" s="4" t="inlineStr">
+      <c r="E41" s="5" t="inlineStr">
         <is>
           <t>Camba NHS</t>
         </is>
       </c>
-      <c r="F41" s="4" t="inlineStr">
+      <c r="F41" s="5" t="inlineStr">
         <is>
           <t>ARAYAT</t>
         </is>
       </c>
-      <c r="G41" s="4" t="n">
+      <c r="G41" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" s="4" t="n">
+      <c r="H41" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="J41" s="4" t="inlineStr">
+      <c r="J41" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K41" s="4" t="n">
+      <c r="K41" s="5" t="n">
         <v>3191432.34</v>
       </c>
-      <c r="L41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" s="4" t="inlineStr"/>
-      <c r="N41" s="4" t="inlineStr">
+      <c r="L41" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" s="5" t="inlineStr"/>
+      <c r="N41" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P41" s="4" t="inlineStr"/>
-      <c r="Q41" s="4" t="inlineStr"/>
-      <c r="R41" s="4" t="inlineStr"/>
-      <c r="S41" s="4" t="inlineStr"/>
-      <c r="T41" s="4" t="inlineStr"/>
-      <c r="U41" s="4" t="inlineStr"/>
-      <c r="V41" s="4" t="inlineStr"/>
-      <c r="W41" s="4" t="inlineStr"/>
-      <c r="X41" s="4" t="inlineStr"/>
-      <c r="Y41" s="4" t="inlineStr"/>
-      <c r="Z41" s="4" t="inlineStr"/>
-      <c r="AA41" s="4" t="n"/>
+      <c r="O41" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" s="5" t="inlineStr"/>
+      <c r="Q41" s="5" t="inlineStr"/>
+      <c r="R41" s="5" t="inlineStr"/>
+      <c r="S41" s="5" t="inlineStr"/>
+      <c r="T41" s="5" t="inlineStr"/>
+      <c r="U41" s="5" t="inlineStr"/>
+      <c r="V41" s="5" t="inlineStr"/>
+      <c r="W41" s="5" t="inlineStr"/>
+      <c r="X41" s="5" t="inlineStr"/>
+      <c r="Y41" s="5" t="inlineStr"/>
+      <c r="Z41" s="5" t="inlineStr"/>
+      <c r="AA41" s="6" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="inlineStr">
+      <c r="A42" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B42" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C42" s="4" t="inlineStr">
+      <c r="B42" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
         <is>
           <t>Pampanga</t>
         </is>
       </c>
-      <c r="D42" s="4" t="n">
+      <c r="D42" s="5" t="n">
         <v>306907</v>
       </c>
-      <c r="E42" s="4" t="inlineStr">
+      <c r="E42" s="5" t="inlineStr">
         <is>
           <t>Candating NHS</t>
         </is>
       </c>
-      <c r="F42" s="4" t="inlineStr">
+      <c r="F42" s="5" t="inlineStr">
         <is>
           <t>ARAYAT</t>
         </is>
       </c>
-      <c r="G42" s="4" t="n">
+      <c r="G42" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H42" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" s="4" t="n">
+      <c r="H42" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="J42" s="4" t="inlineStr">
+      <c r="J42" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K42" s="4" t="n">
+      <c r="K42" s="5" t="n">
         <v>1574153.2</v>
       </c>
-      <c r="L42" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" s="4" t="inlineStr"/>
-      <c r="N42" s="4" t="inlineStr">
+      <c r="L42" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" s="5" t="inlineStr"/>
+      <c r="N42" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O42" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P42" s="4" t="inlineStr"/>
-      <c r="Q42" s="4" t="inlineStr"/>
-      <c r="R42" s="4" t="inlineStr"/>
-      <c r="S42" s="4" t="inlineStr"/>
-      <c r="T42" s="4" t="inlineStr"/>
-      <c r="U42" s="4" t="inlineStr"/>
-      <c r="V42" s="4" t="inlineStr"/>
-      <c r="W42" s="4" t="inlineStr"/>
-      <c r="X42" s="4" t="inlineStr"/>
-      <c r="Y42" s="4" t="inlineStr"/>
-      <c r="Z42" s="4" t="inlineStr"/>
-      <c r="AA42" s="4" t="n"/>
+      <c r="O42" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" s="5" t="inlineStr"/>
+      <c r="Q42" s="5" t="inlineStr"/>
+      <c r="R42" s="5" t="inlineStr"/>
+      <c r="S42" s="5" t="inlineStr"/>
+      <c r="T42" s="5" t="inlineStr"/>
+      <c r="U42" s="5" t="inlineStr"/>
+      <c r="V42" s="5" t="inlineStr"/>
+      <c r="W42" s="5" t="inlineStr"/>
+      <c r="X42" s="5" t="inlineStr"/>
+      <c r="Y42" s="5" t="inlineStr"/>
+      <c r="Z42" s="5" t="inlineStr"/>
+      <c r="AA42" s="6" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="inlineStr">
+      <c r="A43" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B43" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C43" s="4" t="inlineStr">
+      <c r="B43" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
         <is>
           <t>Pampanga</t>
         </is>
       </c>
-      <c r="D43" s="4" t="n">
+      <c r="D43" s="5" t="n">
         <v>105884</v>
       </c>
-      <c r="E43" s="4" t="inlineStr">
+      <c r="E43" s="5" t="inlineStr">
         <is>
           <t>Cupang Elementary School</t>
         </is>
       </c>
-      <c r="F43" s="4" t="inlineStr">
+      <c r="F43" s="5" t="inlineStr">
         <is>
           <t>ARAYAT</t>
         </is>
       </c>
-      <c r="G43" s="4" t="n">
+      <c r="G43" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H43" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" s="4" t="n">
+      <c r="H43" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J43" s="4" t="inlineStr">
+      <c r="J43" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K43" s="4" t="n">
+      <c r="K43" s="5" t="n">
         <v>1650713.65</v>
       </c>
-      <c r="L43" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" s="4" t="inlineStr"/>
-      <c r="N43" s="4" t="inlineStr">
+      <c r="L43" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" s="5" t="inlineStr"/>
+      <c r="N43" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O43" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P43" s="4" t="inlineStr"/>
-      <c r="Q43" s="4" t="inlineStr"/>
-      <c r="R43" s="4" t="inlineStr"/>
-      <c r="S43" s="4" t="inlineStr"/>
-      <c r="T43" s="4" t="inlineStr"/>
-      <c r="U43" s="4" t="inlineStr"/>
-      <c r="V43" s="4" t="inlineStr"/>
-      <c r="W43" s="4" t="inlineStr"/>
-      <c r="X43" s="4" t="inlineStr"/>
-      <c r="Y43" s="4" t="inlineStr"/>
-      <c r="Z43" s="4" t="inlineStr"/>
-      <c r="AA43" s="4" t="n"/>
+      <c r="O43" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" s="5" t="inlineStr"/>
+      <c r="Q43" s="5" t="inlineStr"/>
+      <c r="R43" s="5" t="inlineStr"/>
+      <c r="S43" s="5" t="inlineStr"/>
+      <c r="T43" s="5" t="inlineStr"/>
+      <c r="U43" s="5" t="inlineStr"/>
+      <c r="V43" s="5" t="inlineStr"/>
+      <c r="W43" s="5" t="inlineStr"/>
+      <c r="X43" s="5" t="inlineStr"/>
+      <c r="Y43" s="5" t="inlineStr"/>
+      <c r="Z43" s="5" t="inlineStr"/>
+      <c r="AA43" s="6" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="inlineStr">
+      <c r="A44" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B44" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C44" s="4" t="inlineStr">
+      <c r="B44" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
         <is>
           <t>Pampanga</t>
         </is>
       </c>
-      <c r="D44" s="4" t="n">
+      <c r="D44" s="5" t="n">
         <v>105891</v>
       </c>
-      <c r="E44" s="4" t="inlineStr">
+      <c r="E44" s="5" t="inlineStr">
         <is>
           <t>San Juan Bano ES</t>
         </is>
       </c>
-      <c r="F44" s="4" t="inlineStr">
+      <c r="F44" s="5" t="inlineStr">
         <is>
           <t>ARAYAT</t>
         </is>
       </c>
-      <c r="G44" s="4" t="n">
+      <c r="G44" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H44" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" s="4" t="n">
+      <c r="H44" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J44" s="4" t="inlineStr">
+      <c r="J44" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K44" s="4" t="n">
+      <c r="K44" s="5" t="n">
         <v>2049694.53</v>
       </c>
-      <c r="L44" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" s="4" t="inlineStr"/>
-      <c r="N44" s="4" t="inlineStr">
+      <c r="L44" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" s="5" t="inlineStr"/>
+      <c r="N44" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O44" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P44" s="4" t="inlineStr"/>
-      <c r="Q44" s="4" t="inlineStr"/>
-      <c r="R44" s="4" t="inlineStr"/>
-      <c r="S44" s="4" t="inlineStr"/>
-      <c r="T44" s="4" t="inlineStr"/>
-      <c r="U44" s="4" t="inlineStr"/>
-      <c r="V44" s="4" t="inlineStr"/>
-      <c r="W44" s="4" t="inlineStr"/>
-      <c r="X44" s="4" t="inlineStr"/>
-      <c r="Y44" s="4" t="inlineStr"/>
-      <c r="Z44" s="4" t="inlineStr"/>
-      <c r="AA44" s="4" t="n"/>
+      <c r="O44" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" s="5" t="inlineStr"/>
+      <c r="Q44" s="5" t="inlineStr"/>
+      <c r="R44" s="5" t="inlineStr"/>
+      <c r="S44" s="5" t="inlineStr"/>
+      <c r="T44" s="5" t="inlineStr"/>
+      <c r="U44" s="5" t="inlineStr"/>
+      <c r="V44" s="5" t="inlineStr"/>
+      <c r="W44" s="5" t="inlineStr"/>
+      <c r="X44" s="5" t="inlineStr"/>
+      <c r="Y44" s="5" t="inlineStr"/>
+      <c r="Z44" s="5" t="inlineStr"/>
+      <c r="AA44" s="6" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="inlineStr">
+      <c r="A45" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B45" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C45" s="4" t="inlineStr">
+      <c r="B45" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
         <is>
           <t>Pampanga</t>
         </is>
       </c>
-      <c r="D45" s="4" t="n">
+      <c r="D45" s="5" t="n">
         <v>105933</v>
       </c>
-      <c r="E45" s="4" t="inlineStr">
+      <c r="E45" s="5" t="inlineStr">
         <is>
           <t>Dalayap ES</t>
         </is>
       </c>
-      <c r="F45" s="4" t="inlineStr">
+      <c r="F45" s="5" t="inlineStr">
         <is>
           <t>CANDABA</t>
         </is>
       </c>
-      <c r="G45" s="4" t="n">
+      <c r="G45" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H45" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" s="4" t="n">
+      <c r="H45" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J45" s="4" t="inlineStr">
+      <c r="J45" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K45" s="4" t="n">
+      <c r="K45" s="5" t="n">
         <v>1899062.95</v>
       </c>
-      <c r="L45" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" s="4" t="inlineStr"/>
-      <c r="N45" s="4" t="inlineStr">
+      <c r="L45" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" s="5" t="inlineStr"/>
+      <c r="N45" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O45" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P45" s="4" t="inlineStr"/>
-      <c r="Q45" s="4" t="inlineStr"/>
-      <c r="R45" s="4" t="inlineStr"/>
-      <c r="S45" s="4" t="inlineStr"/>
-      <c r="T45" s="4" t="inlineStr"/>
-      <c r="U45" s="4" t="inlineStr"/>
-      <c r="V45" s="4" t="inlineStr"/>
-      <c r="W45" s="4" t="inlineStr"/>
-      <c r="X45" s="4" t="inlineStr"/>
-      <c r="Y45" s="4" t="inlineStr"/>
-      <c r="Z45" s="4" t="inlineStr"/>
-      <c r="AA45" s="4" t="n"/>
+      <c r="O45" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" s="5" t="inlineStr"/>
+      <c r="Q45" s="5" t="inlineStr"/>
+      <c r="R45" s="5" t="inlineStr"/>
+      <c r="S45" s="5" t="inlineStr"/>
+      <c r="T45" s="5" t="inlineStr"/>
+      <c r="U45" s="5" t="inlineStr"/>
+      <c r="V45" s="5" t="inlineStr"/>
+      <c r="W45" s="5" t="inlineStr"/>
+      <c r="X45" s="5" t="inlineStr"/>
+      <c r="Y45" s="5" t="inlineStr"/>
+      <c r="Z45" s="5" t="inlineStr"/>
+      <c r="AA45" s="6" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="inlineStr">
+      <c r="A46" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B46" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C46" s="4" t="inlineStr">
+      <c r="B46" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
         <is>
           <t>Pampanga</t>
         </is>
       </c>
-      <c r="D46" s="4" t="n">
+      <c r="D46" s="5" t="n">
         <v>105948</v>
       </c>
-      <c r="E46" s="4" t="inlineStr">
+      <c r="E46" s="5" t="inlineStr">
         <is>
           <t>Tenejero ES</t>
         </is>
       </c>
-      <c r="F46" s="4" t="inlineStr">
+      <c r="F46" s="5" t="inlineStr">
         <is>
           <t>CANDABA</t>
         </is>
       </c>
-      <c r="G46" s="4" t="n">
+      <c r="G46" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H46" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" s="4" t="n">
+      <c r="H46" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J46" s="4" t="inlineStr">
+      <c r="J46" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K46" s="4" t="n">
+      <c r="K46" s="5" t="n">
         <v>1273776.81</v>
       </c>
-      <c r="L46" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" s="4" t="inlineStr"/>
-      <c r="N46" s="4" t="inlineStr">
+      <c r="L46" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" s="5" t="inlineStr"/>
+      <c r="N46" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O46" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P46" s="4" t="inlineStr"/>
-      <c r="Q46" s="4" t="inlineStr"/>
-      <c r="R46" s="4" t="inlineStr"/>
-      <c r="S46" s="4" t="inlineStr"/>
-      <c r="T46" s="4" t="inlineStr"/>
-      <c r="U46" s="4" t="inlineStr"/>
-      <c r="V46" s="4" t="inlineStr"/>
-      <c r="W46" s="4" t="inlineStr"/>
-      <c r="X46" s="4" t="inlineStr"/>
-      <c r="Y46" s="4" t="inlineStr"/>
-      <c r="Z46" s="4" t="inlineStr"/>
-      <c r="AA46" s="4" t="n"/>
+      <c r="O46" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" s="5" t="inlineStr"/>
+      <c r="Q46" s="5" t="inlineStr"/>
+      <c r="R46" s="5" t="inlineStr"/>
+      <c r="S46" s="5" t="inlineStr"/>
+      <c r="T46" s="5" t="inlineStr"/>
+      <c r="U46" s="5" t="inlineStr"/>
+      <c r="V46" s="5" t="inlineStr"/>
+      <c r="W46" s="5" t="inlineStr"/>
+      <c r="X46" s="5" t="inlineStr"/>
+      <c r="Y46" s="5" t="inlineStr"/>
+      <c r="Z46" s="5" t="inlineStr"/>
+      <c r="AA46" s="6" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="inlineStr">
+      <c r="A47" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B47" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C47" s="4" t="inlineStr">
+      <c r="B47" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
         <is>
           <t>Pampanga</t>
         </is>
       </c>
-      <c r="D47" s="4" t="n">
+      <c r="D47" s="5" t="n">
         <v>105949</v>
       </c>
-      <c r="E47" s="4" t="inlineStr">
+      <c r="E47" s="5" t="inlineStr">
         <is>
           <t>Vizal San Pablo II ES</t>
         </is>
       </c>
-      <c r="F47" s="4" t="inlineStr">
+      <c r="F47" s="5" t="inlineStr">
         <is>
           <t>CANDABA</t>
         </is>
       </c>
-      <c r="G47" s="4" t="n">
+      <c r="G47" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H47" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" s="4" t="n">
+      <c r="H47" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J47" s="4" t="inlineStr">
+      <c r="J47" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K47" s="4" t="n">
+      <c r="K47" s="5" t="n">
         <v>4723728.81</v>
       </c>
-      <c r="L47" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" s="4" t="inlineStr"/>
-      <c r="N47" s="4" t="inlineStr">
+      <c r="L47" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" s="5" t="inlineStr"/>
+      <c r="N47" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O47" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P47" s="4" t="inlineStr"/>
-      <c r="Q47" s="4" t="inlineStr"/>
-      <c r="R47" s="4" t="inlineStr"/>
-      <c r="S47" s="4" t="inlineStr"/>
-      <c r="T47" s="4" t="inlineStr"/>
-      <c r="U47" s="4" t="inlineStr"/>
-      <c r="V47" s="4" t="inlineStr"/>
-      <c r="W47" s="4" t="inlineStr"/>
-      <c r="X47" s="4" t="inlineStr"/>
-      <c r="Y47" s="4" t="inlineStr"/>
-      <c r="Z47" s="4" t="inlineStr"/>
-      <c r="AA47" s="4" t="n"/>
+      <c r="O47" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" s="5" t="inlineStr"/>
+      <c r="Q47" s="5" t="inlineStr"/>
+      <c r="R47" s="5" t="inlineStr"/>
+      <c r="S47" s="5" t="inlineStr"/>
+      <c r="T47" s="5" t="inlineStr"/>
+      <c r="U47" s="5" t="inlineStr"/>
+      <c r="V47" s="5" t="inlineStr"/>
+      <c r="W47" s="5" t="inlineStr"/>
+      <c r="X47" s="5" t="inlineStr"/>
+      <c r="Y47" s="5" t="inlineStr"/>
+      <c r="Z47" s="5" t="inlineStr"/>
+      <c r="AA47" s="6" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="inlineStr">
+      <c r="A48" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B48" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C48" s="4" t="inlineStr">
+      <c r="B48" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
         <is>
           <t>Tarlac City</t>
         </is>
       </c>
-      <c r="D48" s="4" t="n">
+      <c r="D48" s="5" t="n">
         <v>106729</v>
       </c>
-      <c r="E48" s="4" t="inlineStr">
+      <c r="E48" s="5" t="inlineStr">
         <is>
           <t>Asturias ES</t>
         </is>
       </c>
-      <c r="F48" s="4" t="inlineStr">
+      <c r="F48" s="5" t="inlineStr">
         <is>
           <t>CITY OF TARLAC (Capital)</t>
         </is>
       </c>
-      <c r="G48" s="4" t="n">
+      <c r="G48" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H48" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" s="4" t="inlineStr">
+      <c r="H48" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K48" s="4" t="n">
+      <c r="K48" s="5" t="n">
         <v>652501.55</v>
       </c>
-      <c r="L48" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" s="4" t="n">
+      <c r="L48" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" s="5" t="n">
         <v>650309.3100000001</v>
       </c>
-      <c r="N48" s="4" t="inlineStr">
+      <c r="N48" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O48" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P48" s="5" t="n">
+      <c r="O48" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" s="7" t="n">
         <v>44439</v>
       </c>
-      <c r="Q48" s="5" t="n">
+      <c r="Q48" s="7" t="n">
         <v>44439</v>
       </c>
-      <c r="R48" s="4" t="inlineStr"/>
-      <c r="S48" s="4" t="inlineStr"/>
-      <c r="T48" s="4" t="inlineStr"/>
-      <c r="U48" s="4" t="inlineStr"/>
-      <c r="V48" s="4" t="inlineStr"/>
-      <c r="W48" s="4" t="inlineStr"/>
-      <c r="X48" s="4" t="inlineStr"/>
-      <c r="Y48" s="4" t="inlineStr">
+      <c r="R48" s="5" t="inlineStr"/>
+      <c r="S48" s="5" t="inlineStr"/>
+      <c r="T48" s="5" t="inlineStr"/>
+      <c r="U48" s="5" t="inlineStr"/>
+      <c r="V48" s="5" t="inlineStr"/>
+      <c r="W48" s="5" t="inlineStr"/>
+      <c r="X48" s="5" t="inlineStr"/>
+      <c r="Y48" s="5" t="inlineStr">
         <is>
           <t>J.P. Aquino Construction</t>
         </is>
       </c>
-      <c r="Z48" s="4" t="inlineStr"/>
-      <c r="AA48" s="4" t="n"/>
+      <c r="Z48" s="5" t="inlineStr"/>
+      <c r="AA48" s="6" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="inlineStr">
+      <c r="A49" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B49" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C49" s="4" t="inlineStr">
+      <c r="B49" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
         <is>
           <t>Tarlac City</t>
         </is>
       </c>
-      <c r="D49" s="4" t="n">
+      <c r="D49" s="5" t="n">
         <v>106743</v>
       </c>
-      <c r="E49" s="4" t="inlineStr">
+      <c r="E49" s="5" t="inlineStr">
         <is>
           <t>Paraiso ES</t>
         </is>
       </c>
-      <c r="F49" s="4" t="inlineStr">
+      <c r="F49" s="5" t="inlineStr">
         <is>
           <t>CITY OF TARLAC (Capital)</t>
         </is>
       </c>
-      <c r="G49" s="4" t="n">
+      <c r="G49" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H49" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" s="4" t="n">
+      <c r="H49" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J49" s="4" t="inlineStr">
+      <c r="J49" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K49" s="4" t="n">
+      <c r="K49" s="5" t="n">
         <v>1093868.34</v>
       </c>
-      <c r="L49" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" s="4" t="n">
+      <c r="L49" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" s="5" t="n">
         <v>1040671.09</v>
       </c>
-      <c r="N49" s="4" t="inlineStr">
+      <c r="N49" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O49" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P49" s="5" t="n">
+      <c r="O49" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" s="7" t="n">
         <v>44439</v>
       </c>
-      <c r="Q49" s="5" t="n">
+      <c r="Q49" s="7" t="n">
         <v>44439</v>
       </c>
-      <c r="R49" s="4" t="inlineStr"/>
-      <c r="S49" s="4" t="inlineStr"/>
-      <c r="T49" s="4" t="inlineStr"/>
-      <c r="U49" s="4" t="inlineStr"/>
-      <c r="V49" s="4" t="inlineStr"/>
-      <c r="W49" s="4" t="inlineStr"/>
-      <c r="X49" s="4" t="inlineStr"/>
-      <c r="Y49" s="4" t="inlineStr">
+      <c r="R49" s="5" t="inlineStr"/>
+      <c r="S49" s="5" t="inlineStr"/>
+      <c r="T49" s="5" t="inlineStr"/>
+      <c r="U49" s="5" t="inlineStr"/>
+      <c r="V49" s="5" t="inlineStr"/>
+      <c r="W49" s="5" t="inlineStr"/>
+      <c r="X49" s="5" t="inlineStr"/>
+      <c r="Y49" s="5" t="inlineStr">
         <is>
           <t>J.P. Aquino Construction</t>
         </is>
       </c>
-      <c r="Z49" s="4" t="inlineStr"/>
-      <c r="AA49" s="4" t="n"/>
+      <c r="Z49" s="5" t="inlineStr"/>
+      <c r="AA49" s="6" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="inlineStr">
+      <c r="A50" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B50" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C50" s="4" t="inlineStr">
+      <c r="B50" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
         <is>
           <t>Tarlac City</t>
         </is>
       </c>
-      <c r="D50" s="4" t="n">
+      <c r="D50" s="5" t="n">
         <v>106744</v>
       </c>
-      <c r="E50" s="4" t="inlineStr">
+      <c r="E50" s="5" t="inlineStr">
         <is>
           <t>San Carlos ES</t>
         </is>
       </c>
-      <c r="F50" s="4" t="inlineStr">
+      <c r="F50" s="5" t="inlineStr">
         <is>
           <t>CITY OF TARLAC (Capital)</t>
         </is>
       </c>
-      <c r="G50" s="4" t="n">
+      <c r="G50" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H50" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" s="4" t="inlineStr">
+      <c r="H50" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K50" s="4" t="n">
+      <c r="K50" s="5" t="n">
         <v>1062165.41</v>
       </c>
-      <c r="L50" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" s="4" t="n">
+      <c r="L50" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" s="5" t="n">
         <v>1059953.12</v>
       </c>
-      <c r="N50" s="4" t="inlineStr">
+      <c r="N50" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O50" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P50" s="5" t="n">
+      <c r="O50" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" s="7" t="n">
         <v>44434</v>
       </c>
-      <c r="Q50" s="5" t="n">
+      <c r="Q50" s="7" t="n">
         <v>44434</v>
       </c>
-      <c r="R50" s="4" t="inlineStr"/>
-      <c r="S50" s="4" t="inlineStr"/>
-      <c r="T50" s="4" t="inlineStr"/>
-      <c r="U50" s="4" t="inlineStr"/>
-      <c r="V50" s="4" t="inlineStr"/>
-      <c r="W50" s="4" t="inlineStr"/>
-      <c r="X50" s="4" t="inlineStr"/>
-      <c r="Y50" s="4" t="inlineStr">
+      <c r="R50" s="5" t="inlineStr"/>
+      <c r="S50" s="5" t="inlineStr"/>
+      <c r="T50" s="5" t="inlineStr"/>
+      <c r="U50" s="5" t="inlineStr"/>
+      <c r="V50" s="5" t="inlineStr"/>
+      <c r="W50" s="5" t="inlineStr"/>
+      <c r="X50" s="5" t="inlineStr"/>
+      <c r="Y50" s="5" t="inlineStr">
         <is>
           <t>Boycing Construction Services</t>
         </is>
       </c>
-      <c r="Z50" s="4" t="inlineStr"/>
-      <c r="AA50" s="4" t="n"/>
+      <c r="Z50" s="5" t="inlineStr"/>
+      <c r="AA50" s="6" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="inlineStr">
+      <c r="A51" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B51" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C51" s="4" t="inlineStr">
+      <c r="B51" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
         <is>
           <t>Zambales</t>
         </is>
       </c>
-      <c r="D51" s="4" t="n">
+      <c r="D51" s="5" t="n">
         <v>106974</v>
       </c>
-      <c r="E51" s="4" t="inlineStr">
+      <c r="E51" s="5" t="inlineStr">
         <is>
           <t>Almasin Elementary School</t>
         </is>
       </c>
-      <c r="F51" s="4" t="inlineStr">
+      <c r="F51" s="5" t="inlineStr">
         <is>
           <t>SANTA CRUZ</t>
         </is>
       </c>
-      <c r="G51" s="4" t="n">
+      <c r="G51" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H51" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" s="4" t="n">
+      <c r="H51" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="J51" s="4" t="inlineStr">
+      <c r="J51" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K51" s="4" t="n">
+      <c r="K51" s="5" t="n">
         <v>5122463.9103531</v>
       </c>
-      <c r="L51" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" s="4" t="inlineStr"/>
-      <c r="N51" s="4" t="inlineStr">
+      <c r="L51" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" s="5" t="inlineStr"/>
+      <c r="N51" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O51" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P51" s="4" t="inlineStr"/>
-      <c r="Q51" s="4" t="inlineStr"/>
-      <c r="R51" s="4" t="inlineStr"/>
-      <c r="S51" s="4" t="inlineStr"/>
-      <c r="T51" s="4" t="inlineStr"/>
-      <c r="U51" s="4" t="inlineStr"/>
-      <c r="V51" s="4" t="inlineStr"/>
-      <c r="W51" s="4" t="inlineStr"/>
-      <c r="X51" s="4" t="inlineStr"/>
-      <c r="Y51" s="4" t="inlineStr"/>
-      <c r="Z51" s="4" t="inlineStr"/>
-      <c r="AA51" s="4" t="n"/>
+      <c r="O51" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" s="5" t="inlineStr"/>
+      <c r="Q51" s="5" t="inlineStr"/>
+      <c r="R51" s="5" t="inlineStr"/>
+      <c r="S51" s="5" t="inlineStr"/>
+      <c r="T51" s="5" t="inlineStr"/>
+      <c r="U51" s="5" t="inlineStr"/>
+      <c r="V51" s="5" t="inlineStr"/>
+      <c r="W51" s="5" t="inlineStr"/>
+      <c r="X51" s="5" t="inlineStr"/>
+      <c r="Y51" s="5" t="inlineStr"/>
+      <c r="Z51" s="5" t="inlineStr"/>
+      <c r="AA51" s="6" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="inlineStr">
+      <c r="A52" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B52" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C52" s="4" t="inlineStr">
+      <c r="B52" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
         <is>
           <t>Zambales</t>
         </is>
       </c>
-      <c r="D52" s="4" t="n">
+      <c r="D52" s="5" t="n">
         <v>501226</v>
       </c>
-      <c r="E52" s="4" t="inlineStr">
+      <c r="E52" s="5" t="inlineStr">
         <is>
           <t>Don Brigido Miraflor Integrated School</t>
         </is>
       </c>
-      <c r="F52" s="4" t="inlineStr">
+      <c r="F52" s="5" t="inlineStr">
         <is>
           <t>SANTA CRUZ</t>
         </is>
       </c>
-      <c r="G52" s="4" t="n">
+      <c r="G52" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H52" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" s="4" t="n">
+      <c r="H52" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J52" s="4" t="inlineStr">
+      <c r="J52" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K52" s="4" t="n">
+      <c r="K52" s="5" t="n">
         <v>6794925.58</v>
       </c>
-      <c r="L52" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" s="4" t="inlineStr"/>
-      <c r="N52" s="4" t="inlineStr">
+      <c r="L52" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" s="5" t="inlineStr"/>
+      <c r="N52" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O52" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P52" s="4" t="inlineStr"/>
-      <c r="Q52" s="4" t="inlineStr"/>
-      <c r="R52" s="4" t="inlineStr"/>
-      <c r="S52" s="4" t="inlineStr"/>
-      <c r="T52" s="4" t="inlineStr"/>
-      <c r="U52" s="4" t="inlineStr"/>
-      <c r="V52" s="4" t="inlineStr"/>
-      <c r="W52" s="4" t="inlineStr"/>
-      <c r="X52" s="4" t="inlineStr"/>
-      <c r="Y52" s="4" t="inlineStr"/>
-      <c r="Z52" s="4" t="inlineStr"/>
-      <c r="AA52" s="4" t="n"/>
+      <c r="O52" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P52" s="5" t="inlineStr"/>
+      <c r="Q52" s="5" t="inlineStr"/>
+      <c r="R52" s="5" t="inlineStr"/>
+      <c r="S52" s="5" t="inlineStr"/>
+      <c r="T52" s="5" t="inlineStr"/>
+      <c r="U52" s="5" t="inlineStr"/>
+      <c r="V52" s="5" t="inlineStr"/>
+      <c r="W52" s="5" t="inlineStr"/>
+      <c r="X52" s="5" t="inlineStr"/>
+      <c r="Y52" s="5" t="inlineStr"/>
+      <c r="Z52" s="5" t="inlineStr"/>
+      <c r="AA52" s="6" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="4" t="inlineStr">
+      <c r="A53" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
-      <c r="B53" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C53" s="4" t="inlineStr">
+      <c r="B53" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
         <is>
           <t>Aurora</t>
         </is>
       </c>
-      <c r="D53" s="4" t="n">
+      <c r="D53" s="5" t="n">
         <v>300685</v>
       </c>
-      <c r="E53" s="4" t="inlineStr">
+      <c r="E53" s="5" t="inlineStr">
         <is>
           <t>Dingalan NHS</t>
         </is>
       </c>
-      <c r="F53" s="4" t="inlineStr">
+      <c r="F53" s="5" t="inlineStr">
         <is>
           <t>DINGALAN</t>
         </is>
       </c>
-      <c r="G53" s="4" t="inlineStr">
+      <c r="G53" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H53" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" s="4" t="n">
+      <c r="H53" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="J53" s="4" t="inlineStr">
+      <c r="J53" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K53" s="4" t="n">
+      <c r="K53" s="5" t="n">
         <v>6892000</v>
       </c>
-      <c r="L53" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" s="4" t="n">
+      <c r="L53" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" s="5" t="n">
         <v>3963054.24</v>
       </c>
-      <c r="N53" s="4" t="inlineStr">
+      <c r="N53" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O53" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P53" s="5" t="n">
+      <c r="O53" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" s="7" t="n">
         <v>45227</v>
       </c>
-      <c r="Q53" s="4" t="inlineStr"/>
-      <c r="R53" s="4" t="inlineStr"/>
-      <c r="S53" s="4" t="inlineStr"/>
-      <c r="T53" s="5" t="n">
+      <c r="Q53" s="5" t="inlineStr"/>
+      <c r="R53" s="5" t="inlineStr"/>
+      <c r="S53" s="5" t="inlineStr"/>
+      <c r="T53" s="7" t="n">
         <v>44992</v>
       </c>
-      <c r="U53" s="5" t="n">
+      <c r="U53" s="7" t="n">
         <v>45000</v>
       </c>
-      <c r="V53" s="5" t="n">
+      <c r="V53" s="7" t="n">
         <v>45012</v>
       </c>
-      <c r="W53" s="5" t="n">
+      <c r="W53" s="7" t="n">
         <v>45029</v>
       </c>
-      <c r="X53" s="5" t="n">
+      <c r="X53" s="7" t="n">
         <v>45040</v>
       </c>
-      <c r="Y53" s="4" t="inlineStr">
+      <c r="Y53" s="5" t="inlineStr">
         <is>
           <t>AMC CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z53" s="4" t="inlineStr"/>
-      <c r="AA53" s="4" t="n"/>
+      <c r="Z53" s="5" t="inlineStr"/>
+      <c r="AA53" s="6" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="inlineStr">
+      <c r="A54" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
-      <c r="B54" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C54" s="4" t="inlineStr">
+      <c r="B54" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
         <is>
           <t>Bulacan</t>
         </is>
       </c>
-      <c r="D54" s="4" t="n">
+      <c r="D54" s="5" t="n">
         <v>306712</v>
       </c>
-      <c r="E54" s="4" t="inlineStr">
+      <c r="E54" s="5" t="inlineStr">
         <is>
           <t>Sto. Nino High School</t>
         </is>
       </c>
-      <c r="F54" s="4" t="inlineStr">
+      <c r="F54" s="5" t="inlineStr">
         <is>
           <t>BALIUAG</t>
         </is>
       </c>
-      <c r="G54" s="4" t="inlineStr">
+      <c r="G54" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H54" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" s="4" t="n">
+      <c r="H54" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J54" s="4" t="inlineStr">
+      <c r="J54" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K54" s="4" t="n">
+      <c r="K54" s="5" t="n">
         <v>466271.98</v>
       </c>
-      <c r="L54" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" s="4" t="inlineStr">
+      <c r="L54" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" s="5" t="inlineStr">
         <is>
           <t>₱386,515.13</t>
         </is>
       </c>
-      <c r="N54" s="4" t="inlineStr">
+      <c r="N54" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O54" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P54" s="5" t="n">
+      <c r="O54" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P54" s="7" t="n">
         <v>45069</v>
       </c>
-      <c r="Q54" s="5" t="n">
+      <c r="Q54" s="7" t="n">
         <v>45063</v>
       </c>
-      <c r="R54" s="4" t="inlineStr">
+      <c r="R54" s="5" t="inlineStr">
         <is>
           <t>PB-23-001</t>
         </is>
       </c>
-      <c r="S54" s="4" t="inlineStr">
+      <c r="S54" s="5" t="inlineStr">
         <is>
           <t>23-03-001</t>
         </is>
       </c>
-      <c r="T54" s="5" t="n">
+      <c r="T54" s="7" t="n">
         <v>44979</v>
       </c>
-      <c r="U54" s="5" t="n">
+      <c r="U54" s="7" t="n">
         <v>44986</v>
       </c>
-      <c r="V54" s="5" t="n">
+      <c r="V54" s="7" t="n">
         <v>44998</v>
       </c>
-      <c r="W54" s="5" t="n">
+      <c r="W54" s="7" t="n">
         <v>45001</v>
       </c>
-      <c r="X54" s="5" t="n">
+      <c r="X54" s="7" t="n">
         <v>45016</v>
       </c>
-      <c r="Y54" s="4" t="inlineStr">
+      <c r="Y54" s="5" t="inlineStr">
         <is>
           <t>EMICA Builders and Supply</t>
         </is>
       </c>
-      <c r="Z54" s="4" t="inlineStr"/>
-      <c r="AA54" s="4" t="n"/>
+      <c r="Z54" s="5" t="inlineStr"/>
+      <c r="AA54" s="6" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="4" t="inlineStr">
+      <c r="A55" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
-      <c r="B55" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C55" s="4" t="inlineStr">
+      <c r="B55" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C55" s="5" t="inlineStr">
         <is>
           <t>Bulacan</t>
         </is>
       </c>
-      <c r="D55" s="4" t="n">
+      <c r="D55" s="5" t="n">
         <v>158529</v>
       </c>
-      <c r="E55" s="4" t="inlineStr">
+      <c r="E55" s="5" t="inlineStr">
         <is>
           <t>Cucong Elementary School</t>
         </is>
       </c>
-      <c r="F55" s="4" t="inlineStr">
+      <c r="F55" s="5" t="inlineStr">
         <is>
           <t>DOÑA REMEDIOS TRINIDAD</t>
         </is>
       </c>
-      <c r="G55" s="4" t="inlineStr">
+      <c r="G55" s="5" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="H55" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" s="4" t="n">
+      <c r="H55" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J55" s="4" t="inlineStr">
+      <c r="J55" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K55" s="4" t="n">
+      <c r="K55" s="5" t="n">
         <v>3064193.79</v>
       </c>
-      <c r="L55" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" s="4" t="n">
+      <c r="L55" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" s="5" t="n">
         <v>2514973.27</v>
       </c>
-      <c r="N55" s="4" t="inlineStr">
+      <c r="N55" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O55" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P55" s="5" t="n">
+      <c r="O55" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" s="7" t="n">
         <v>45198</v>
       </c>
-      <c r="Q55" s="5" t="n">
+      <c r="Q55" s="7" t="n">
         <v>45147</v>
       </c>
-      <c r="R55" s="4" t="inlineStr">
+      <c r="R55" s="5" t="inlineStr">
         <is>
           <t>PB-23-008</t>
         </is>
       </c>
-      <c r="S55" s="4" t="inlineStr">
+      <c r="S55" s="5" t="inlineStr">
         <is>
           <t>23-008</t>
         </is>
       </c>
-      <c r="T55" s="5" t="n">
+      <c r="T55" s="7" t="n">
         <v>45036</v>
       </c>
-      <c r="U55" s="5" t="n">
+      <c r="U55" s="7" t="n">
         <v>45048</v>
       </c>
-      <c r="V55" s="5" t="n">
+      <c r="V55" s="7" t="n">
         <v>45061</v>
       </c>
-      <c r="W55" s="5" t="n">
+      <c r="W55" s="7" t="n">
         <v>45062</v>
       </c>
-      <c r="X55" s="5" t="n">
+      <c r="X55" s="7" t="n">
         <v>45071</v>
       </c>
-      <c r="Y55" s="4" t="inlineStr">
+      <c r="Y55" s="5" t="inlineStr">
         <is>
           <t>GELROCK BUILDERS</t>
         </is>
       </c>
-      <c r="Z55" s="4" t="inlineStr">
+      <c r="Z55" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">realigned from felizardo lipana nhs (sta rita hs) and john russel mhs (sibul nhs) </t>
         </is>
       </c>
-      <c r="AA55" s="4" t="n"/>
+      <c r="AA55" s="6" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="inlineStr">
+      <c r="A56" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
-      <c r="B56" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C56" s="4" t="inlineStr">
+      <c r="B56" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
         <is>
           <t>Bulacan</t>
         </is>
       </c>
-      <c r="D56" s="4" t="n">
+      <c r="D56" s="5" t="n">
         <v>300774</v>
       </c>
-      <c r="E56" s="4" t="inlineStr">
+      <c r="E56" s="5" t="inlineStr">
         <is>
           <t>John J. Russell MHS (Sibul NHS)</t>
         </is>
       </c>
-      <c r="F56" s="4" t="inlineStr">
+      <c r="F56" s="5" t="inlineStr">
         <is>
           <t>SAN MIGUEL</t>
         </is>
       </c>
-      <c r="G56" s="4" t="inlineStr">
+      <c r="G56" s="5" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="H56" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" s="4" t="n">
+      <c r="H56" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J56" s="4" t="inlineStr">
+      <c r="J56" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K56" s="4" t="n">
+      <c r="K56" s="5" t="n">
         <v>425508.512599636</v>
       </c>
-      <c r="L56" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" s="4" t="inlineStr">
+      <c r="L56" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" s="5" t="inlineStr">
         <is>
           <t>₱417,671.35</t>
         </is>
       </c>
-      <c r="N56" s="4" t="inlineStr">
+      <c r="N56" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O56" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P56" s="5" t="n">
+      <c r="O56" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P56" s="7" t="n">
         <v>45069</v>
       </c>
-      <c r="Q56" s="5" t="n">
+      <c r="Q56" s="7" t="n">
         <v>45068</v>
       </c>
-      <c r="R56" s="4" t="inlineStr">
+      <c r="R56" s="5" t="inlineStr">
         <is>
           <t>PB-23-003</t>
         </is>
       </c>
-      <c r="S56" s="4" t="inlineStr">
+      <c r="S56" s="5" t="inlineStr">
         <is>
           <t>23-03-003</t>
         </is>
       </c>
-      <c r="T56" s="5" t="n">
+      <c r="T56" s="7" t="n">
         <v>44979</v>
       </c>
-      <c r="U56" s="5" t="n">
+      <c r="U56" s="7" t="n">
         <v>44986</v>
       </c>
-      <c r="V56" s="5" t="n">
+      <c r="V56" s="7" t="n">
         <v>44998</v>
       </c>
-      <c r="W56" s="5" t="n">
+      <c r="W56" s="7" t="n">
         <v>45001</v>
       </c>
-      <c r="X56" s="5" t="n">
+      <c r="X56" s="7" t="n">
         <v>45016</v>
       </c>
-      <c r="Y56" s="4" t="inlineStr">
+      <c r="Y56" s="5" t="inlineStr">
         <is>
           <t>EMICA Builders and Supply</t>
         </is>
       </c>
-      <c r="Z56" s="4" t="inlineStr"/>
-      <c r="AA56" s="4" t="n"/>
+      <c r="Z56" s="5" t="inlineStr"/>
+      <c r="AA56" s="6" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="4" t="inlineStr">
+      <c r="A57" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
-      <c r="B57" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C57" s="4" t="inlineStr">
+      <c r="B57" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
         <is>
           <t>Bulacan</t>
         </is>
       </c>
-      <c r="D57" s="4" t="n">
+      <c r="D57" s="5" t="n">
         <v>105111</v>
       </c>
-      <c r="E57" s="4" t="inlineStr">
+      <c r="E57" s="5" t="inlineStr">
         <is>
           <t>San Miguel Elementary</t>
         </is>
       </c>
-      <c r="F57" s="4" t="inlineStr">
+      <c r="F57" s="5" t="inlineStr">
         <is>
           <t>SAN MIGUEL</t>
         </is>
       </c>
-      <c r="G57" s="4" t="inlineStr">
+      <c r="G57" s="5" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="H57" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" s="4" t="n">
+      <c r="H57" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J57" s="4" t="inlineStr">
+      <c r="J57" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K57" s="4" t="n">
+      <c r="K57" s="5" t="n">
         <v>2301524.74</v>
       </c>
-      <c r="L57" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" s="4" t="inlineStr">
+      <c r="L57" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" s="5" t="inlineStr">
         <is>
           <t>₱1,891,657.30</t>
         </is>
       </c>
-      <c r="N57" s="4" t="inlineStr">
+      <c r="N57" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O57" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P57" s="5" t="n">
+      <c r="O57" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" s="7" t="n">
         <v>45144</v>
       </c>
-      <c r="Q57" s="5" t="n">
+      <c r="Q57" s="7" t="n">
         <v>45135</v>
       </c>
-      <c r="R57" s="4" t="inlineStr">
+      <c r="R57" s="5" t="inlineStr">
         <is>
           <t>PB-23-002</t>
         </is>
       </c>
-      <c r="S57" s="4" t="inlineStr">
+      <c r="S57" s="5" t="inlineStr">
         <is>
           <t>23-03-002</t>
         </is>
       </c>
-      <c r="T57" s="5" t="n">
+      <c r="T57" s="7" t="n">
         <v>44979</v>
       </c>
-      <c r="U57" s="5" t="n">
+      <c r="U57" s="7" t="n">
         <v>44986</v>
       </c>
-      <c r="V57" s="5" t="n">
+      <c r="V57" s="7" t="n">
         <v>44998</v>
       </c>
-      <c r="W57" s="5" t="n">
+      <c r="W57" s="7" t="n">
         <v>45001</v>
       </c>
-      <c r="X57" s="5" t="n">
+      <c r="X57" s="7" t="n">
         <v>45016</v>
       </c>
-      <c r="Y57" s="4" t="inlineStr">
+      <c r="Y57" s="5" t="inlineStr">
         <is>
           <t>EMICA Builders and Supply</t>
         </is>
       </c>
-      <c r="Z57" s="4" t="inlineStr"/>
-      <c r="AA57" s="4" t="n"/>
+      <c r="Z57" s="5" t="inlineStr"/>
+      <c r="AA57" s="6" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="4" t="inlineStr">
+      <c r="A58" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
-      <c r="B58" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C58" s="4" t="inlineStr">
+      <c r="B58" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C58" s="5" t="inlineStr">
         <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D58" s="4" t="n">
+      <c r="D58" s="5" t="n">
         <v>105216</v>
       </c>
-      <c r="E58" s="4" t="inlineStr">
+      <c r="E58" s="5" t="inlineStr">
         <is>
           <t>Cabiao Central School</t>
         </is>
       </c>
-      <c r="F58" s="4" t="inlineStr">
+      <c r="F58" s="5" t="inlineStr">
         <is>
           <t>CABIAO</t>
         </is>
       </c>
-      <c r="G58" s="4" t="inlineStr">
+      <c r="G58" s="5" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
       </c>
-      <c r="H58" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" s="4" t="n">
+      <c r="H58" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="J58" s="4" t="inlineStr">
+      <c r="J58" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K58" s="4" t="n">
+      <c r="K58" s="5" t="n">
         <v>7950000</v>
       </c>
-      <c r="L58" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" s="4" t="n">
+      <c r="L58" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" s="5" t="n">
         <v>7941961.35</v>
       </c>
-      <c r="N58" s="4" t="inlineStr">
+      <c r="N58" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O58" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P58" s="5" t="n">
+      <c r="O58" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P58" s="7" t="n">
         <v>45155</v>
       </c>
-      <c r="Q58" s="5" t="n">
+      <c r="Q58" s="7" t="n">
         <v>45155</v>
       </c>
-      <c r="R58" s="4" t="inlineStr">
+      <c r="R58" s="5" t="inlineStr">
         <is>
           <t>INFRA-NE-Emergency-22-2023</t>
         </is>
       </c>
-      <c r="S58" s="4" t="inlineStr">
+      <c r="S58" s="5" t="inlineStr">
         <is>
           <t>INFRA-NE-Emergency-22-2023</t>
         </is>
       </c>
-      <c r="T58" s="5" t="n">
+      <c r="T58" s="7" t="n">
         <v>44985</v>
       </c>
-      <c r="U58" s="4" t="inlineStr"/>
-      <c r="V58" s="5" t="n">
+      <c r="U58" s="5" t="inlineStr"/>
+      <c r="V58" s="7" t="n">
         <v>44993</v>
       </c>
-      <c r="W58" s="5" t="n">
+      <c r="W58" s="7" t="n">
         <v>44998</v>
       </c>
-      <c r="X58" s="5" t="n">
+      <c r="X58" s="7" t="n">
         <v>45002</v>
       </c>
-      <c r="Y58" s="4" t="inlineStr">
+      <c r="Y58" s="5" t="inlineStr">
         <is>
           <t>J.V. BUAN CONSTRUCTION *T</t>
         </is>
       </c>
-      <c r="Z58" s="4" t="inlineStr"/>
-      <c r="AA58" s="4" t="n"/>
+      <c r="Z58" s="5" t="inlineStr"/>
+      <c r="AA58" s="6" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="4" t="inlineStr">
+      <c r="A59" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
-      <c r="B59" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C59" s="4" t="inlineStr">
+      <c r="B59" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C59" s="5" t="inlineStr">
         <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D59" s="4" t="n">
+      <c r="D59" s="5" t="n">
         <v>105368</v>
       </c>
-      <c r="E59" s="4" t="inlineStr">
+      <c r="E59" s="5" t="inlineStr">
         <is>
           <t>Gen. Tinio West Central School</t>
         </is>
       </c>
-      <c r="F59" s="4" t="inlineStr">
+      <c r="F59" s="5" t="inlineStr">
         <is>
           <t>GENERAL TINIO (PAPAYA)</t>
         </is>
       </c>
-      <c r="G59" s="4" t="inlineStr">
+      <c r="G59" s="5" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
       </c>
-      <c r="H59" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" s="4" t="n">
+      <c r="H59" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J59" s="4" t="inlineStr">
+      <c r="J59" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K59" s="4" t="n">
+      <c r="K59" s="5" t="n">
         <v>1650000</v>
       </c>
-      <c r="L59" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" s="4" t="n">
+      <c r="L59" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" s="5" t="n">
         <v>1647978.72</v>
       </c>
-      <c r="N59" s="4" t="inlineStr">
+      <c r="N59" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O59" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P59" s="5" t="n">
+      <c r="O59" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" s="7" t="n">
         <v>45155</v>
       </c>
-      <c r="Q59" s="5" t="n">
+      <c r="Q59" s="7" t="n">
         <v>45155</v>
       </c>
-      <c r="R59" s="4" t="inlineStr">
+      <c r="R59" s="5" t="inlineStr">
         <is>
           <t>INFRA-NE-Emergency-23-2023</t>
         </is>
       </c>
-      <c r="S59" s="4" t="inlineStr">
+      <c r="S59" s="5" t="inlineStr">
         <is>
           <t>INFRA-NE-Emergency-23-2023</t>
         </is>
       </c>
-      <c r="T59" s="5" t="n">
+      <c r="T59" s="7" t="n">
         <v>44985</v>
       </c>
-      <c r="U59" s="4" t="inlineStr"/>
-      <c r="V59" s="5" t="n">
+      <c r="U59" s="5" t="inlineStr"/>
+      <c r="V59" s="7" t="n">
         <v>44993</v>
       </c>
-      <c r="W59" s="5" t="n">
+      <c r="W59" s="7" t="n">
         <v>44998</v>
       </c>
-      <c r="X59" s="5" t="n">
+      <c r="X59" s="7" t="n">
         <v>45002</v>
       </c>
-      <c r="Y59" s="4" t="inlineStr">
+      <c r="Y59" s="5" t="inlineStr">
         <is>
           <t>JOYUS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z59" s="4" t="inlineStr"/>
-      <c r="AA59" s="4" t="n"/>
+      <c r="Z59" s="5" t="inlineStr"/>
+      <c r="AA59" s="6" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="inlineStr">
+      <c r="A60" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
-      <c r="B60" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C60" s="4" t="inlineStr">
+      <c r="B60" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C60" s="5" t="inlineStr">
         <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D60" s="4" t="n">
+      <c r="D60" s="5" t="n">
         <v>105741</v>
       </c>
-      <c r="E60" s="4" t="inlineStr">
+      <c r="E60" s="5" t="inlineStr">
         <is>
           <t>San Leonardo Central School</t>
         </is>
       </c>
-      <c r="F60" s="4" t="inlineStr">
+      <c r="F60" s="5" t="inlineStr">
         <is>
           <t>SAN LEONARDO</t>
         </is>
       </c>
-      <c r="G60" s="4" t="inlineStr">
+      <c r="G60" s="5" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
       </c>
-      <c r="H60" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" s="4" t="n">
+      <c r="H60" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J60" s="4" t="inlineStr">
+      <c r="J60" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K60" s="4" t="n">
+      <c r="K60" s="5" t="n">
         <v>3850000</v>
       </c>
-      <c r="L60" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" s="4" t="n">
+      <c r="L60" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" s="5" t="n">
         <v>3846350.56</v>
       </c>
-      <c r="N60" s="4" t="inlineStr">
+      <c r="N60" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O60" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P60" s="5" t="n">
+      <c r="O60" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P60" s="7" t="n">
         <v>45155</v>
       </c>
-      <c r="Q60" s="5" t="n">
+      <c r="Q60" s="7" t="n">
         <v>45155</v>
       </c>
-      <c r="R60" s="4" t="inlineStr">
+      <c r="R60" s="5" t="inlineStr">
         <is>
           <t>INFRA-NE-Emergency-24-2023</t>
         </is>
       </c>
-      <c r="S60" s="4" t="inlineStr">
+      <c r="S60" s="5" t="inlineStr">
         <is>
           <t>INFRA-NE-Emergency-24-2023</t>
         </is>
       </c>
-      <c r="T60" s="5" t="n">
+      <c r="T60" s="7" t="n">
         <v>44985</v>
       </c>
-      <c r="U60" s="4" t="inlineStr"/>
-      <c r="V60" s="5" t="n">
+      <c r="U60" s="5" t="inlineStr"/>
+      <c r="V60" s="7" t="n">
         <v>44993</v>
       </c>
-      <c r="W60" s="5" t="n">
+      <c r="W60" s="7" t="n">
         <v>44998</v>
       </c>
-      <c r="X60" s="5" t="n">
+      <c r="X60" s="7" t="n">
         <v>45002</v>
       </c>
-      <c r="Y60" s="4" t="inlineStr">
+      <c r="Y60" s="5" t="inlineStr">
         <is>
           <t>IJK MAE CONSTRUCTION INC.</t>
         </is>
       </c>
-      <c r="Z60" s="4" t="inlineStr"/>
-      <c r="AA60" s="4" t="n"/>
+      <c r="Z60" s="5" t="inlineStr"/>
+      <c r="AA60" s="6" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="4" t="inlineStr">
+      <c r="A61" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
-      <c r="B61" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C61" s="4" t="inlineStr">
+      <c r="B61" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C61" s="5" t="inlineStr">
         <is>
           <t>Tarlac</t>
         </is>
       </c>
-      <c r="D61" s="4" t="n">
+      <c r="D61" s="5" t="n">
         <v>300989</v>
       </c>
-      <c r="E61" s="4" t="inlineStr">
+      <c r="E61" s="5" t="inlineStr">
         <is>
           <t>San Pedro National High School</t>
         </is>
       </c>
-      <c r="F61" s="4" t="inlineStr">
+      <c r="F61" s="5" t="inlineStr">
         <is>
           <t>MONCADA</t>
         </is>
       </c>
-      <c r="G61" s="4" t="inlineStr">
+      <c r="G61" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H61" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" s="4" t="n">
+      <c r="H61" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="J61" s="4" t="inlineStr">
+      <c r="J61" s="5" t="inlineStr">
         <is>
           <t>Replacement</t>
         </is>
       </c>
-      <c r="K61" s="4" t="n">
+      <c r="K61" s="5" t="n">
         <v>36000000</v>
       </c>
-      <c r="L61" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" s="4" t="n">
+      <c r="L61" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" s="5" t="n">
         <v>35898680.53</v>
       </c>
-      <c r="N61" s="4" t="inlineStr">
+      <c r="N61" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O61" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P61" s="5" t="n">
+      <c r="O61" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P61" s="7" t="n">
         <v>45805</v>
       </c>
-      <c r="Q61" s="4" t="inlineStr"/>
-      <c r="R61" s="4" t="inlineStr"/>
-      <c r="S61" s="4" t="inlineStr">
+      <c r="Q61" s="5" t="inlineStr"/>
+      <c r="R61" s="5" t="inlineStr"/>
+      <c r="S61" s="5" t="inlineStr">
         <is>
           <t>CSCB-CY2023-002</t>
         </is>
       </c>
-      <c r="T61" s="5" t="n">
+      <c r="T61" s="7" t="n">
         <v>45134</v>
       </c>
-      <c r="U61" s="5" t="n">
+      <c r="U61" s="7" t="n">
         <v>45142</v>
       </c>
-      <c r="V61" s="5" t="n">
+      <c r="V61" s="7" t="n">
         <v>45155</v>
       </c>
-      <c r="W61" s="4" t="inlineStr"/>
-      <c r="X61" s="5" t="n">
+      <c r="W61" s="5" t="inlineStr"/>
+      <c r="X61" s="7" t="n">
         <v>45173</v>
       </c>
-      <c r="Y61" s="4" t="inlineStr">
+      <c r="Y61" s="5" t="inlineStr">
         <is>
           <t>FROMARC BUILDERS &amp; GENERAL MERCHANDISE</t>
         </is>
       </c>
-      <c r="Z61" s="4" t="inlineStr"/>
-      <c r="AA61" s="4" t="n"/>
+      <c r="Z61" s="5" t="inlineStr"/>
+      <c r="AA61" s="6" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="4" t="inlineStr">
+      <c r="A62" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
-      <c r="B62" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C62" s="4" t="inlineStr">
+      <c r="B62" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C62" s="5" t="inlineStr">
         <is>
           <t>Tarlac</t>
         </is>
       </c>
-      <c r="D62" s="4" t="n">
+      <c r="D62" s="5" t="n">
         <v>300989</v>
       </c>
-      <c r="E62" s="4" t="inlineStr">
+      <c r="E62" s="5" t="inlineStr">
         <is>
           <t>San Pedro National High School</t>
         </is>
       </c>
-      <c r="F62" s="4" t="inlineStr">
+      <c r="F62" s="5" t="inlineStr">
         <is>
           <t>MONCADA</t>
         </is>
       </c>
-      <c r="G62" s="4" t="inlineStr">
+      <c r="G62" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H62" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" s="4" t="n">
+      <c r="H62" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J62" s="4" t="inlineStr">
+      <c r="J62" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K62" s="4" t="n">
+      <c r="K62" s="5" t="n">
         <v>1300000</v>
       </c>
-      <c r="L62" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" s="4" t="n">
+      <c r="L62" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" s="5" t="n">
         <v>35898680.53</v>
       </c>
-      <c r="N62" s="4" t="inlineStr">
+      <c r="N62" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O62" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P62" s="5" t="n">
+      <c r="O62" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P62" s="7" t="n">
         <v>45474</v>
       </c>
-      <c r="Q62" s="4" t="inlineStr"/>
-      <c r="R62" s="4" t="inlineStr"/>
-      <c r="S62" s="4" t="inlineStr">
+      <c r="Q62" s="5" t="inlineStr"/>
+      <c r="R62" s="5" t="inlineStr"/>
+      <c r="S62" s="5" t="inlineStr">
         <is>
           <t>CSCB-CY2023-002</t>
         </is>
       </c>
-      <c r="T62" s="5" t="n">
+      <c r="T62" s="7" t="n">
         <v>45134</v>
       </c>
-      <c r="U62" s="5" t="n">
+      <c r="U62" s="7" t="n">
         <v>45142</v>
       </c>
-      <c r="V62" s="5" t="n">
+      <c r="V62" s="7" t="n">
         <v>45155</v>
       </c>
-      <c r="W62" s="4" t="inlineStr"/>
-      <c r="X62" s="5" t="n">
+      <c r="W62" s="5" t="inlineStr"/>
+      <c r="X62" s="7" t="n">
         <v>45190</v>
       </c>
-      <c r="Y62" s="4" t="inlineStr">
+      <c r="Y62" s="5" t="inlineStr">
         <is>
           <t>High Vision Builders</t>
         </is>
       </c>
-      <c r="Z62" s="4" t="inlineStr"/>
-      <c r="AA62" s="4" t="n"/>
+      <c r="Z62" s="5" t="inlineStr"/>
+      <c r="AA62" s="6" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="4" t="inlineStr">
+      <c r="A63" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
-      <c r="B63" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C63" s="4" t="inlineStr">
+      <c r="B63" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C63" s="5" t="inlineStr">
         <is>
           <t>Tarlac</t>
         </is>
       </c>
-      <c r="D63" s="4" t="n">
+      <c r="D63" s="5" t="n">
         <v>300982</v>
       </c>
-      <c r="E63" s="4" t="inlineStr">
+      <c r="E63" s="5" t="inlineStr">
         <is>
           <t>Ramos National High School</t>
         </is>
       </c>
-      <c r="F63" s="4" t="inlineStr">
+      <c r="F63" s="5" t="inlineStr">
         <is>
           <t>RAMOS</t>
         </is>
       </c>
-      <c r="G63" s="4" t="inlineStr">
+      <c r="G63" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H63" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" s="4" t="n">
+      <c r="H63" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="J63" s="4" t="inlineStr">
+      <c r="J63" s="5" t="inlineStr">
         <is>
           <t>Replacement</t>
         </is>
       </c>
-      <c r="K63" s="4" t="n">
+      <c r="K63" s="5" t="n">
         <v>48000000</v>
       </c>
-      <c r="L63" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" s="4" t="n">
+      <c r="L63" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" s="5" t="n">
         <v>478945595.27</v>
       </c>
-      <c r="N63" s="4" t="inlineStr">
+      <c r="N63" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O63" s="4" t="n">
+      <c r="O63" s="5" t="n">
         <v>0.25</v>
       </c>
-      <c r="P63" s="5" t="n">
+      <c r="P63" s="7" t="n">
         <v>45474</v>
       </c>
-      <c r="Q63" s="4" t="inlineStr"/>
-      <c r="R63" s="4" t="inlineStr"/>
-      <c r="S63" s="4" t="inlineStr">
+      <c r="Q63" s="5" t="inlineStr"/>
+      <c r="R63" s="5" t="inlineStr"/>
+      <c r="S63" s="5" t="inlineStr">
         <is>
           <t>CSCB-CY2023-003</t>
         </is>
       </c>
-      <c r="T63" s="5" t="n">
+      <c r="T63" s="7" t="n">
         <v>45134</v>
       </c>
-      <c r="U63" s="5" t="n">
+      <c r="U63" s="7" t="n">
         <v>45142</v>
       </c>
-      <c r="V63" s="5" t="n">
+      <c r="V63" s="7" t="n">
         <v>45155</v>
       </c>
-      <c r="W63" s="4" t="inlineStr"/>
-      <c r="X63" s="5" t="n">
+      <c r="W63" s="5" t="inlineStr"/>
+      <c r="X63" s="7" t="n">
         <v>45173</v>
       </c>
-      <c r="Y63" s="4" t="inlineStr">
+      <c r="Y63" s="5" t="inlineStr">
         <is>
           <t>IJK MAE CONSTRUCTION, INC.</t>
         </is>
       </c>
-      <c r="Z63" s="4" t="inlineStr">
+      <c r="Z63" s="5" t="inlineStr">
         <is>
           <t>Suspended</t>
         </is>
       </c>
-      <c r="AA63" s="4" t="n"/>
+      <c r="AA63" s="6" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="4" t="inlineStr">
+      <c r="A64" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B64" s="4" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
-      <c r="C64" s="4" t="inlineStr">
+      <c r="B64" s="5" t="inlineStr">
+        <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="C64" s="5" t="inlineStr">
         <is>
           <t>Tarlac</t>
         </is>
       </c>
-      <c r="D64" s="4" t="n">
+      <c r="D64" s="5" t="n">
         <v>106605</v>
       </c>
-      <c r="E64" s="4" t="inlineStr">
+      <c r="E64" s="5" t="inlineStr">
         <is>
           <t>Pura Central ES</t>
         </is>
       </c>
-      <c r="F64" s="4" t="inlineStr">
+      <c r="F64" s="5" t="inlineStr">
         <is>
           <t>PURA</t>
         </is>
       </c>
-      <c r="G64" s="4" t="inlineStr">
+      <c r="G64" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H64" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" s="4" t="n">
+      <c r="H64" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="J64" s="4" t="inlineStr">
+      <c r="J64" s="5" t="inlineStr">
         <is>
           <t>2STY8CL</t>
         </is>
       </c>
-      <c r="K64" s="4" t="n">
+      <c r="K64" s="5" t="n">
         <v>22950000</v>
       </c>
-      <c r="L64" s="4" t="inlineStr">
+      <c r="L64" s="5" t="inlineStr">
         <is>
           <t>2- NC</t>
         </is>
       </c>
-      <c r="M64" s="4" t="n">
+      <c r="M64" s="5" t="n">
         <v>15742082.99</v>
       </c>
-      <c r="N64" s="4" t="inlineStr">
+      <c r="N64" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O64" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P64" s="5" t="n">
+      <c r="O64" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P64" s="7" t="n">
         <v>45638</v>
       </c>
-      <c r="Q64" s="5" t="n">
+      <c r="Q64" s="7" t="n">
         <v>45698</v>
       </c>
-      <c r="R64" s="4" t="inlineStr"/>
-      <c r="S64" s="4" t="inlineStr"/>
-      <c r="T64" s="5" t="n">
+      <c r="R64" s="5" t="inlineStr"/>
+      <c r="S64" s="5" t="inlineStr"/>
+      <c r="T64" s="7" t="n">
         <v>45253</v>
       </c>
-      <c r="U64" s="5" t="n">
+      <c r="U64" s="7" t="n">
         <v>45259</v>
       </c>
-      <c r="V64" s="5" t="n">
+      <c r="V64" s="7" t="n">
         <v>45272</v>
       </c>
-      <c r="W64" s="5" t="n">
+      <c r="W64" s="7" t="n">
         <v>45289</v>
       </c>
-      <c r="X64" s="5" t="n">
+      <c r="X64" s="7" t="n">
         <v>45293</v>
       </c>
-      <c r="Y64" s="4" t="inlineStr">
+      <c r="Y64" s="5" t="inlineStr">
         <is>
           <t>ARESBI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z64" s="4" t="inlineStr"/>
-      <c r="AA64" s="4" t="n"/>
+      <c r="Z64" s="5" t="inlineStr"/>
+      <c r="AA64" s="6" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Filtered_By_Region/Region III/Region III_QRF.xlsx
+++ b/Filtered_By_Region/Region III/Region III_QRF.xlsx
@@ -490,7 +490,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">

--- a/Filtered_By_Region/Region III/Region III_QRF.xlsx
+++ b/Filtered_By_Region/Region III/Region III_QRF.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA64"/>
+  <dimension ref="A1:AB64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -453,231 +453,239 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="24" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="29" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="23" customWidth="1" min="9" max="9"/>
-    <col width="22" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="17" customWidth="1" min="13" max="13"/>
-    <col width="11" customWidth="1" min="14" max="14"/>
-    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="60" customWidth="1" min="6" max="6"/>
+    <col width="29" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="23" customWidth="1" min="10" max="10"/>
+    <col width="22" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="17" customWidth="1" min="14" max="14"/>
+    <col width="11" customWidth="1" min="15" max="15"/>
     <col width="26" customWidth="1" min="16" max="16"/>
-    <col width="27" customWidth="1" min="17" max="17"/>
-    <col width="28" customWidth="1" min="18" max="18"/>
+    <col width="26" customWidth="1" min="17" max="17"/>
+    <col width="27" customWidth="1" min="18" max="18"/>
     <col width="28" customWidth="1" min="19" max="19"/>
-    <col width="31" customWidth="1" min="20" max="20"/>
-    <col width="27" customWidth="1" min="21" max="21"/>
-    <col width="21" customWidth="1" min="22" max="22"/>
-    <col width="33" customWidth="1" min="23" max="23"/>
-    <col width="31" customWidth="1" min="24" max="24"/>
-    <col width="48" customWidth="1" min="25" max="25"/>
-    <col width="84" customWidth="1" min="26" max="26"/>
-    <col width="28" customWidth="1" min="27" max="27"/>
+    <col width="28" customWidth="1" min="20" max="20"/>
+    <col width="31" customWidth="1" min="21" max="21"/>
+    <col width="27" customWidth="1" min="22" max="22"/>
+    <col width="21" customWidth="1" min="23" max="23"/>
+    <col width="33" customWidth="1" min="24" max="24"/>
+    <col width="31" customWidth="1" min="25" max="25"/>
+    <col width="48" customWidth="1" min="26" max="26"/>
+    <col width="84" customWidth="1" min="27" max="27"/>
+    <col width="28" customWidth="1" min="28" max="28"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
+          <t>INDEX (DO NOT MODIFY)</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="R1" s="3" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="S1" s="3" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="T1" s="3" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="U1" s="3" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="V1" s="3" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="W1" s="3" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="X1" s="3" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="Y1" s="3" t="inlineStr">
+      <c r="Z1" s="3" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="Z1" s="3" t="inlineStr">
+      <c r="AA1" s="3" t="inlineStr">
         <is>
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AA1" s="4" t="inlineStr">
+      <c r="AB1" s="4" t="inlineStr">
         <is>
           <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="5" t="n">
+        <v>335</v>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>QRF 2019</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="E2" s="5" t="n">
         <v>105656</v>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>San Gregorio ES</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>RIZAL</t>
         </is>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="H2" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H2" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="L2" s="5" t="n">
         <v>3156045.84</v>
       </c>
-      <c r="L2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="5" t="inlineStr"/>
-      <c r="N2" s="5" t="inlineStr">
+      <c r="M2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="5" t="inlineStr"/>
+      <c r="O2" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="5" t="inlineStr"/>
+      <c r="P2" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q2" s="5" t="inlineStr"/>
       <c r="R2" s="5" t="inlineStr"/>
       <c r="S2" s="5" t="inlineStr"/>
@@ -688,1723 +696,1780 @@
       <c r="X2" s="5" t="inlineStr"/>
       <c r="Y2" s="5" t="inlineStr"/>
       <c r="Z2" s="5" t="inlineStr"/>
-      <c r="AA2" s="6" t="n"/>
+      <c r="AA2" s="5" t="inlineStr"/>
+      <c r="AB2" s="6" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="5" t="n">
+        <v>1802</v>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
           <t>Aurora</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="E3" s="5" t="n">
         <v>104409</v>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>Baler CS</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>BALER  (Capital)</t>
         </is>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="H3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="L3" s="5" t="n">
         <v>12208837.24</v>
       </c>
-      <c r="L3" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="5" t="n">
         <v>12145374.43</v>
       </c>
-      <c r="N3" s="5" t="inlineStr">
+      <c r="O3" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="5" t="inlineStr"/>
+      <c r="P3" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q3" s="5" t="inlineStr"/>
       <c r="R3" s="5" t="inlineStr"/>
       <c r="S3" s="5" t="inlineStr"/>
       <c r="T3" s="5" t="inlineStr"/>
-      <c r="U3" s="7" t="n">
+      <c r="U3" s="5" t="inlineStr"/>
+      <c r="V3" s="7" t="n">
         <v>44378</v>
       </c>
-      <c r="V3" s="7" t="n">
+      <c r="W3" s="7" t="n">
         <v>44390</v>
       </c>
-      <c r="W3" s="7" t="n">
+      <c r="X3" s="7" t="n">
         <v>44410</v>
       </c>
-      <c r="X3" s="7" t="n">
+      <c r="Y3" s="7" t="n">
         <v>44413</v>
       </c>
-      <c r="Y3" s="5" t="inlineStr">
+      <c r="Z3" s="5" t="inlineStr">
         <is>
           <t>VANMARVIL CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z3" s="5" t="inlineStr"/>
-      <c r="AA3" s="6" t="n"/>
+      <c r="AA3" s="5" t="inlineStr"/>
+      <c r="AB3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="5" t="n">
+        <v>1803</v>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
           <t>Aurora</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="E4" s="5" t="n">
         <v>500117</v>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>Mariano L. Sindac IS</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>BALER  (Capital)</t>
         </is>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="H4" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J4" s="5" t="inlineStr">
+      <c r="K4" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="L4" s="5" t="n">
         <v>2855188.91</v>
       </c>
-      <c r="L4" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5" t="n">
         <v>2826418.46</v>
       </c>
-      <c r="N4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="5" t="inlineStr"/>
+      <c r="P4" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q4" s="5" t="inlineStr"/>
       <c r="R4" s="5" t="inlineStr"/>
       <c r="S4" s="5" t="inlineStr"/>
       <c r="T4" s="5" t="inlineStr"/>
-      <c r="U4" s="7" t="n">
+      <c r="U4" s="5" t="inlineStr"/>
+      <c r="V4" s="7" t="n">
         <v>44378</v>
       </c>
-      <c r="V4" s="7" t="n">
+      <c r="W4" s="7" t="n">
         <v>44390</v>
       </c>
-      <c r="W4" s="7" t="n">
+      <c r="X4" s="7" t="n">
         <v>44410</v>
       </c>
-      <c r="X4" s="7" t="n">
+      <c r="Y4" s="7" t="n">
         <v>44420</v>
       </c>
-      <c r="Y4" s="5" t="inlineStr">
+      <c r="Z4" s="5" t="inlineStr">
         <is>
           <t>VANMARVIL CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z4" s="5" t="inlineStr"/>
-      <c r="AA4" s="6" t="n"/>
+      <c r="AA4" s="5" t="inlineStr"/>
+      <c r="AB4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="5" t="n">
+        <v>1804</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
           <t>Aurora</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="E5" s="5" t="n">
         <v>157513</v>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>Butas na Bato ES</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>DINGALAN</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="H5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J5" s="5" t="inlineStr">
+      <c r="K5" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="L5" s="5" t="n">
         <v>1443287.54</v>
       </c>
-      <c r="L5" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="5" t="n">
         <v>824303.98</v>
       </c>
-      <c r="N5" s="5" t="inlineStr">
+      <c r="O5" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="5" t="inlineStr"/>
+      <c r="P5" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q5" s="5" t="inlineStr"/>
       <c r="R5" s="5" t="inlineStr"/>
       <c r="S5" s="5" t="inlineStr"/>
       <c r="T5" s="5" t="inlineStr"/>
-      <c r="U5" s="7" t="n">
+      <c r="U5" s="5" t="inlineStr"/>
+      <c r="V5" s="7" t="n">
         <v>44378</v>
       </c>
-      <c r="V5" s="7" t="n">
+      <c r="W5" s="7" t="n">
         <v>44390</v>
       </c>
-      <c r="W5" s="7" t="n">
+      <c r="X5" s="7" t="n">
         <v>44410</v>
       </c>
-      <c r="X5" s="7" t="n">
+      <c r="Y5" s="7" t="n">
         <v>44420</v>
       </c>
-      <c r="Y5" s="5" t="inlineStr">
+      <c r="Z5" s="5" t="inlineStr">
         <is>
           <t>FNR Builders and Sons Supply Inc.</t>
         </is>
       </c>
-      <c r="Z5" s="5" t="inlineStr"/>
-      <c r="AA5" s="6" t="n"/>
+      <c r="AA5" s="5" t="inlineStr"/>
+      <c r="AB5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="5" t="n">
+        <v>1805</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
           <t>Aurora</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="E6" s="5" t="n">
         <v>104462</v>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>Umiray ES</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>DINGALAN</t>
         </is>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="H6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="J6" s="5" t="inlineStr">
+      <c r="K6" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="L6" s="5" t="n">
         <v>6119107.42</v>
       </c>
-      <c r="L6" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="5" t="n">
         <v>3473983.7</v>
       </c>
-      <c r="N6" s="5" t="inlineStr">
+      <c r="O6" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="5" t="inlineStr"/>
+      <c r="P6" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q6" s="5" t="inlineStr"/>
       <c r="R6" s="5" t="inlineStr"/>
       <c r="S6" s="5" t="inlineStr"/>
       <c r="T6" s="5" t="inlineStr"/>
-      <c r="U6" s="7" t="n">
+      <c r="U6" s="5" t="inlineStr"/>
+      <c r="V6" s="7" t="n">
         <v>44378</v>
       </c>
-      <c r="V6" s="7" t="n">
+      <c r="W6" s="7" t="n">
         <v>44390</v>
       </c>
-      <c r="W6" s="7" t="n">
+      <c r="X6" s="7" t="n">
         <v>44410</v>
       </c>
-      <c r="X6" s="7" t="n">
+      <c r="Y6" s="7" t="n">
         <v>44412</v>
       </c>
-      <c r="Y6" s="5" t="inlineStr">
+      <c r="Z6" s="5" t="inlineStr">
         <is>
           <t>FNR Builders and Sons Supply Inc.</t>
         </is>
       </c>
-      <c r="Z6" s="5" t="inlineStr"/>
-      <c r="AA6" s="6" t="n"/>
+      <c r="AA6" s="5" t="inlineStr"/>
+      <c r="AB6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="A7" s="5" t="n">
+        <v>1806</v>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
           <t>Aurora</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="E7" s="5" t="n">
         <v>300695</v>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Umiray NHS</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>DINGALAN</t>
         </is>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="H7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="J7" s="5" t="inlineStr">
+      <c r="K7" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="L7" s="5" t="n">
         <v>14192889.56140313</v>
       </c>
-      <c r="L7" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="5" t="n">
         <v>8060094.7</v>
       </c>
-      <c r="N7" s="5" t="inlineStr">
+      <c r="O7" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="5" t="inlineStr"/>
+      <c r="P7" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q7" s="5" t="inlineStr"/>
       <c r="R7" s="5" t="inlineStr"/>
       <c r="S7" s="5" t="inlineStr"/>
       <c r="T7" s="5" t="inlineStr"/>
-      <c r="U7" s="7" t="n">
+      <c r="U7" s="5" t="inlineStr"/>
+      <c r="V7" s="7" t="n">
         <v>44378</v>
       </c>
-      <c r="V7" s="7" t="n">
+      <c r="W7" s="7" t="n">
         <v>44390</v>
       </c>
-      <c r="W7" s="7" t="n">
+      <c r="X7" s="7" t="n">
         <v>44410</v>
       </c>
-      <c r="X7" s="7" t="n">
+      <c r="Y7" s="7" t="n">
         <v>44420</v>
       </c>
-      <c r="Y7" s="5" t="inlineStr">
+      <c r="Z7" s="5" t="inlineStr">
         <is>
           <t>FNR Builders and Sons Supply Inc.</t>
         </is>
       </c>
-      <c r="Z7" s="5" t="inlineStr"/>
-      <c r="AA7" s="6" t="n"/>
+      <c r="AA7" s="5" t="inlineStr"/>
+      <c r="AB7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="5" t="n">
+        <v>1807</v>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
           <t>Aurora</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="E8" s="5" t="n">
         <v>104484</v>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>Bagtu ES</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>MARIA AURORA</t>
         </is>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="H8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J8" s="5" t="inlineStr">
+      <c r="K8" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="L8" s="5" t="n">
         <v>4959821.715479272</v>
       </c>
-      <c r="L8" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="5" t="n">
         <v>3124102.63</v>
       </c>
-      <c r="N8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="5" t="inlineStr"/>
+      <c r="P8" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q8" s="5" t="inlineStr"/>
       <c r="R8" s="5" t="inlineStr"/>
       <c r="S8" s="5" t="inlineStr"/>
       <c r="T8" s="5" t="inlineStr"/>
-      <c r="U8" s="7" t="n">
+      <c r="U8" s="5" t="inlineStr"/>
+      <c r="V8" s="7" t="n">
         <v>44378</v>
       </c>
-      <c r="V8" s="7" t="n">
+      <c r="W8" s="7" t="n">
         <v>44390</v>
       </c>
-      <c r="W8" s="7" t="n">
+      <c r="X8" s="7" t="n">
         <v>44410</v>
       </c>
-      <c r="X8" s="7" t="n">
+      <c r="Y8" s="7" t="n">
         <v>44412</v>
       </c>
-      <c r="Y8" s="5" t="inlineStr">
+      <c r="Z8" s="5" t="inlineStr">
         <is>
           <t>MACCO Construction</t>
         </is>
       </c>
-      <c r="Z8" s="5" t="inlineStr"/>
-      <c r="AA8" s="6" t="n"/>
+      <c r="AA8" s="5" t="inlineStr"/>
+      <c r="AB8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="5" t="n">
+        <v>1808</v>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
           <t>Aurora</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="E9" s="5" t="n">
         <v>104516</v>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>Dikapinisan ES</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>SAN LUIS</t>
         </is>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="H9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J9" s="5" t="inlineStr">
+      <c r="K9" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="L9" s="5" t="n">
         <v>4282656.05</v>
       </c>
-      <c r="L9" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="5" t="n">
         <v>2698145.03</v>
       </c>
-      <c r="N9" s="5" t="inlineStr">
+      <c r="O9" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="5" t="inlineStr"/>
+      <c r="P9" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q9" s="5" t="inlineStr"/>
       <c r="R9" s="5" t="inlineStr"/>
       <c r="S9" s="5" t="inlineStr"/>
       <c r="T9" s="5" t="inlineStr"/>
-      <c r="U9" s="7" t="n">
+      <c r="U9" s="5" t="inlineStr"/>
+      <c r="V9" s="7" t="n">
         <v>44378</v>
       </c>
-      <c r="V9" s="7" t="n">
+      <c r="W9" s="7" t="n">
         <v>44390</v>
       </c>
-      <c r="W9" s="7" t="n">
+      <c r="X9" s="7" t="n">
         <v>44410</v>
       </c>
-      <c r="X9" s="7" t="n">
+      <c r="Y9" s="7" t="n">
         <v>44412</v>
       </c>
-      <c r="Y9" s="5" t="inlineStr">
+      <c r="Z9" s="5" t="inlineStr">
         <is>
           <t>MACCO Construction</t>
         </is>
       </c>
-      <c r="Z9" s="5" t="inlineStr"/>
-      <c r="AA9" s="6" t="n"/>
+      <c r="AA9" s="5" t="inlineStr"/>
+      <c r="AB9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="5" t="n">
+        <v>1809</v>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
           <t>Bataan</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="E10" s="5" t="n">
         <v>104577</v>
       </c>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>Jose C. Payumo Jr. ES</t>
         </is>
       </c>
-      <c r="F10" s="5" t="inlineStr">
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>DINALUPIHAN</t>
         </is>
       </c>
-      <c r="G10" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H10" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J10" s="5" t="inlineStr">
+      <c r="K10" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="L10" s="5" t="n">
         <v>3696132.03</v>
       </c>
-      <c r="L10" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="5" t="n">
         <v>3675824.03</v>
       </c>
-      <c r="N10" s="5" t="inlineStr">
+      <c r="O10" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="7" t="n">
+      <c r="P10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="7" t="n">
         <v>44489</v>
       </c>
-      <c r="Q10" s="7" t="n">
+      <c r="R10" s="7" t="n">
         <v>44439</v>
       </c>
-      <c r="R10" s="5" t="inlineStr">
+      <c r="S10" s="5" t="inlineStr">
         <is>
           <t>QRF2021-001</t>
         </is>
       </c>
-      <c r="S10" s="5" t="inlineStr">
+      <c r="T10" s="5" t="inlineStr">
         <is>
           <t>2021-CON-00012</t>
         </is>
       </c>
-      <c r="T10" s="5" t="inlineStr"/>
       <c r="U10" s="5" t="inlineStr"/>
-      <c r="V10" s="7" t="n">
-        <v>44362</v>
-      </c>
+      <c r="V10" s="5" t="inlineStr"/>
       <c r="W10" s="7" t="n">
         <v>44362</v>
       </c>
       <c r="X10" s="7" t="n">
+        <v>44362</v>
+      </c>
+      <c r="Y10" s="7" t="n">
         <v>44371</v>
       </c>
-      <c r="Y10" s="5" t="inlineStr">
+      <c r="Z10" s="5" t="inlineStr">
         <is>
           <t>T. G. OCAMPO CONSTRUCTION &amp; SURVEYING SERVICES</t>
         </is>
       </c>
-      <c r="Z10" s="5" t="inlineStr"/>
-      <c r="AA10" s="6" t="n"/>
+      <c r="AA10" s="5" t="inlineStr"/>
+      <c r="AB10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="5" t="n">
+        <v>1810</v>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
           <t>Bataan</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="E11" s="5" t="n">
         <v>104544</v>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>Binukawan ES</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>BAGAC</t>
         </is>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="H11" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J11" s="5" t="inlineStr">
+      <c r="K11" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="L11" s="5" t="n">
         <v>1443939.49</v>
       </c>
-      <c r="L11" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="5" t="n">
         <v>1423597.95</v>
       </c>
-      <c r="N11" s="5" t="inlineStr">
+      <c r="O11" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="7" t="n">
+      <c r="P11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="7" t="n">
         <v>44459</v>
       </c>
-      <c r="Q11" s="7" t="n">
+      <c r="R11" s="7" t="n">
         <v>44403</v>
       </c>
-      <c r="R11" s="5" t="inlineStr">
+      <c r="S11" s="5" t="inlineStr">
         <is>
           <t>QRF2021-002</t>
         </is>
       </c>
-      <c r="S11" s="5" t="inlineStr">
+      <c r="T11" s="5" t="inlineStr">
         <is>
           <t>2021-CON-00011</t>
         </is>
       </c>
-      <c r="T11" s="5" t="inlineStr"/>
       <c r="U11" s="5" t="inlineStr"/>
-      <c r="V11" s="7" t="n">
-        <v>44362</v>
-      </c>
+      <c r="V11" s="5" t="inlineStr"/>
       <c r="W11" s="7" t="n">
         <v>44362</v>
       </c>
       <c r="X11" s="7" t="n">
+        <v>44362</v>
+      </c>
+      <c r="Y11" s="7" t="n">
         <v>44370</v>
       </c>
-      <c r="Y11" s="5" t="inlineStr">
+      <c r="Z11" s="5" t="inlineStr">
         <is>
           <t>TURQUOISE CONSTRUCTION &amp; REALTY DEVELOPMENT</t>
         </is>
       </c>
-      <c r="Z11" s="5" t="inlineStr"/>
-      <c r="AA11" s="6" t="n"/>
+      <c r="AA11" s="5" t="inlineStr"/>
+      <c r="AB11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="inlineStr">
+      <c r="A12" s="5" t="n">
+        <v>1811</v>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C12" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
           <t>Bataan</t>
         </is>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="E12" s="5" t="n">
         <v>104684</v>
       </c>
-      <c r="E12" s="5" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>Puting Buhangin ES</t>
         </is>
       </c>
-      <c r="F12" s="5" t="inlineStr">
+      <c r="G12" s="5" t="inlineStr">
         <is>
           <t>ORION</t>
         </is>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="H12" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H12" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="J12" s="5" t="inlineStr">
+      <c r="K12" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="L12" s="5" t="n">
         <v>4132161.22</v>
       </c>
-      <c r="L12" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="5" t="n">
         <v>4111644.41</v>
       </c>
-      <c r="N12" s="5" t="inlineStr">
+      <c r="O12" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" s="7" t="n">
+      <c r="P12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="7" t="n">
         <v>44489</v>
       </c>
-      <c r="Q12" s="7" t="n">
+      <c r="R12" s="7" t="n">
         <v>44439</v>
       </c>
-      <c r="R12" s="5" t="inlineStr">
+      <c r="S12" s="5" t="inlineStr">
         <is>
           <t>QRF2021-003</t>
         </is>
       </c>
-      <c r="S12" s="5" t="inlineStr">
+      <c r="T12" s="5" t="inlineStr">
         <is>
           <t>2021-CON-00013</t>
         </is>
       </c>
-      <c r="T12" s="5" t="inlineStr"/>
       <c r="U12" s="5" t="inlineStr"/>
-      <c r="V12" s="7" t="n">
-        <v>44362</v>
-      </c>
+      <c r="V12" s="5" t="inlineStr"/>
       <c r="W12" s="7" t="n">
         <v>44362</v>
       </c>
       <c r="X12" s="7" t="n">
+        <v>44362</v>
+      </c>
+      <c r="Y12" s="7" t="n">
         <v>44370</v>
       </c>
-      <c r="Y12" s="5" t="inlineStr">
+      <c r="Z12" s="5" t="inlineStr">
         <is>
           <t>RODMAC CONSTRUCTION &amp;TRADING</t>
         </is>
       </c>
-      <c r="Z12" s="5" t="inlineStr"/>
-      <c r="AA12" s="6" t="n"/>
+      <c r="AA12" s="5" t="inlineStr"/>
+      <c r="AB12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="inlineStr">
+      <c r="A13" s="5" t="n">
+        <v>1812</v>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
           <t>Bataan</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="E13" s="5" t="n">
         <v>104685</v>
       </c>
-      <c r="E13" s="5" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>Sabatan ES</t>
         </is>
       </c>
-      <c r="F13" s="5" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>ORION</t>
         </is>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="H13" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H13" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J13" s="5" t="inlineStr">
+      <c r="K13" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K13" s="5" t="n">
+      <c r="L13" s="5" t="n">
         <v>2637397.45</v>
       </c>
-      <c r="L13" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="5" t="n">
         <v>2616736.88</v>
       </c>
-      <c r="N13" s="5" t="inlineStr">
+      <c r="O13" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" s="7" t="n">
+      <c r="P13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="7" t="n">
         <v>44489</v>
       </c>
-      <c r="Q13" s="7" t="n">
+      <c r="R13" s="7" t="n">
         <v>44446</v>
       </c>
-      <c r="R13" s="5" t="inlineStr">
+      <c r="S13" s="5" t="inlineStr">
         <is>
           <t>QRF2021-004</t>
         </is>
       </c>
-      <c r="S13" s="5" t="inlineStr">
+      <c r="T13" s="5" t="inlineStr">
         <is>
           <t>2021-CON-00014</t>
         </is>
       </c>
-      <c r="T13" s="5" t="inlineStr"/>
       <c r="U13" s="5" t="inlineStr"/>
-      <c r="V13" s="7" t="n">
-        <v>44362</v>
-      </c>
+      <c r="V13" s="5" t="inlineStr"/>
       <c r="W13" s="7" t="n">
         <v>44362</v>
       </c>
       <c r="X13" s="7" t="n">
+        <v>44362</v>
+      </c>
+      <c r="Y13" s="7" t="n">
         <v>44371</v>
       </c>
-      <c r="Y13" s="5" t="inlineStr">
+      <c r="Z13" s="5" t="inlineStr">
         <is>
           <t>ALTITUDE ENGINEERING AND CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z13" s="5" t="inlineStr"/>
-      <c r="AA13" s="6" t="n"/>
+      <c r="AA13" s="5" t="inlineStr"/>
+      <c r="AB13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="inlineStr">
+      <c r="A14" s="5" t="n">
+        <v>1813</v>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
           <t>Bataan</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="E14" s="5" t="n">
         <v>104698</v>
       </c>
-      <c r="E14" s="5" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>Sta. Rosa ES</t>
         </is>
       </c>
-      <c r="F14" s="5" t="inlineStr">
+      <c r="G14" s="5" t="inlineStr">
         <is>
           <t>PILAR</t>
         </is>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="H14" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H14" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J14" s="5" t="inlineStr">
+      <c r="K14" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K14" s="5" t="n">
+      <c r="L14" s="5" t="n">
         <v>3568719.22</v>
       </c>
-      <c r="L14" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="5" t="n">
         <v>3548642.04</v>
       </c>
-      <c r="N14" s="5" t="inlineStr">
+      <c r="O14" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" s="7" t="n">
+      <c r="P14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="7" t="n">
         <v>44489</v>
       </c>
-      <c r="Q14" s="7" t="n">
+      <c r="R14" s="7" t="n">
         <v>44445</v>
       </c>
-      <c r="R14" s="5" t="inlineStr">
+      <c r="S14" s="5" t="inlineStr">
         <is>
           <t>QRF2021-005</t>
         </is>
       </c>
-      <c r="S14" s="5" t="inlineStr">
+      <c r="T14" s="5" t="inlineStr">
         <is>
           <t>2021-CON-00015</t>
         </is>
       </c>
-      <c r="T14" s="5" t="inlineStr"/>
       <c r="U14" s="5" t="inlineStr"/>
-      <c r="V14" s="7" t="n">
-        <v>44362</v>
-      </c>
+      <c r="V14" s="5" t="inlineStr"/>
       <c r="W14" s="7" t="n">
         <v>44362</v>
       </c>
       <c r="X14" s="7" t="n">
+        <v>44362</v>
+      </c>
+      <c r="Y14" s="7" t="n">
         <v>44370</v>
       </c>
-      <c r="Y14" s="5" t="inlineStr">
+      <c r="Z14" s="5" t="inlineStr">
         <is>
           <t>RODMAC CONSTRUCTION &amp;TRADING</t>
         </is>
       </c>
-      <c r="Z14" s="5" t="inlineStr"/>
-      <c r="AA14" s="6" t="n"/>
+      <c r="AA14" s="5" t="inlineStr"/>
+      <c r="AB14" s="6" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="inlineStr">
+      <c r="A15" s="5" t="n">
+        <v>1814</v>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
           <t>Bulacan</t>
         </is>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="E15" s="5" t="n">
         <v>158542</v>
       </c>
-      <c r="E15" s="5" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>St. Martha Elementary School</t>
         </is>
       </c>
-      <c r="F15" s="5" t="inlineStr">
+      <c r="G15" s="5" t="inlineStr">
         <is>
           <t>BOCAUE</t>
         </is>
       </c>
-      <c r="G15" s="5" t="n">
+      <c r="H15" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H15" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="J15" s="5" t="inlineStr">
+      <c r="K15" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K15" s="5" t="n">
+      <c r="L15" s="5" t="n">
         <v>751760.04</v>
       </c>
-      <c r="L15" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="5" t="n">
         <v>697369.88</v>
       </c>
-      <c r="N15" s="5" t="inlineStr">
+      <c r="O15" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="7" t="n">
+      <c r="P15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="7" t="n">
         <v>44491</v>
       </c>
-      <c r="Q15" s="7" t="n">
+      <c r="R15" s="7" t="n">
         <v>44481</v>
       </c>
-      <c r="R15" s="5" t="inlineStr">
+      <c r="S15" s="5" t="inlineStr">
         <is>
           <t>PB-21-014</t>
         </is>
       </c>
-      <c r="S15" s="5" t="inlineStr">
+      <c r="T15" s="5" t="inlineStr">
         <is>
           <t>PB-21--025</t>
         </is>
       </c>
-      <c r="T15" s="7" t="n">
+      <c r="U15" s="7" t="n">
         <v>44369</v>
       </c>
-      <c r="U15" s="7" t="n">
+      <c r="V15" s="7" t="n">
         <v>44378</v>
       </c>
-      <c r="V15" s="7" t="n">
+      <c r="W15" s="7" t="n">
         <v>44391</v>
       </c>
-      <c r="W15" s="7" t="n">
+      <c r="X15" s="7" t="n">
         <v>44398</v>
       </c>
-      <c r="X15" s="7" t="n">
+      <c r="Y15" s="7" t="n">
         <v>44439</v>
       </c>
-      <c r="Y15" s="5" t="inlineStr">
+      <c r="Z15" s="5" t="inlineStr">
         <is>
           <t>DUAMON Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="Z15" s="5" t="inlineStr"/>
-      <c r="AA15" s="6" t="n"/>
+      <c r="AA15" s="5" t="inlineStr"/>
+      <c r="AB15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="inlineStr">
+      <c r="A16" s="5" t="n">
+        <v>1815</v>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
           <t>Bulacan</t>
         </is>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="E16" s="5" t="n">
         <v>127616</v>
       </c>
-      <c r="E16" s="5" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>Cacarong Bata Elementary School</t>
         </is>
       </c>
-      <c r="F16" s="5" t="inlineStr">
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>PANDI</t>
         </is>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="H16" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H16" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="J16" s="5" t="inlineStr">
+      <c r="K16" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K16" s="5" t="n">
+      <c r="L16" s="5" t="n">
         <v>1781937.72</v>
       </c>
-      <c r="L16" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="5" t="n">
         <v>2105320.7</v>
       </c>
-      <c r="N16" s="5" t="inlineStr">
+      <c r="O16" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" s="7" t="n">
+      <c r="P16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="7" t="n">
         <v>44508</v>
       </c>
-      <c r="Q16" s="7" t="n">
+      <c r="R16" s="7" t="n">
         <v>44496</v>
       </c>
-      <c r="R16" s="5" t="inlineStr">
+      <c r="S16" s="5" t="inlineStr">
         <is>
           <t>PB-21-013</t>
         </is>
       </c>
-      <c r="S16" s="5" t="inlineStr">
+      <c r="T16" s="5" t="inlineStr">
         <is>
           <t>PB-21--024</t>
         </is>
       </c>
-      <c r="T16" s="7" t="n">
+      <c r="U16" s="7" t="n">
         <v>44369</v>
       </c>
-      <c r="U16" s="7" t="n">
+      <c r="V16" s="7" t="n">
         <v>44378</v>
       </c>
-      <c r="V16" s="7" t="n">
+      <c r="W16" s="7" t="n">
         <v>44391</v>
       </c>
-      <c r="W16" s="7" t="n">
+      <c r="X16" s="7" t="n">
         <v>44398</v>
       </c>
-      <c r="X16" s="7" t="n">
+      <c r="Y16" s="7" t="n">
         <v>44411</v>
       </c>
-      <c r="Y16" s="5" t="inlineStr">
+      <c r="Z16" s="5" t="inlineStr">
         <is>
           <t>EMICA Builders and Supply</t>
         </is>
       </c>
-      <c r="Z16" s="5" t="inlineStr"/>
-      <c r="AA16" s="6" t="n"/>
+      <c r="AA16" s="5" t="inlineStr"/>
+      <c r="AB16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="inlineStr">
+      <c r="A17" s="5" t="n">
+        <v>1816</v>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
           <t>Bulacan</t>
         </is>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="E17" s="5" t="n">
         <v>105035</v>
       </c>
-      <c r="E17" s="5" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>Garlang Elementary School</t>
         </is>
       </c>
-      <c r="F17" s="5" t="inlineStr">
+      <c r="G17" s="5" t="inlineStr">
         <is>
           <t>SAN ILDEFONSO</t>
         </is>
       </c>
-      <c r="G17" s="5" t="n">
+      <c r="H17" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H17" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J17" s="5" t="inlineStr">
+      <c r="K17" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K17" s="5" t="n">
+      <c r="L17" s="5" t="n">
         <v>2807039.59</v>
       </c>
-      <c r="L17" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="5" t="n">
         <v>1556027.8</v>
       </c>
-      <c r="N17" s="5" t="inlineStr">
+      <c r="O17" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" s="7" t="n">
+      <c r="P17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="7" t="n">
         <v>44508</v>
       </c>
-      <c r="Q17" s="7" t="n">
+      <c r="R17" s="7" t="n">
         <v>44489</v>
       </c>
-      <c r="R17" s="5" t="inlineStr">
+      <c r="S17" s="5" t="inlineStr">
         <is>
           <t>PB-21-012</t>
         </is>
       </c>
-      <c r="S17" s="5" t="inlineStr">
+      <c r="T17" s="5" t="inlineStr">
         <is>
           <t>PB-21--023</t>
         </is>
       </c>
-      <c r="T17" s="7" t="n">
+      <c r="U17" s="7" t="n">
         <v>44369</v>
       </c>
-      <c r="U17" s="7" t="n">
+      <c r="V17" s="7" t="n">
         <v>44378</v>
       </c>
-      <c r="V17" s="7" t="n">
+      <c r="W17" s="7" t="n">
         <v>44391</v>
       </c>
-      <c r="W17" s="7" t="n">
+      <c r="X17" s="7" t="n">
         <v>44398</v>
       </c>
-      <c r="X17" s="7" t="n">
+      <c r="Y17" s="7" t="n">
         <v>44411</v>
       </c>
-      <c r="Y17" s="5" t="inlineStr">
+      <c r="Z17" s="5" t="inlineStr">
         <is>
           <t>RHR Construction</t>
         </is>
       </c>
-      <c r="Z17" s="5" t="inlineStr"/>
-      <c r="AA17" s="6" t="n"/>
+      <c r="AA17" s="5" t="inlineStr"/>
+      <c r="AB17" s="6" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="inlineStr">
+      <c r="A18" s="5" t="n">
+        <v>1817</v>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
           <t>Bulacan</t>
         </is>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="E18" s="5" t="n">
         <v>306728</v>
       </c>
-      <c r="E18" s="5" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>Sta. Catalina Bata National High School</t>
         </is>
       </c>
-      <c r="F18" s="5" t="inlineStr">
+      <c r="G18" s="5" t="inlineStr">
         <is>
           <t>SAN ILDEFONSO</t>
         </is>
       </c>
-      <c r="G18" s="5" t="n">
+      <c r="H18" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H18" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J18" s="5" t="inlineStr">
+      <c r="K18" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K18" s="5" t="n">
+      <c r="L18" s="5" t="n">
         <v>432073.49</v>
       </c>
-      <c r="L18" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" s="5" t="n">
         <v>358601.03</v>
       </c>
-      <c r="N18" s="5" t="inlineStr">
+      <c r="O18" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O18" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" s="7" t="n">
+      <c r="P18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="7" t="n">
         <v>44463</v>
       </c>
-      <c r="Q18" s="7" t="n">
+      <c r="R18" s="7" t="n">
         <v>44459</v>
       </c>
-      <c r="R18" s="5" t="inlineStr">
+      <c r="S18" s="5" t="inlineStr">
         <is>
           <t>PB-21-015</t>
         </is>
       </c>
-      <c r="S18" s="5" t="inlineStr">
+      <c r="T18" s="5" t="inlineStr">
         <is>
           <t>PB-21--026</t>
         </is>
       </c>
-      <c r="T18" s="7" t="n">
+      <c r="U18" s="7" t="n">
         <v>44369</v>
       </c>
-      <c r="U18" s="7" t="n">
+      <c r="V18" s="7" t="n">
         <v>44378</v>
       </c>
-      <c r="V18" s="7" t="n">
+      <c r="W18" s="7" t="n">
         <v>44391</v>
       </c>
-      <c r="W18" s="7" t="n">
+      <c r="X18" s="7" t="n">
         <v>44398</v>
       </c>
-      <c r="X18" s="7" t="n">
+      <c r="Y18" s="7" t="n">
         <v>44411</v>
       </c>
-      <c r="Y18" s="5" t="inlineStr">
+      <c r="Z18" s="5" t="inlineStr">
         <is>
           <t>EMICA Builders and Supply</t>
         </is>
       </c>
-      <c r="Z18" s="5" t="inlineStr"/>
-      <c r="AA18" s="6" t="n"/>
+      <c r="AA18" s="5" t="inlineStr"/>
+      <c r="AB18" s="6" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="inlineStr">
+      <c r="A19" s="5" t="n">
+        <v>1818</v>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
           <t>Gapan City</t>
         </is>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="E19" s="5" t="n">
         <v>500727</v>
       </c>
-      <c r="E19" s="5" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>Sto. Cristo Proper Integrated School</t>
         </is>
       </c>
-      <c r="F19" s="5" t="inlineStr">
+      <c r="G19" s="5" t="inlineStr">
         <is>
           <t>CITY OF GAPAN</t>
         </is>
       </c>
-      <c r="G19" s="5" t="n">
+      <c r="H19" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H19" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J19" s="5" t="inlineStr">
+      <c r="K19" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K19" s="5" t="n">
+      <c r="L19" s="5" t="n">
         <v>573955.04</v>
       </c>
-      <c r="L19" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="5" t="n">
         <v>563657.79</v>
       </c>
-      <c r="N19" s="5" t="inlineStr">
+      <c r="O19" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="7" t="n">
+      <c r="P19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="7" t="n">
         <v>44435</v>
       </c>
-      <c r="Q19" s="7" t="n">
+      <c r="R19" s="7" t="n">
         <v>44409</v>
       </c>
-      <c r="R19" s="5" t="inlineStr">
+      <c r="S19" s="5" t="inlineStr">
         <is>
           <t>2021-06-09-002-QRF</t>
         </is>
       </c>
-      <c r="S19" s="5" t="inlineStr">
+      <c r="T19" s="5" t="inlineStr">
         <is>
           <t>2021-06-09-002-QRF</t>
         </is>
       </c>
-      <c r="T19" s="7" t="n">
+      <c r="U19" s="7" t="n">
         <v>44357</v>
-      </c>
-      <c r="U19" s="7" t="n">
-        <v>44362</v>
       </c>
       <c r="V19" s="7" t="n">
         <v>44362</v>
       </c>
       <c r="W19" s="7" t="n">
+        <v>44362</v>
+      </c>
+      <c r="X19" s="7" t="n">
         <v>44365</v>
       </c>
-      <c r="X19" s="7" t="n">
+      <c r="Y19" s="7" t="n">
         <v>44375</v>
       </c>
-      <c r="Y19" s="5" t="inlineStr">
+      <c r="Z19" s="5" t="inlineStr">
         <is>
           <t>Joynieltin Construction and Trading</t>
         </is>
       </c>
-      <c r="Z19" s="5" t="inlineStr"/>
-      <c r="AA19" s="6" t="n"/>
+      <c r="AA19" s="5" t="inlineStr"/>
+      <c r="AB19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="inlineStr">
+      <c r="A20" s="5" t="n">
+        <v>1819</v>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B20" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
           <t>Malolos City</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="E20" s="5" t="n">
         <v>104867</v>
       </c>
-      <c r="E20" s="5" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>Caingin ES</t>
         </is>
       </c>
-      <c r="F20" s="5" t="inlineStr">
+      <c r="G20" s="5" t="inlineStr">
         <is>
           <t>CITY OF MALOLOS  (Capital)</t>
         </is>
       </c>
-      <c r="G20" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H20" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J20" s="5" t="inlineStr">
+      <c r="K20" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K20" s="5" t="n">
+      <c r="L20" s="5" t="n">
         <v>1848240.83</v>
       </c>
-      <c r="L20" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="5" t="n">
         <v>1841861.9</v>
       </c>
-      <c r="N20" s="5" t="inlineStr">
+      <c r="O20" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O20" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" s="7" t="n">
+      <c r="P20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="7" t="n">
         <v>44543</v>
       </c>
-      <c r="Q20" s="5" t="inlineStr"/>
       <c r="R20" s="5" t="inlineStr"/>
       <c r="S20" s="5" t="inlineStr"/>
-      <c r="T20" s="5" t="inlineStr">
+      <c r="T20" s="5" t="inlineStr"/>
+      <c r="U20" s="5" t="inlineStr">
         <is>
           <t>06/23-06/302021</t>
         </is>
       </c>
-      <c r="U20" s="7" t="n">
+      <c r="V20" s="7" t="n">
         <v>44377</v>
       </c>
-      <c r="V20" s="7" t="n">
+      <c r="W20" s="7" t="n">
         <v>44389</v>
       </c>
-      <c r="W20" s="7" t="n">
+      <c r="X20" s="7" t="n">
         <v>44392</v>
       </c>
-      <c r="X20" s="7" t="n">
+      <c r="Y20" s="7" t="n">
         <v>44424</v>
       </c>
-      <c r="Y20" s="5" t="inlineStr">
+      <c r="Z20" s="5" t="inlineStr">
         <is>
           <t>POWERMETAL CONSTRUCTION CO.</t>
         </is>
       </c>
-      <c r="Z20" s="5" t="inlineStr"/>
-      <c r="AA20" s="6" t="n"/>
+      <c r="AA20" s="5" t="inlineStr"/>
+      <c r="AB20" s="6" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="inlineStr">
+      <c r="A21" s="5" t="n">
+        <v>1820</v>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B21" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C21" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="E21" s="5" t="n">
         <v>159015</v>
       </c>
-      <c r="E21" s="5" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>Osmena ES</t>
         </is>
       </c>
-      <c r="F21" s="5" t="inlineStr">
+      <c r="G21" s="5" t="inlineStr">
         <is>
           <t>QUEZON</t>
         </is>
       </c>
-      <c r="G21" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J21" s="5" t="inlineStr">
+      <c r="K21" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K21" s="5" t="n">
+      <c r="L21" s="5" t="n">
         <v>1163078.75</v>
       </c>
-      <c r="L21" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr">
+      <c r="M21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" s="5" t="inlineStr"/>
+      <c r="O21" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O21" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" s="5" t="inlineStr"/>
+      <c r="P21" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q21" s="5" t="inlineStr"/>
       <c r="R21" s="5" t="inlineStr"/>
       <c r="S21" s="5" t="inlineStr"/>
@@ -2415,67 +2480,70 @@
       <c r="X21" s="5" t="inlineStr"/>
       <c r="Y21" s="5" t="inlineStr"/>
       <c r="Z21" s="5" t="inlineStr"/>
-      <c r="AA21" s="6" t="n"/>
+      <c r="AA21" s="5" t="inlineStr"/>
+      <c r="AB21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="inlineStr">
+      <c r="A22" s="5" t="n">
+        <v>1821</v>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="E22" s="5" t="n">
         <v>105625</v>
       </c>
-      <c r="E22" s="5" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>Ricardo L. Joson Elementary School</t>
         </is>
       </c>
-      <c r="F22" s="5" t="inlineStr">
+      <c r="G22" s="5" t="inlineStr">
         <is>
           <t>QUEZON</t>
         </is>
       </c>
-      <c r="G22" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H22" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J22" s="5" t="inlineStr">
+      <c r="K22" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K22" s="5" t="n">
+      <c r="L22" s="5" t="n">
         <v>1794967.02832394</v>
       </c>
-      <c r="L22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr">
+      <c r="M22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" s="5" t="inlineStr"/>
+      <c r="O22" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" s="5" t="inlineStr"/>
+      <c r="P22" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q22" s="5" t="inlineStr"/>
       <c r="R22" s="5" t="inlineStr"/>
       <c r="S22" s="5" t="inlineStr"/>
@@ -2486,67 +2554,70 @@
       <c r="X22" s="5" t="inlineStr"/>
       <c r="Y22" s="5" t="inlineStr"/>
       <c r="Z22" s="5" t="inlineStr"/>
-      <c r="AA22" s="6" t="n"/>
+      <c r="AA22" s="5" t="inlineStr"/>
+      <c r="AB22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="inlineStr">
+      <c r="A23" s="5" t="n">
+        <v>1822</v>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B23" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="E23" s="5" t="n">
         <v>105634</v>
       </c>
-      <c r="E23" s="5" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>Tomas Joson ES</t>
         </is>
       </c>
-      <c r="F23" s="5" t="inlineStr">
+      <c r="G23" s="5" t="inlineStr">
         <is>
           <t>QUEZON</t>
         </is>
       </c>
-      <c r="G23" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H23" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J23" s="5" t="inlineStr">
+      <c r="K23" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K23" s="5" t="n">
+      <c r="L23" s="5" t="n">
         <v>1504463.25</v>
       </c>
-      <c r="L23" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr">
+      <c r="M23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" s="5" t="inlineStr"/>
+      <c r="O23" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O23" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" s="5" t="inlineStr"/>
+      <c r="P23" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q23" s="5" t="inlineStr"/>
       <c r="R23" s="5" t="inlineStr"/>
       <c r="S23" s="5" t="inlineStr"/>
@@ -2557,67 +2628,70 @@
       <c r="X23" s="5" t="inlineStr"/>
       <c r="Y23" s="5" t="inlineStr"/>
       <c r="Z23" s="5" t="inlineStr"/>
-      <c r="AA23" s="6" t="n"/>
+      <c r="AA23" s="5" t="inlineStr"/>
+      <c r="AB23" s="6" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="inlineStr">
+      <c r="A24" s="5" t="n">
+        <v>1823</v>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B24" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C24" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D24" s="5" t="n">
+      <c r="E24" s="5" t="n">
         <v>105242</v>
       </c>
-      <c r="E24" s="5" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>Carranglan C/S</t>
         </is>
       </c>
-      <c r="F24" s="5" t="inlineStr">
+      <c r="G24" s="5" t="inlineStr">
         <is>
           <t>CARRANGLAN</t>
         </is>
       </c>
-      <c r="G24" s="5" t="n">
+      <c r="H24" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H24" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J24" s="5" t="inlineStr">
+      <c r="K24" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K24" s="5" t="n">
+      <c r="L24" s="5" t="n">
         <v>1707160.486843938</v>
       </c>
-      <c r="L24" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr">
+      <c r="M24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" s="5" t="inlineStr"/>
+      <c r="O24" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O24" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" s="5" t="inlineStr"/>
+      <c r="P24" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q24" s="5" t="inlineStr"/>
       <c r="R24" s="5" t="inlineStr"/>
       <c r="S24" s="5" t="inlineStr"/>
@@ -2628,67 +2702,70 @@
       <c r="X24" s="5" t="inlineStr"/>
       <c r="Y24" s="5" t="inlineStr"/>
       <c r="Z24" s="5" t="inlineStr"/>
-      <c r="AA24" s="6" t="n"/>
+      <c r="AA24" s="5" t="inlineStr"/>
+      <c r="AB24" s="6" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="inlineStr">
+      <c r="A25" s="5" t="n">
+        <v>1824</v>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B25" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C25" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D25" s="5" t="n">
+      <c r="E25" s="5" t="n">
         <v>105498</v>
       </c>
-      <c r="E25" s="5" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>General Ricarte ES</t>
         </is>
       </c>
-      <c r="F25" s="5" t="inlineStr">
+      <c r="G25" s="5" t="inlineStr">
         <is>
           <t>LLANERA</t>
         </is>
       </c>
-      <c r="G25" s="5" t="n">
+      <c r="H25" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H25" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J25" s="5" t="inlineStr">
+      <c r="K25" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K25" s="5" t="n">
+      <c r="L25" s="5" t="n">
         <v>2043160.46524502</v>
       </c>
-      <c r="L25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" s="5" t="inlineStr"/>
-      <c r="N25" s="5" t="inlineStr">
+      <c r="M25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" s="5" t="inlineStr"/>
+      <c r="O25" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" s="5" t="inlineStr"/>
+      <c r="P25" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q25" s="5" t="inlineStr"/>
       <c r="R25" s="5" t="inlineStr"/>
       <c r="S25" s="5" t="inlineStr"/>
@@ -2699,67 +2776,70 @@
       <c r="X25" s="5" t="inlineStr"/>
       <c r="Y25" s="5" t="inlineStr"/>
       <c r="Z25" s="5" t="inlineStr"/>
-      <c r="AA25" s="6" t="n"/>
+      <c r="AA25" s="5" t="inlineStr"/>
+      <c r="AB25" s="6" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="inlineStr">
+      <c r="A26" s="5" t="n">
+        <v>1825</v>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C26" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D26" s="5" t="n">
+      <c r="E26" s="5" t="n">
         <v>105655</v>
       </c>
-      <c r="E26" s="5" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>San Esteban ES</t>
         </is>
       </c>
-      <c r="F26" s="5" t="inlineStr">
+      <c r="G26" s="5" t="inlineStr">
         <is>
           <t>RIZAL</t>
         </is>
       </c>
-      <c r="G26" s="5" t="n">
+      <c r="H26" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H26" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J26" s="5" t="inlineStr">
+      <c r="K26" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K26" s="5" t="n">
+      <c r="L26" s="5" t="n">
         <v>1163078.75</v>
       </c>
-      <c r="L26" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" s="5" t="inlineStr"/>
-      <c r="N26" s="5" t="inlineStr">
+      <c r="M26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" s="5" t="inlineStr"/>
+      <c r="O26" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O26" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" s="5" t="inlineStr"/>
+      <c r="P26" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q26" s="5" t="inlineStr"/>
       <c r="R26" s="5" t="inlineStr"/>
       <c r="S26" s="5" t="inlineStr"/>
@@ -2770,67 +2850,70 @@
       <c r="X26" s="5" t="inlineStr"/>
       <c r="Y26" s="5" t="inlineStr"/>
       <c r="Z26" s="5" t="inlineStr"/>
-      <c r="AA26" s="6" t="n"/>
+      <c r="AA26" s="5" t="inlineStr"/>
+      <c r="AB26" s="6" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="inlineStr">
+      <c r="A27" s="5" t="n">
+        <v>1826</v>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B27" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C27" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D27" s="5" t="n">
+      <c r="E27" s="5" t="n">
         <v>105194</v>
       </c>
-      <c r="E27" s="5" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>Antipolo ES</t>
         </is>
       </c>
-      <c r="F27" s="5" t="inlineStr">
+      <c r="G27" s="5" t="inlineStr">
         <is>
           <t>BONGABON</t>
         </is>
       </c>
-      <c r="G27" s="5" t="n">
+      <c r="H27" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H27" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J27" s="5" t="inlineStr">
+      <c r="K27" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K27" s="5" t="n">
+      <c r="L27" s="5" t="n">
         <v>1436427.512342466</v>
       </c>
-      <c r="L27" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" s="5" t="inlineStr"/>
-      <c r="N27" s="5" t="inlineStr">
+      <c r="M27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" s="5" t="inlineStr"/>
+      <c r="O27" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O27" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" s="5" t="inlineStr"/>
+      <c r="P27" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q27" s="5" t="inlineStr"/>
       <c r="R27" s="5" t="inlineStr"/>
       <c r="S27" s="5" t="inlineStr"/>
@@ -2841,67 +2924,70 @@
       <c r="X27" s="5" t="inlineStr"/>
       <c r="Y27" s="5" t="inlineStr"/>
       <c r="Z27" s="5" t="inlineStr"/>
-      <c r="AA27" s="6" t="n"/>
+      <c r="AA27" s="5" t="inlineStr"/>
+      <c r="AB27" s="6" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="inlineStr">
+      <c r="A28" s="5" t="n">
+        <v>1827</v>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B28" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C28" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D28" s="5" t="n">
+      <c r="E28" s="5" t="n">
         <v>105195</v>
       </c>
-      <c r="E28" s="5" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>Ariendo ES</t>
         </is>
       </c>
-      <c r="F28" s="5" t="inlineStr">
+      <c r="G28" s="5" t="inlineStr">
         <is>
           <t>BONGABON</t>
         </is>
       </c>
-      <c r="G28" s="5" t="n">
+      <c r="H28" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H28" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J28" s="5" t="inlineStr">
+      <c r="K28" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K28" s="5" t="n">
+      <c r="L28" s="5" t="n">
         <v>1690473.37</v>
       </c>
-      <c r="L28" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" s="5" t="inlineStr"/>
-      <c r="N28" s="5" t="inlineStr">
+      <c r="M28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" s="5" t="inlineStr"/>
+      <c r="O28" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O28" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" s="5" t="inlineStr"/>
+      <c r="P28" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q28" s="5" t="inlineStr"/>
       <c r="R28" s="5" t="inlineStr"/>
       <c r="S28" s="5" t="inlineStr"/>
@@ -2912,67 +2998,70 @@
       <c r="X28" s="5" t="inlineStr"/>
       <c r="Y28" s="5" t="inlineStr"/>
       <c r="Z28" s="5" t="inlineStr"/>
-      <c r="AA28" s="6" t="n"/>
+      <c r="AA28" s="5" t="inlineStr"/>
+      <c r="AB28" s="6" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="inlineStr">
+      <c r="A29" s="5" t="n">
+        <v>1828</v>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B29" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C29" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D29" s="5" t="n">
+      <c r="E29" s="5" t="n">
         <v>105306</v>
       </c>
-      <c r="E29" s="5" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>F. Buencamino Sr. Integrated School (F. Buencamino Sr. ES)</t>
         </is>
       </c>
-      <c r="F29" s="5" t="inlineStr">
+      <c r="G29" s="5" t="inlineStr">
         <is>
           <t>GABALDON (BITULOK &amp; SABANI)</t>
         </is>
       </c>
-      <c r="G29" s="5" t="n">
+      <c r="H29" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H29" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J29" s="5" t="inlineStr">
+      <c r="K29" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K29" s="5" t="n">
+      <c r="L29" s="5" t="n">
         <v>1794967.02832394</v>
       </c>
-      <c r="L29" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" s="5" t="inlineStr"/>
-      <c r="N29" s="5" t="inlineStr">
+      <c r="M29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" s="5" t="inlineStr"/>
+      <c r="O29" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O29" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" s="5" t="inlineStr"/>
+      <c r="P29" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q29" s="5" t="inlineStr"/>
       <c r="R29" s="5" t="inlineStr"/>
       <c r="S29" s="5" t="inlineStr"/>
@@ -2983,67 +3072,70 @@
       <c r="X29" s="5" t="inlineStr"/>
       <c r="Y29" s="5" t="inlineStr"/>
       <c r="Z29" s="5" t="inlineStr"/>
-      <c r="AA29" s="6" t="n"/>
+      <c r="AA29" s="5" t="inlineStr"/>
+      <c r="AB29" s="6" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="inlineStr">
+      <c r="A30" s="5" t="n">
+        <v>1829</v>
+      </c>
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B30" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C30" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D30" s="5" t="n">
+      <c r="E30" s="5" t="n">
         <v>105313</v>
       </c>
-      <c r="E30" s="5" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>Tagumpay ES</t>
         </is>
       </c>
-      <c r="F30" s="5" t="inlineStr">
+      <c r="G30" s="5" t="inlineStr">
         <is>
           <t>GABALDON (BITULOK &amp; SABANI)</t>
         </is>
       </c>
-      <c r="G30" s="5" t="n">
+      <c r="H30" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H30" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J30" s="5" t="inlineStr">
+      <c r="K30" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K30" s="5" t="n">
+      <c r="L30" s="5" t="n">
         <v>1066073.88</v>
       </c>
-      <c r="L30" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" s="5" t="inlineStr"/>
-      <c r="N30" s="5" t="inlineStr">
+      <c r="M30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" s="5" t="inlineStr"/>
+      <c r="O30" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O30" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P30" s="5" t="inlineStr"/>
+      <c r="P30" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q30" s="5" t="inlineStr"/>
       <c r="R30" s="5" t="inlineStr"/>
       <c r="S30" s="5" t="inlineStr"/>
@@ -3054,67 +3146,70 @@
       <c r="X30" s="5" t="inlineStr"/>
       <c r="Y30" s="5" t="inlineStr"/>
       <c r="Z30" s="5" t="inlineStr"/>
-      <c r="AA30" s="6" t="n"/>
+      <c r="AA30" s="5" t="inlineStr"/>
+      <c r="AB30" s="6" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="inlineStr">
+      <c r="A31" s="5" t="n">
+        <v>1830</v>
+      </c>
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B31" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C31" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
+        <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D31" s="5" t="n">
+      <c r="E31" s="5" t="n">
         <v>105757</v>
       </c>
-      <c r="E31" s="5" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>Pepito B. Bernardo Mem. School</t>
         </is>
       </c>
-      <c r="F31" s="5" t="inlineStr">
+      <c r="G31" s="5" t="inlineStr">
         <is>
           <t>SANTA ROSA</t>
         </is>
       </c>
-      <c r="G31" s="5" t="n">
+      <c r="H31" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H31" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J31" s="5" t="inlineStr">
+      <c r="K31" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K31" s="5" t="n">
+      <c r="L31" s="5" t="n">
         <v>1794967.02832394</v>
       </c>
-      <c r="L31" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" s="5" t="inlineStr"/>
-      <c r="N31" s="5" t="inlineStr">
+      <c r="M31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" s="5" t="inlineStr"/>
+      <c r="O31" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O31" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" s="5" t="inlineStr"/>
+      <c r="P31" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q31" s="5" t="inlineStr"/>
       <c r="R31" s="5" t="inlineStr"/>
       <c r="S31" s="5" t="inlineStr"/>
@@ -3125,67 +3220,70 @@
       <c r="X31" s="5" t="inlineStr"/>
       <c r="Y31" s="5" t="inlineStr"/>
       <c r="Z31" s="5" t="inlineStr"/>
-      <c r="AA31" s="6" t="n"/>
+      <c r="AA31" s="5" t="inlineStr"/>
+      <c r="AB31" s="6" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="inlineStr">
+      <c r="A32" s="5" t="n">
+        <v>1831</v>
+      </c>
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B32" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C32" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="inlineStr">
+        <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D32" s="5" t="n">
+      <c r="E32" s="5" t="n">
         <v>105227</v>
       </c>
-      <c r="E32" s="5" t="inlineStr">
+      <c r="F32" s="5" t="inlineStr">
         <is>
           <t>San Roque ES</t>
         </is>
       </c>
-      <c r="F32" s="5" t="inlineStr">
+      <c r="G32" s="5" t="inlineStr">
         <is>
           <t>CABIAO</t>
         </is>
       </c>
-      <c r="G32" s="5" t="n">
+      <c r="H32" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H32" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J32" s="5" t="inlineStr">
+      <c r="K32" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K32" s="5" t="n">
+      <c r="L32" s="5" t="n">
         <v>1942651.42</v>
       </c>
-      <c r="L32" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" s="5" t="inlineStr"/>
-      <c r="N32" s="5" t="inlineStr">
+      <c r="M32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" s="5" t="inlineStr"/>
+      <c r="O32" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O32" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P32" s="5" t="inlineStr"/>
+      <c r="P32" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q32" s="5" t="inlineStr"/>
       <c r="R32" s="5" t="inlineStr"/>
       <c r="S32" s="5" t="inlineStr"/>
@@ -3196,67 +3294,70 @@
       <c r="X32" s="5" t="inlineStr"/>
       <c r="Y32" s="5" t="inlineStr"/>
       <c r="Z32" s="5" t="inlineStr"/>
-      <c r="AA32" s="6" t="n"/>
+      <c r="AA32" s="5" t="inlineStr"/>
+      <c r="AB32" s="6" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="inlineStr">
+      <c r="A33" s="5" t="n">
+        <v>1832</v>
+      </c>
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B33" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C33" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="inlineStr">
+        <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D33" s="5" t="n">
+      <c r="E33" s="5" t="n">
         <v>105232</v>
       </c>
-      <c r="E33" s="5" t="inlineStr">
+      <c r="F33" s="5" t="inlineStr">
         <is>
           <t>Sta. Isabel Elementary School</t>
         </is>
       </c>
-      <c r="F33" s="5" t="inlineStr">
+      <c r="G33" s="5" t="inlineStr">
         <is>
           <t>CABIAO</t>
         </is>
       </c>
-      <c r="G33" s="5" t="n">
+      <c r="H33" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H33" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J33" s="5" t="inlineStr">
+      <c r="K33" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K33" s="5" t="n">
+      <c r="L33" s="5" t="n">
         <v>2177382.21</v>
       </c>
-      <c r="L33" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" s="5" t="inlineStr"/>
-      <c r="N33" s="5" t="inlineStr">
+      <c r="M33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" s="5" t="inlineStr"/>
+      <c r="O33" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O33" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P33" s="5" t="inlineStr"/>
+      <c r="P33" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q33" s="5" t="inlineStr"/>
       <c r="R33" s="5" t="inlineStr"/>
       <c r="S33" s="5" t="inlineStr"/>
@@ -3267,67 +3368,70 @@
       <c r="X33" s="5" t="inlineStr"/>
       <c r="Y33" s="5" t="inlineStr"/>
       <c r="Z33" s="5" t="inlineStr"/>
-      <c r="AA33" s="6" t="n"/>
+      <c r="AA33" s="5" t="inlineStr"/>
+      <c r="AB33" s="6" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="inlineStr">
+      <c r="A34" s="5" t="n">
+        <v>1833</v>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B34" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C34" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="inlineStr">
+        <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D34" s="5" t="n">
+      <c r="E34" s="5" t="n">
         <v>105454</v>
       </c>
-      <c r="E34" s="5" t="inlineStr">
+      <c r="F34" s="5" t="inlineStr">
         <is>
           <t>San Vicente ES</t>
         </is>
       </c>
-      <c r="F34" s="5" t="inlineStr">
+      <c r="G34" s="5" t="inlineStr">
         <is>
           <t>JAEN</t>
         </is>
       </c>
-      <c r="G34" s="5" t="n">
+      <c r="H34" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H34" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J34" s="5" t="inlineStr">
+      <c r="K34" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K34" s="5" t="n">
+      <c r="L34" s="5" t="n">
         <v>1794967.02832394</v>
       </c>
-      <c r="L34" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" s="5" t="inlineStr"/>
-      <c r="N34" s="5" t="inlineStr">
+      <c r="M34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" s="5" t="inlineStr"/>
+      <c r="O34" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O34" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P34" s="5" t="inlineStr"/>
+      <c r="P34" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q34" s="5" t="inlineStr"/>
       <c r="R34" s="5" t="inlineStr"/>
       <c r="S34" s="5" t="inlineStr"/>
@@ -3338,67 +3442,70 @@
       <c r="X34" s="5" t="inlineStr"/>
       <c r="Y34" s="5" t="inlineStr"/>
       <c r="Z34" s="5" t="inlineStr"/>
-      <c r="AA34" s="6" t="n"/>
+      <c r="AA34" s="5" t="inlineStr"/>
+      <c r="AB34" s="6" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="inlineStr">
+      <c r="A35" s="5" t="n">
+        <v>1834</v>
+      </c>
+      <c r="B35" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B35" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C35" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
+        <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D35" s="5" t="n">
+      <c r="E35" s="5" t="n">
         <v>105681</v>
       </c>
-      <c r="E35" s="5" t="inlineStr">
+      <c r="F35" s="5" t="inlineStr">
         <is>
           <t>Calaba ES</t>
         </is>
       </c>
-      <c r="F35" s="5" t="inlineStr">
+      <c r="G35" s="5" t="inlineStr">
         <is>
           <t>SAN ISIDRO</t>
         </is>
       </c>
-      <c r="G35" s="5" t="n">
+      <c r="H35" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H35" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J35" s="5" t="inlineStr">
+      <c r="K35" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K35" s="5" t="n">
+      <c r="L35" s="5" t="n">
         <v>1794967.02832394</v>
       </c>
-      <c r="L35" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" s="5" t="inlineStr"/>
-      <c r="N35" s="5" t="inlineStr">
+      <c r="M35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" s="5" t="inlineStr"/>
+      <c r="O35" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O35" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P35" s="5" t="inlineStr"/>
+      <c r="P35" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q35" s="5" t="inlineStr"/>
       <c r="R35" s="5" t="inlineStr"/>
       <c r="S35" s="5" t="inlineStr"/>
@@ -3409,67 +3516,70 @@
       <c r="X35" s="5" t="inlineStr"/>
       <c r="Y35" s="5" t="inlineStr"/>
       <c r="Z35" s="5" t="inlineStr"/>
-      <c r="AA35" s="6" t="n"/>
+      <c r="AA35" s="5" t="inlineStr"/>
+      <c r="AB35" s="6" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="inlineStr">
+      <c r="A36" s="5" t="n">
+        <v>1835</v>
+      </c>
+      <c r="B36" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B36" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C36" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="inlineStr">
+        <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D36" s="5" t="n">
+      <c r="E36" s="5" t="n">
         <v>105683</v>
       </c>
-      <c r="E36" s="5" t="inlineStr">
+      <c r="F36" s="5" t="inlineStr">
         <is>
           <t>Malapit East ES</t>
         </is>
       </c>
-      <c r="F36" s="5" t="inlineStr">
+      <c r="G36" s="5" t="inlineStr">
         <is>
           <t>SAN ISIDRO</t>
         </is>
       </c>
-      <c r="G36" s="5" t="n">
+      <c r="H36" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H36" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J36" s="5" t="inlineStr">
+      <c r="K36" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K36" s="5" t="n">
+      <c r="L36" s="5" t="n">
         <v>1163078.75</v>
       </c>
-      <c r="L36" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" s="5" t="inlineStr"/>
-      <c r="N36" s="5" t="inlineStr">
+      <c r="M36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" s="5" t="inlineStr"/>
+      <c r="O36" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O36" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P36" s="5" t="inlineStr"/>
+      <c r="P36" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q36" s="5" t="inlineStr"/>
       <c r="R36" s="5" t="inlineStr"/>
       <c r="S36" s="5" t="inlineStr"/>
@@ -3480,67 +3590,70 @@
       <c r="X36" s="5" t="inlineStr"/>
       <c r="Y36" s="5" t="inlineStr"/>
       <c r="Z36" s="5" t="inlineStr"/>
-      <c r="AA36" s="6" t="n"/>
+      <c r="AA36" s="5" t="inlineStr"/>
+      <c r="AB36" s="6" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="inlineStr">
+      <c r="A37" s="5" t="n">
+        <v>1836</v>
+      </c>
+      <c r="B37" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B37" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C37" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
+        <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D37" s="5" t="n">
+      <c r="E37" s="5" t="n">
         <v>105687</v>
       </c>
-      <c r="E37" s="5" t="inlineStr">
+      <c r="F37" s="5" t="inlineStr">
         <is>
           <t>San Isidro CS</t>
         </is>
       </c>
-      <c r="F37" s="5" t="inlineStr">
+      <c r="G37" s="5" t="inlineStr">
         <is>
           <t>SAN ISIDRO</t>
         </is>
       </c>
-      <c r="G37" s="5" t="n">
+      <c r="H37" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H37" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J37" s="5" t="inlineStr">
+      <c r="K37" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K37" s="5" t="n">
+      <c r="L37" s="5" t="n">
         <v>3042657.17250218</v>
       </c>
-      <c r="L37" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" s="5" t="inlineStr"/>
-      <c r="N37" s="5" t="inlineStr">
+      <c r="M37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" s="5" t="inlineStr"/>
+      <c r="O37" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O37" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P37" s="5" t="inlineStr"/>
+      <c r="P37" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q37" s="5" t="inlineStr"/>
       <c r="R37" s="5" t="inlineStr"/>
       <c r="S37" s="5" t="inlineStr"/>
@@ -3551,67 +3664,70 @@
       <c r="X37" s="5" t="inlineStr"/>
       <c r="Y37" s="5" t="inlineStr"/>
       <c r="Z37" s="5" t="inlineStr"/>
-      <c r="AA37" s="6" t="n"/>
+      <c r="AA37" s="5" t="inlineStr"/>
+      <c r="AB37" s="6" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="inlineStr">
+      <c r="A38" s="5" t="n">
+        <v>1837</v>
+      </c>
+      <c r="B38" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B38" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C38" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="inlineStr">
+        <is>
           <t>Pampanga</t>
         </is>
       </c>
-      <c r="D38" s="5" t="n">
+      <c r="E38" s="5" t="n">
         <v>105899</v>
       </c>
-      <c r="E38" s="5" t="inlineStr">
+      <c r="F38" s="5" t="inlineStr">
         <is>
           <t>Arenas ES</t>
         </is>
       </c>
-      <c r="F38" s="5" t="inlineStr">
+      <c r="G38" s="5" t="inlineStr">
         <is>
           <t>ARAYAT</t>
         </is>
       </c>
-      <c r="G38" s="5" t="n">
+      <c r="H38" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H38" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J38" s="5" t="inlineStr">
+      <c r="K38" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K38" s="5" t="n">
+      <c r="L38" s="5" t="n">
         <v>3803405</v>
       </c>
-      <c r="L38" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" s="5" t="inlineStr"/>
-      <c r="N38" s="5" t="inlineStr">
+      <c r="M38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" s="5" t="inlineStr"/>
+      <c r="O38" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O38" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P38" s="5" t="inlineStr"/>
+      <c r="P38" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q38" s="5" t="inlineStr"/>
       <c r="R38" s="5" t="inlineStr"/>
       <c r="S38" s="5" t="inlineStr"/>
@@ -3622,67 +3738,70 @@
       <c r="X38" s="5" t="inlineStr"/>
       <c r="Y38" s="5" t="inlineStr"/>
       <c r="Z38" s="5" t="inlineStr"/>
-      <c r="AA38" s="6" t="n"/>
+      <c r="AA38" s="5" t="inlineStr"/>
+      <c r="AB38" s="6" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="inlineStr">
+      <c r="A39" s="5" t="n">
+        <v>1838</v>
+      </c>
+      <c r="B39" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B39" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C39" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="inlineStr">
+        <is>
           <t>Pampanga</t>
         </is>
       </c>
-      <c r="D39" s="5" t="n">
+      <c r="E39" s="5" t="n">
         <v>105903</v>
       </c>
-      <c r="E39" s="5" t="inlineStr">
+      <c r="F39" s="5" t="inlineStr">
         <is>
           <t>Cacutud ES</t>
         </is>
       </c>
-      <c r="F39" s="5" t="inlineStr">
+      <c r="G39" s="5" t="inlineStr">
         <is>
           <t>ARAYAT</t>
         </is>
       </c>
-      <c r="G39" s="5" t="n">
+      <c r="H39" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H39" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I39" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J39" s="5" t="inlineStr">
+      <c r="K39" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K39" s="5" t="n">
+      <c r="L39" s="5" t="n">
         <v>4312538.87</v>
       </c>
-      <c r="L39" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" s="5" t="inlineStr"/>
-      <c r="N39" s="5" t="inlineStr">
+      <c r="M39" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" s="5" t="inlineStr"/>
+      <c r="O39" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O39" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P39" s="5" t="inlineStr"/>
+      <c r="P39" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q39" s="5" t="inlineStr"/>
       <c r="R39" s="5" t="inlineStr"/>
       <c r="S39" s="5" t="inlineStr"/>
@@ -3693,67 +3812,70 @@
       <c r="X39" s="5" t="inlineStr"/>
       <c r="Y39" s="5" t="inlineStr"/>
       <c r="Z39" s="5" t="inlineStr"/>
-      <c r="AA39" s="6" t="n"/>
+      <c r="AA39" s="5" t="inlineStr"/>
+      <c r="AB39" s="6" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="inlineStr">
+      <c r="A40" s="5" t="n">
+        <v>1839</v>
+      </c>
+      <c r="B40" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B40" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C40" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="inlineStr">
+        <is>
           <t>Pampanga</t>
         </is>
       </c>
-      <c r="D40" s="5" t="n">
+      <c r="E40" s="5" t="n">
         <v>105882</v>
       </c>
-      <c r="E40" s="5" t="inlineStr">
+      <c r="F40" s="5" t="inlineStr">
         <is>
           <t>Camba ES</t>
         </is>
       </c>
-      <c r="F40" s="5" t="inlineStr">
+      <c r="G40" s="5" t="inlineStr">
         <is>
           <t>ARAYAT</t>
         </is>
       </c>
-      <c r="G40" s="5" t="n">
+      <c r="H40" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H40" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I40" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="J40" s="5" t="inlineStr">
+      <c r="K40" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K40" s="5" t="n">
+      <c r="L40" s="5" t="n">
         <v>3124890.21</v>
       </c>
-      <c r="L40" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" s="5" t="inlineStr"/>
-      <c r="N40" s="5" t="inlineStr">
+      <c r="M40" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" s="5" t="inlineStr"/>
+      <c r="O40" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O40" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P40" s="5" t="inlineStr"/>
+      <c r="P40" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q40" s="5" t="inlineStr"/>
       <c r="R40" s="5" t="inlineStr"/>
       <c r="S40" s="5" t="inlineStr"/>
@@ -3764,67 +3886,70 @@
       <c r="X40" s="5" t="inlineStr"/>
       <c r="Y40" s="5" t="inlineStr"/>
       <c r="Z40" s="5" t="inlineStr"/>
-      <c r="AA40" s="6" t="n"/>
+      <c r="AA40" s="5" t="inlineStr"/>
+      <c r="AB40" s="6" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="inlineStr">
+      <c r="A41" s="5" t="n">
+        <v>1840</v>
+      </c>
+      <c r="B41" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B41" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C41" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="inlineStr">
+        <is>
           <t>Pampanga</t>
         </is>
       </c>
-      <c r="D41" s="5" t="n">
+      <c r="E41" s="5" t="n">
         <v>300884</v>
       </c>
-      <c r="E41" s="5" t="inlineStr">
+      <c r="F41" s="5" t="inlineStr">
         <is>
           <t>Camba NHS</t>
         </is>
       </c>
-      <c r="F41" s="5" t="inlineStr">
+      <c r="G41" s="5" t="inlineStr">
         <is>
           <t>ARAYAT</t>
         </is>
       </c>
-      <c r="G41" s="5" t="n">
+      <c r="H41" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H41" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I41" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="J41" s="5" t="inlineStr">
+      <c r="K41" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K41" s="5" t="n">
+      <c r="L41" s="5" t="n">
         <v>3191432.34</v>
       </c>
-      <c r="L41" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" s="5" t="inlineStr"/>
-      <c r="N41" s="5" t="inlineStr">
+      <c r="M41" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" s="5" t="inlineStr"/>
+      <c r="O41" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O41" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P41" s="5" t="inlineStr"/>
+      <c r="P41" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q41" s="5" t="inlineStr"/>
       <c r="R41" s="5" t="inlineStr"/>
       <c r="S41" s="5" t="inlineStr"/>
@@ -3835,67 +3960,70 @@
       <c r="X41" s="5" t="inlineStr"/>
       <c r="Y41" s="5" t="inlineStr"/>
       <c r="Z41" s="5" t="inlineStr"/>
-      <c r="AA41" s="6" t="n"/>
+      <c r="AA41" s="5" t="inlineStr"/>
+      <c r="AB41" s="6" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="inlineStr">
+      <c r="A42" s="5" t="n">
+        <v>1841</v>
+      </c>
+      <c r="B42" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B42" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C42" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="inlineStr">
+        <is>
           <t>Pampanga</t>
         </is>
       </c>
-      <c r="D42" s="5" t="n">
+      <c r="E42" s="5" t="n">
         <v>306907</v>
       </c>
-      <c r="E42" s="5" t="inlineStr">
+      <c r="F42" s="5" t="inlineStr">
         <is>
           <t>Candating NHS</t>
         </is>
       </c>
-      <c r="F42" s="5" t="inlineStr">
+      <c r="G42" s="5" t="inlineStr">
         <is>
           <t>ARAYAT</t>
         </is>
       </c>
-      <c r="G42" s="5" t="n">
+      <c r="H42" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H42" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I42" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="J42" s="5" t="inlineStr">
+      <c r="K42" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K42" s="5" t="n">
+      <c r="L42" s="5" t="n">
         <v>1574153.2</v>
       </c>
-      <c r="L42" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" s="5" t="inlineStr"/>
-      <c r="N42" s="5" t="inlineStr">
+      <c r="M42" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" s="5" t="inlineStr"/>
+      <c r="O42" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O42" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P42" s="5" t="inlineStr"/>
+      <c r="P42" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q42" s="5" t="inlineStr"/>
       <c r="R42" s="5" t="inlineStr"/>
       <c r="S42" s="5" t="inlineStr"/>
@@ -3906,67 +4034,70 @@
       <c r="X42" s="5" t="inlineStr"/>
       <c r="Y42" s="5" t="inlineStr"/>
       <c r="Z42" s="5" t="inlineStr"/>
-      <c r="AA42" s="6" t="n"/>
+      <c r="AA42" s="5" t="inlineStr"/>
+      <c r="AB42" s="6" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="inlineStr">
+      <c r="A43" s="5" t="n">
+        <v>1842</v>
+      </c>
+      <c r="B43" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B43" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C43" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="inlineStr">
+        <is>
           <t>Pampanga</t>
         </is>
       </c>
-      <c r="D43" s="5" t="n">
+      <c r="E43" s="5" t="n">
         <v>105884</v>
       </c>
-      <c r="E43" s="5" t="inlineStr">
+      <c r="F43" s="5" t="inlineStr">
         <is>
           <t>Cupang Elementary School</t>
         </is>
       </c>
-      <c r="F43" s="5" t="inlineStr">
+      <c r="G43" s="5" t="inlineStr">
         <is>
           <t>ARAYAT</t>
         </is>
       </c>
-      <c r="G43" s="5" t="n">
+      <c r="H43" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H43" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I43" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J43" s="5" t="inlineStr">
+      <c r="K43" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K43" s="5" t="n">
+      <c r="L43" s="5" t="n">
         <v>1650713.65</v>
       </c>
-      <c r="L43" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" s="5" t="inlineStr"/>
-      <c r="N43" s="5" t="inlineStr">
+      <c r="M43" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" s="5" t="inlineStr"/>
+      <c r="O43" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O43" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P43" s="5" t="inlineStr"/>
+      <c r="P43" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q43" s="5" t="inlineStr"/>
       <c r="R43" s="5" t="inlineStr"/>
       <c r="S43" s="5" t="inlineStr"/>
@@ -3977,67 +4108,70 @@
       <c r="X43" s="5" t="inlineStr"/>
       <c r="Y43" s="5" t="inlineStr"/>
       <c r="Z43" s="5" t="inlineStr"/>
-      <c r="AA43" s="6" t="n"/>
+      <c r="AA43" s="5" t="inlineStr"/>
+      <c r="AB43" s="6" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="inlineStr">
+      <c r="A44" s="5" t="n">
+        <v>1843</v>
+      </c>
+      <c r="B44" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B44" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C44" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="inlineStr">
+        <is>
           <t>Pampanga</t>
         </is>
       </c>
-      <c r="D44" s="5" t="n">
+      <c r="E44" s="5" t="n">
         <v>105891</v>
       </c>
-      <c r="E44" s="5" t="inlineStr">
+      <c r="F44" s="5" t="inlineStr">
         <is>
           <t>San Juan Bano ES</t>
         </is>
       </c>
-      <c r="F44" s="5" t="inlineStr">
+      <c r="G44" s="5" t="inlineStr">
         <is>
           <t>ARAYAT</t>
         </is>
       </c>
-      <c r="G44" s="5" t="n">
+      <c r="H44" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H44" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I44" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J44" s="5" t="inlineStr">
+      <c r="K44" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K44" s="5" t="n">
+      <c r="L44" s="5" t="n">
         <v>2049694.53</v>
       </c>
-      <c r="L44" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" s="5" t="inlineStr"/>
-      <c r="N44" s="5" t="inlineStr">
+      <c r="M44" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" s="5" t="inlineStr"/>
+      <c r="O44" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O44" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P44" s="5" t="inlineStr"/>
+      <c r="P44" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q44" s="5" t="inlineStr"/>
       <c r="R44" s="5" t="inlineStr"/>
       <c r="S44" s="5" t="inlineStr"/>
@@ -4048,67 +4182,70 @@
       <c r="X44" s="5" t="inlineStr"/>
       <c r="Y44" s="5" t="inlineStr"/>
       <c r="Z44" s="5" t="inlineStr"/>
-      <c r="AA44" s="6" t="n"/>
+      <c r="AA44" s="5" t="inlineStr"/>
+      <c r="AB44" s="6" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="inlineStr">
+      <c r="A45" s="5" t="n">
+        <v>1844</v>
+      </c>
+      <c r="B45" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B45" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C45" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="inlineStr">
+        <is>
           <t>Pampanga</t>
         </is>
       </c>
-      <c r="D45" s="5" t="n">
+      <c r="E45" s="5" t="n">
         <v>105933</v>
       </c>
-      <c r="E45" s="5" t="inlineStr">
+      <c r="F45" s="5" t="inlineStr">
         <is>
           <t>Dalayap ES</t>
         </is>
       </c>
-      <c r="F45" s="5" t="inlineStr">
+      <c r="G45" s="5" t="inlineStr">
         <is>
           <t>CANDABA</t>
         </is>
       </c>
-      <c r="G45" s="5" t="n">
+      <c r="H45" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H45" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I45" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J45" s="5" t="inlineStr">
+      <c r="K45" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K45" s="5" t="n">
+      <c r="L45" s="5" t="n">
         <v>1899062.95</v>
       </c>
-      <c r="L45" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" s="5" t="inlineStr"/>
-      <c r="N45" s="5" t="inlineStr">
+      <c r="M45" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" s="5" t="inlineStr"/>
+      <c r="O45" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O45" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P45" s="5" t="inlineStr"/>
+      <c r="P45" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q45" s="5" t="inlineStr"/>
       <c r="R45" s="5" t="inlineStr"/>
       <c r="S45" s="5" t="inlineStr"/>
@@ -4119,67 +4256,70 @@
       <c r="X45" s="5" t="inlineStr"/>
       <c r="Y45" s="5" t="inlineStr"/>
       <c r="Z45" s="5" t="inlineStr"/>
-      <c r="AA45" s="6" t="n"/>
+      <c r="AA45" s="5" t="inlineStr"/>
+      <c r="AB45" s="6" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="inlineStr">
+      <c r="A46" s="5" t="n">
+        <v>1845</v>
+      </c>
+      <c r="B46" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B46" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C46" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="inlineStr">
+        <is>
           <t>Pampanga</t>
         </is>
       </c>
-      <c r="D46" s="5" t="n">
+      <c r="E46" s="5" t="n">
         <v>105948</v>
       </c>
-      <c r="E46" s="5" t="inlineStr">
+      <c r="F46" s="5" t="inlineStr">
         <is>
           <t>Tenejero ES</t>
         </is>
       </c>
-      <c r="F46" s="5" t="inlineStr">
+      <c r="G46" s="5" t="inlineStr">
         <is>
           <t>CANDABA</t>
         </is>
       </c>
-      <c r="G46" s="5" t="n">
+      <c r="H46" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H46" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I46" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J46" s="5" t="inlineStr">
+      <c r="K46" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K46" s="5" t="n">
+      <c r="L46" s="5" t="n">
         <v>1273776.81</v>
       </c>
-      <c r="L46" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" s="5" t="inlineStr"/>
-      <c r="N46" s="5" t="inlineStr">
+      <c r="M46" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" s="5" t="inlineStr"/>
+      <c r="O46" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O46" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P46" s="5" t="inlineStr"/>
+      <c r="P46" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q46" s="5" t="inlineStr"/>
       <c r="R46" s="5" t="inlineStr"/>
       <c r="S46" s="5" t="inlineStr"/>
@@ -4190,67 +4330,70 @@
       <c r="X46" s="5" t="inlineStr"/>
       <c r="Y46" s="5" t="inlineStr"/>
       <c r="Z46" s="5" t="inlineStr"/>
-      <c r="AA46" s="6" t="n"/>
+      <c r="AA46" s="5" t="inlineStr"/>
+      <c r="AB46" s="6" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="inlineStr">
+      <c r="A47" s="5" t="n">
+        <v>1846</v>
+      </c>
+      <c r="B47" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B47" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C47" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="inlineStr">
+        <is>
           <t>Pampanga</t>
         </is>
       </c>
-      <c r="D47" s="5" t="n">
+      <c r="E47" s="5" t="n">
         <v>105949</v>
       </c>
-      <c r="E47" s="5" t="inlineStr">
+      <c r="F47" s="5" t="inlineStr">
         <is>
           <t>Vizal San Pablo II ES</t>
         </is>
       </c>
-      <c r="F47" s="5" t="inlineStr">
+      <c r="G47" s="5" t="inlineStr">
         <is>
           <t>CANDABA</t>
         </is>
       </c>
-      <c r="G47" s="5" t="n">
+      <c r="H47" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H47" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I47" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J47" s="5" t="inlineStr">
+      <c r="K47" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K47" s="5" t="n">
+      <c r="L47" s="5" t="n">
         <v>4723728.81</v>
       </c>
-      <c r="L47" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" s="5" t="inlineStr"/>
-      <c r="N47" s="5" t="inlineStr">
+      <c r="M47" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" s="5" t="inlineStr"/>
+      <c r="O47" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O47" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P47" s="5" t="inlineStr"/>
+      <c r="P47" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q47" s="5" t="inlineStr"/>
       <c r="R47" s="5" t="inlineStr"/>
       <c r="S47" s="5" t="inlineStr"/>
@@ -4261,310 +4404,322 @@
       <c r="X47" s="5" t="inlineStr"/>
       <c r="Y47" s="5" t="inlineStr"/>
       <c r="Z47" s="5" t="inlineStr"/>
-      <c r="AA47" s="6" t="n"/>
+      <c r="AA47" s="5" t="inlineStr"/>
+      <c r="AB47" s="6" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="inlineStr">
+      <c r="A48" s="5" t="n">
+        <v>1847</v>
+      </c>
+      <c r="B48" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B48" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C48" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="inlineStr">
+        <is>
           <t>Tarlac City</t>
         </is>
       </c>
-      <c r="D48" s="5" t="n">
+      <c r="E48" s="5" t="n">
         <v>106729</v>
       </c>
-      <c r="E48" s="5" t="inlineStr">
+      <c r="F48" s="5" t="inlineStr">
         <is>
           <t>Asturias ES</t>
         </is>
       </c>
-      <c r="F48" s="5" t="inlineStr">
+      <c r="G48" s="5" t="inlineStr">
         <is>
           <t>CITY OF TARLAC (Capital)</t>
         </is>
       </c>
-      <c r="G48" s="5" t="n">
+      <c r="H48" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H48" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I48" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J48" s="5" t="inlineStr">
+      <c r="J48" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K48" s="5" t="n">
+      <c r="L48" s="5" t="n">
         <v>652501.55</v>
       </c>
-      <c r="L48" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M48" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" s="5" t="n">
         <v>650309.3100000001</v>
       </c>
-      <c r="N48" s="5" t="inlineStr">
+      <c r="O48" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O48" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P48" s="7" t="n">
-        <v>44439</v>
+      <c r="P48" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="Q48" s="7" t="n">
         <v>44439</v>
       </c>
-      <c r="R48" s="5" t="inlineStr"/>
+      <c r="R48" s="7" t="n">
+        <v>44439</v>
+      </c>
       <c r="S48" s="5" t="inlineStr"/>
       <c r="T48" s="5" t="inlineStr"/>
       <c r="U48" s="5" t="inlineStr"/>
       <c r="V48" s="5" t="inlineStr"/>
       <c r="W48" s="5" t="inlineStr"/>
       <c r="X48" s="5" t="inlineStr"/>
-      <c r="Y48" s="5" t="inlineStr">
+      <c r="Y48" s="5" t="inlineStr"/>
+      <c r="Z48" s="5" t="inlineStr">
         <is>
           <t>J.P. Aquino Construction</t>
         </is>
       </c>
-      <c r="Z48" s="5" t="inlineStr"/>
-      <c r="AA48" s="6" t="n"/>
+      <c r="AA48" s="5" t="inlineStr"/>
+      <c r="AB48" s="6" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="inlineStr">
+      <c r="A49" s="5" t="n">
+        <v>1848</v>
+      </c>
+      <c r="B49" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B49" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C49" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="inlineStr">
+        <is>
           <t>Tarlac City</t>
         </is>
       </c>
-      <c r="D49" s="5" t="n">
+      <c r="E49" s="5" t="n">
         <v>106743</v>
       </c>
-      <c r="E49" s="5" t="inlineStr">
+      <c r="F49" s="5" t="inlineStr">
         <is>
           <t>Paraiso ES</t>
         </is>
       </c>
-      <c r="F49" s="5" t="inlineStr">
+      <c r="G49" s="5" t="inlineStr">
         <is>
           <t>CITY OF TARLAC (Capital)</t>
         </is>
       </c>
-      <c r="G49" s="5" t="n">
+      <c r="H49" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H49" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I49" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J49" s="5" t="inlineStr">
+      <c r="K49" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K49" s="5" t="n">
+      <c r="L49" s="5" t="n">
         <v>1093868.34</v>
       </c>
-      <c r="L49" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M49" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" s="5" t="n">
         <v>1040671.09</v>
       </c>
-      <c r="N49" s="5" t="inlineStr">
+      <c r="O49" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O49" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P49" s="7" t="n">
-        <v>44439</v>
+      <c r="P49" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="Q49" s="7" t="n">
         <v>44439</v>
       </c>
-      <c r="R49" s="5" t="inlineStr"/>
+      <c r="R49" s="7" t="n">
+        <v>44439</v>
+      </c>
       <c r="S49" s="5" t="inlineStr"/>
       <c r="T49" s="5" t="inlineStr"/>
       <c r="U49" s="5" t="inlineStr"/>
       <c r="V49" s="5" t="inlineStr"/>
       <c r="W49" s="5" t="inlineStr"/>
       <c r="X49" s="5" t="inlineStr"/>
-      <c r="Y49" s="5" t="inlineStr">
+      <c r="Y49" s="5" t="inlineStr"/>
+      <c r="Z49" s="5" t="inlineStr">
         <is>
           <t>J.P. Aquino Construction</t>
         </is>
       </c>
-      <c r="Z49" s="5" t="inlineStr"/>
-      <c r="AA49" s="6" t="n"/>
+      <c r="AA49" s="5" t="inlineStr"/>
+      <c r="AB49" s="6" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="inlineStr">
+      <c r="A50" s="5" t="n">
+        <v>1849</v>
+      </c>
+      <c r="B50" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B50" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C50" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="inlineStr">
+        <is>
           <t>Tarlac City</t>
         </is>
       </c>
-      <c r="D50" s="5" t="n">
+      <c r="E50" s="5" t="n">
         <v>106744</v>
       </c>
-      <c r="E50" s="5" t="inlineStr">
+      <c r="F50" s="5" t="inlineStr">
         <is>
           <t>San Carlos ES</t>
         </is>
       </c>
-      <c r="F50" s="5" t="inlineStr">
+      <c r="G50" s="5" t="inlineStr">
         <is>
           <t>CITY OF TARLAC (Capital)</t>
         </is>
       </c>
-      <c r="G50" s="5" t="n">
+      <c r="H50" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H50" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I50" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J50" s="5" t="inlineStr">
+      <c r="J50" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K50" s="5" t="n">
+      <c r="L50" s="5" t="n">
         <v>1062165.41</v>
       </c>
-      <c r="L50" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M50" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" s="5" t="n">
         <v>1059953.12</v>
       </c>
-      <c r="N50" s="5" t="inlineStr">
+      <c r="O50" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O50" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P50" s="7" t="n">
-        <v>44434</v>
+      <c r="P50" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="Q50" s="7" t="n">
         <v>44434</v>
       </c>
-      <c r="R50" s="5" t="inlineStr"/>
+      <c r="R50" s="7" t="n">
+        <v>44434</v>
+      </c>
       <c r="S50" s="5" t="inlineStr"/>
       <c r="T50" s="5" t="inlineStr"/>
       <c r="U50" s="5" t="inlineStr"/>
       <c r="V50" s="5" t="inlineStr"/>
       <c r="W50" s="5" t="inlineStr"/>
       <c r="X50" s="5" t="inlineStr"/>
-      <c r="Y50" s="5" t="inlineStr">
+      <c r="Y50" s="5" t="inlineStr"/>
+      <c r="Z50" s="5" t="inlineStr">
         <is>
           <t>Boycing Construction Services</t>
         </is>
       </c>
-      <c r="Z50" s="5" t="inlineStr"/>
-      <c r="AA50" s="6" t="n"/>
+      <c r="AA50" s="5" t="inlineStr"/>
+      <c r="AB50" s="6" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="inlineStr">
+      <c r="A51" s="5" t="n">
+        <v>1850</v>
+      </c>
+      <c r="B51" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B51" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C51" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D51" s="5" t="inlineStr">
+        <is>
           <t>Zambales</t>
         </is>
       </c>
-      <c r="D51" s="5" t="n">
+      <c r="E51" s="5" t="n">
         <v>106974</v>
       </c>
-      <c r="E51" s="5" t="inlineStr">
+      <c r="F51" s="5" t="inlineStr">
         <is>
           <t>Almasin Elementary School</t>
         </is>
       </c>
-      <c r="F51" s="5" t="inlineStr">
+      <c r="G51" s="5" t="inlineStr">
         <is>
           <t>SANTA CRUZ</t>
         </is>
       </c>
-      <c r="G51" s="5" t="n">
+      <c r="H51" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H51" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I51" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="J51" s="5" t="inlineStr">
+      <c r="K51" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K51" s="5" t="n">
+      <c r="L51" s="5" t="n">
         <v>5122463.9103531</v>
       </c>
-      <c r="L51" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" s="5" t="inlineStr"/>
-      <c r="N51" s="5" t="inlineStr">
+      <c r="M51" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" s="5" t="inlineStr"/>
+      <c r="O51" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O51" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P51" s="5" t="inlineStr"/>
+      <c r="P51" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q51" s="5" t="inlineStr"/>
       <c r="R51" s="5" t="inlineStr"/>
       <c r="S51" s="5" t="inlineStr"/>
@@ -4575,67 +4730,70 @@
       <c r="X51" s="5" t="inlineStr"/>
       <c r="Y51" s="5" t="inlineStr"/>
       <c r="Z51" s="5" t="inlineStr"/>
-      <c r="AA51" s="6" t="n"/>
+      <c r="AA51" s="5" t="inlineStr"/>
+      <c r="AB51" s="6" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="inlineStr">
+      <c r="A52" s="5" t="n">
+        <v>1851</v>
+      </c>
+      <c r="B52" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B52" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C52" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="inlineStr">
+        <is>
           <t>Zambales</t>
         </is>
       </c>
-      <c r="D52" s="5" t="n">
+      <c r="E52" s="5" t="n">
         <v>501226</v>
       </c>
-      <c r="E52" s="5" t="inlineStr">
+      <c r="F52" s="5" t="inlineStr">
         <is>
           <t>Don Brigido Miraflor Integrated School</t>
         </is>
       </c>
-      <c r="F52" s="5" t="inlineStr">
+      <c r="G52" s="5" t="inlineStr">
         <is>
           <t>SANTA CRUZ</t>
         </is>
       </c>
-      <c r="G52" s="5" t="n">
+      <c r="H52" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H52" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I52" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J52" s="5" t="inlineStr">
+      <c r="K52" s="5" t="inlineStr">
         <is>
           <t>TY ULYSSES</t>
         </is>
       </c>
-      <c r="K52" s="5" t="n">
+      <c r="L52" s="5" t="n">
         <v>6794925.58</v>
       </c>
-      <c r="L52" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" s="5" t="inlineStr"/>
-      <c r="N52" s="5" t="inlineStr">
+      <c r="M52" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" s="5" t="inlineStr"/>
+      <c r="O52" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O52" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P52" s="5" t="inlineStr"/>
+      <c r="P52" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q52" s="5" t="inlineStr"/>
       <c r="R52" s="5" t="inlineStr"/>
       <c r="S52" s="5" t="inlineStr"/>
@@ -4646,1191 +4804,1228 @@
       <c r="X52" s="5" t="inlineStr"/>
       <c r="Y52" s="5" t="inlineStr"/>
       <c r="Z52" s="5" t="inlineStr"/>
-      <c r="AA52" s="6" t="n"/>
+      <c r="AA52" s="5" t="inlineStr"/>
+      <c r="AB52" s="6" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="inlineStr">
+      <c r="A53" s="5" t="n">
+        <v>2690</v>
+      </c>
+      <c r="B53" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
-      <c r="B53" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C53" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D53" s="5" t="inlineStr">
+        <is>
           <t>Aurora</t>
         </is>
       </c>
-      <c r="D53" s="5" t="n">
+      <c r="E53" s="5" t="n">
         <v>300685</v>
       </c>
-      <c r="E53" s="5" t="inlineStr">
+      <c r="F53" s="5" t="inlineStr">
         <is>
           <t>Dingalan NHS</t>
         </is>
       </c>
-      <c r="F53" s="5" t="inlineStr">
+      <c r="G53" s="5" t="inlineStr">
         <is>
           <t>DINGALAN</t>
         </is>
       </c>
-      <c r="G53" s="5" t="inlineStr">
+      <c r="H53" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H53" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I53" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="J53" s="5" t="inlineStr">
+      <c r="K53" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K53" s="5" t="n">
+      <c r="L53" s="5" t="n">
         <v>6892000</v>
       </c>
-      <c r="L53" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M53" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" s="5" t="n">
         <v>3963054.24</v>
       </c>
-      <c r="N53" s="5" t="inlineStr">
+      <c r="O53" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O53" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P53" s="7" t="n">
+      <c r="P53" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="7" t="n">
         <v>45227</v>
       </c>
-      <c r="Q53" s="5" t="inlineStr"/>
       <c r="R53" s="5" t="inlineStr"/>
       <c r="S53" s="5" t="inlineStr"/>
-      <c r="T53" s="7" t="n">
+      <c r="T53" s="5" t="inlineStr"/>
+      <c r="U53" s="7" t="n">
         <v>44992</v>
       </c>
-      <c r="U53" s="7" t="n">
+      <c r="V53" s="7" t="n">
         <v>45000</v>
       </c>
-      <c r="V53" s="7" t="n">
+      <c r="W53" s="7" t="n">
         <v>45012</v>
       </c>
-      <c r="W53" s="7" t="n">
+      <c r="X53" s="7" t="n">
         <v>45029</v>
       </c>
-      <c r="X53" s="7" t="n">
+      <c r="Y53" s="7" t="n">
         <v>45040</v>
       </c>
-      <c r="Y53" s="5" t="inlineStr">
+      <c r="Z53" s="5" t="inlineStr">
         <is>
           <t>AMC CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z53" s="5" t="inlineStr"/>
-      <c r="AA53" s="6" t="n"/>
+      <c r="AA53" s="5" t="inlineStr"/>
+      <c r="AB53" s="6" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="inlineStr">
+      <c r="A54" s="5" t="n">
+        <v>2691</v>
+      </c>
+      <c r="B54" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
-      <c r="B54" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C54" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D54" s="5" t="inlineStr">
+        <is>
           <t>Bulacan</t>
         </is>
       </c>
-      <c r="D54" s="5" t="n">
+      <c r="E54" s="5" t="n">
         <v>306712</v>
       </c>
-      <c r="E54" s="5" t="inlineStr">
+      <c r="F54" s="5" t="inlineStr">
         <is>
           <t>Sto. Nino High School</t>
         </is>
       </c>
-      <c r="F54" s="5" t="inlineStr">
+      <c r="G54" s="5" t="inlineStr">
         <is>
           <t>BALIUAG</t>
         </is>
       </c>
-      <c r="G54" s="5" t="inlineStr">
+      <c r="H54" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H54" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I54" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J54" s="5" t="inlineStr">
+      <c r="K54" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K54" s="5" t="n">
+      <c r="L54" s="5" t="n">
         <v>466271.98</v>
       </c>
-      <c r="L54" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" s="5" t="inlineStr">
+      <c r="M54" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" s="5" t="inlineStr">
         <is>
           <t>₱386,515.13</t>
         </is>
       </c>
-      <c r="N54" s="5" t="inlineStr">
+      <c r="O54" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O54" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P54" s="7" t="n">
+      <c r="P54" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="7" t="n">
         <v>45069</v>
       </c>
-      <c r="Q54" s="7" t="n">
+      <c r="R54" s="7" t="n">
         <v>45063</v>
       </c>
-      <c r="R54" s="5" t="inlineStr">
+      <c r="S54" s="5" t="inlineStr">
         <is>
           <t>PB-23-001</t>
         </is>
       </c>
-      <c r="S54" s="5" t="inlineStr">
+      <c r="T54" s="5" t="inlineStr">
         <is>
           <t>23-03-001</t>
         </is>
       </c>
-      <c r="T54" s="7" t="n">
+      <c r="U54" s="7" t="n">
         <v>44979</v>
       </c>
-      <c r="U54" s="7" t="n">
+      <c r="V54" s="7" t="n">
         <v>44986</v>
       </c>
-      <c r="V54" s="7" t="n">
+      <c r="W54" s="7" t="n">
         <v>44998</v>
       </c>
-      <c r="W54" s="7" t="n">
+      <c r="X54" s="7" t="n">
         <v>45001</v>
       </c>
-      <c r="X54" s="7" t="n">
+      <c r="Y54" s="7" t="n">
         <v>45016</v>
       </c>
-      <c r="Y54" s="5" t="inlineStr">
+      <c r="Z54" s="5" t="inlineStr">
         <is>
           <t>EMICA Builders and Supply</t>
         </is>
       </c>
-      <c r="Z54" s="5" t="inlineStr"/>
-      <c r="AA54" s="6" t="n"/>
+      <c r="AA54" s="5" t="inlineStr"/>
+      <c r="AB54" s="6" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="inlineStr">
+      <c r="A55" s="5" t="n">
+        <v>2692</v>
+      </c>
+      <c r="B55" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
-      <c r="B55" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C55" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="inlineStr">
+        <is>
           <t>Bulacan</t>
         </is>
       </c>
-      <c r="D55" s="5" t="n">
+      <c r="E55" s="5" t="n">
         <v>158529</v>
       </c>
-      <c r="E55" s="5" t="inlineStr">
+      <c r="F55" s="5" t="inlineStr">
         <is>
           <t>Cucong Elementary School</t>
         </is>
       </c>
-      <c r="F55" s="5" t="inlineStr">
+      <c r="G55" s="5" t="inlineStr">
         <is>
           <t>DOÑA REMEDIOS TRINIDAD</t>
         </is>
       </c>
-      <c r="G55" s="5" t="inlineStr">
+      <c r="H55" s="5" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="H55" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I55" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J55" s="5" t="inlineStr">
+      <c r="K55" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K55" s="5" t="n">
+      <c r="L55" s="5" t="n">
         <v>3064193.79</v>
       </c>
-      <c r="L55" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M55" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" s="5" t="n">
         <v>2514973.27</v>
       </c>
-      <c r="N55" s="5" t="inlineStr">
+      <c r="O55" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O55" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P55" s="7" t="n">
+      <c r="P55" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="7" t="n">
         <v>45198</v>
       </c>
-      <c r="Q55" s="7" t="n">
+      <c r="R55" s="7" t="n">
         <v>45147</v>
       </c>
-      <c r="R55" s="5" t="inlineStr">
+      <c r="S55" s="5" t="inlineStr">
         <is>
           <t>PB-23-008</t>
         </is>
       </c>
-      <c r="S55" s="5" t="inlineStr">
+      <c r="T55" s="5" t="inlineStr">
         <is>
           <t>23-008</t>
         </is>
       </c>
-      <c r="T55" s="7" t="n">
+      <c r="U55" s="7" t="n">
         <v>45036</v>
       </c>
-      <c r="U55" s="7" t="n">
+      <c r="V55" s="7" t="n">
         <v>45048</v>
       </c>
-      <c r="V55" s="7" t="n">
+      <c r="W55" s="7" t="n">
         <v>45061</v>
       </c>
-      <c r="W55" s="7" t="n">
+      <c r="X55" s="7" t="n">
         <v>45062</v>
       </c>
-      <c r="X55" s="7" t="n">
+      <c r="Y55" s="7" t="n">
         <v>45071</v>
       </c>
-      <c r="Y55" s="5" t="inlineStr">
+      <c r="Z55" s="5" t="inlineStr">
         <is>
           <t>GELROCK BUILDERS</t>
         </is>
       </c>
-      <c r="Z55" s="5" t="inlineStr">
+      <c r="AA55" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">realigned from felizardo lipana nhs (sta rita hs) and john russel mhs (sibul nhs) </t>
         </is>
       </c>
-      <c r="AA55" s="6" t="n"/>
+      <c r="AB55" s="6" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="inlineStr">
+      <c r="A56" s="5" t="n">
+        <v>2693</v>
+      </c>
+      <c r="B56" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
-      <c r="B56" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C56" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D56" s="5" t="inlineStr">
+        <is>
           <t>Bulacan</t>
         </is>
       </c>
-      <c r="D56" s="5" t="n">
+      <c r="E56" s="5" t="n">
         <v>300774</v>
       </c>
-      <c r="E56" s="5" t="inlineStr">
+      <c r="F56" s="5" t="inlineStr">
         <is>
           <t>John J. Russell MHS (Sibul NHS)</t>
         </is>
       </c>
-      <c r="F56" s="5" t="inlineStr">
+      <c r="G56" s="5" t="inlineStr">
         <is>
           <t>SAN MIGUEL</t>
         </is>
       </c>
-      <c r="G56" s="5" t="inlineStr">
+      <c r="H56" s="5" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="H56" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I56" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J56" s="5" t="inlineStr">
+      <c r="K56" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K56" s="5" t="n">
+      <c r="L56" s="5" t="n">
         <v>425508.512599636</v>
       </c>
-      <c r="L56" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" s="5" t="inlineStr">
+      <c r="M56" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" s="5" t="inlineStr">
         <is>
           <t>₱417,671.35</t>
         </is>
       </c>
-      <c r="N56" s="5" t="inlineStr">
+      <c r="O56" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O56" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P56" s="7" t="n">
+      <c r="P56" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="7" t="n">
         <v>45069</v>
       </c>
-      <c r="Q56" s="7" t="n">
+      <c r="R56" s="7" t="n">
         <v>45068</v>
       </c>
-      <c r="R56" s="5" t="inlineStr">
+      <c r="S56" s="5" t="inlineStr">
         <is>
           <t>PB-23-003</t>
         </is>
       </c>
-      <c r="S56" s="5" t="inlineStr">
+      <c r="T56" s="5" t="inlineStr">
         <is>
           <t>23-03-003</t>
         </is>
       </c>
-      <c r="T56" s="7" t="n">
+      <c r="U56" s="7" t="n">
         <v>44979</v>
       </c>
-      <c r="U56" s="7" t="n">
+      <c r="V56" s="7" t="n">
         <v>44986</v>
       </c>
-      <c r="V56" s="7" t="n">
+      <c r="W56" s="7" t="n">
         <v>44998</v>
       </c>
-      <c r="W56" s="7" t="n">
+      <c r="X56" s="7" t="n">
         <v>45001</v>
       </c>
-      <c r="X56" s="7" t="n">
+      <c r="Y56" s="7" t="n">
         <v>45016</v>
       </c>
-      <c r="Y56" s="5" t="inlineStr">
+      <c r="Z56" s="5" t="inlineStr">
         <is>
           <t>EMICA Builders and Supply</t>
         </is>
       </c>
-      <c r="Z56" s="5" t="inlineStr"/>
-      <c r="AA56" s="6" t="n"/>
+      <c r="AA56" s="5" t="inlineStr"/>
+      <c r="AB56" s="6" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="inlineStr">
+      <c r="A57" s="5" t="n">
+        <v>2694</v>
+      </c>
+      <c r="B57" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
-      <c r="B57" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C57" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D57" s="5" t="inlineStr">
+        <is>
           <t>Bulacan</t>
         </is>
       </c>
-      <c r="D57" s="5" t="n">
+      <c r="E57" s="5" t="n">
         <v>105111</v>
       </c>
-      <c r="E57" s="5" t="inlineStr">
+      <c r="F57" s="5" t="inlineStr">
         <is>
           <t>San Miguel Elementary</t>
         </is>
       </c>
-      <c r="F57" s="5" t="inlineStr">
+      <c r="G57" s="5" t="inlineStr">
         <is>
           <t>SAN MIGUEL</t>
         </is>
       </c>
-      <c r="G57" s="5" t="inlineStr">
+      <c r="H57" s="5" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="H57" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I57" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J57" s="5" t="inlineStr">
+      <c r="K57" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K57" s="5" t="n">
+      <c r="L57" s="5" t="n">
         <v>2301524.74</v>
       </c>
-      <c r="L57" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" s="5" t="inlineStr">
+      <c r="M57" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" s="5" t="inlineStr">
         <is>
           <t>₱1,891,657.30</t>
         </is>
       </c>
-      <c r="N57" s="5" t="inlineStr">
+      <c r="O57" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O57" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P57" s="7" t="n">
+      <c r="P57" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="7" t="n">
         <v>45144</v>
       </c>
-      <c r="Q57" s="7" t="n">
+      <c r="R57" s="7" t="n">
         <v>45135</v>
       </c>
-      <c r="R57" s="5" t="inlineStr">
+      <c r="S57" s="5" t="inlineStr">
         <is>
           <t>PB-23-002</t>
         </is>
       </c>
-      <c r="S57" s="5" t="inlineStr">
+      <c r="T57" s="5" t="inlineStr">
         <is>
           <t>23-03-002</t>
         </is>
       </c>
-      <c r="T57" s="7" t="n">
+      <c r="U57" s="7" t="n">
         <v>44979</v>
       </c>
-      <c r="U57" s="7" t="n">
+      <c r="V57" s="7" t="n">
         <v>44986</v>
       </c>
-      <c r="V57" s="7" t="n">
+      <c r="W57" s="7" t="n">
         <v>44998</v>
       </c>
-      <c r="W57" s="7" t="n">
+      <c r="X57" s="7" t="n">
         <v>45001</v>
       </c>
-      <c r="X57" s="7" t="n">
+      <c r="Y57" s="7" t="n">
         <v>45016</v>
       </c>
-      <c r="Y57" s="5" t="inlineStr">
+      <c r="Z57" s="5" t="inlineStr">
         <is>
           <t>EMICA Builders and Supply</t>
         </is>
       </c>
-      <c r="Z57" s="5" t="inlineStr"/>
-      <c r="AA57" s="6" t="n"/>
+      <c r="AA57" s="5" t="inlineStr"/>
+      <c r="AB57" s="6" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="inlineStr">
+      <c r="A58" s="5" t="n">
+        <v>2695</v>
+      </c>
+      <c r="B58" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
-      <c r="B58" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C58" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D58" s="5" t="inlineStr">
+        <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D58" s="5" t="n">
+      <c r="E58" s="5" t="n">
         <v>105216</v>
       </c>
-      <c r="E58" s="5" t="inlineStr">
+      <c r="F58" s="5" t="inlineStr">
         <is>
           <t>Cabiao Central School</t>
         </is>
       </c>
-      <c r="F58" s="5" t="inlineStr">
+      <c r="G58" s="5" t="inlineStr">
         <is>
           <t>CABIAO</t>
         </is>
       </c>
-      <c r="G58" s="5" t="inlineStr">
+      <c r="H58" s="5" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
       </c>
-      <c r="H58" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I58" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="J58" s="5" t="inlineStr">
+      <c r="K58" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K58" s="5" t="n">
+      <c r="L58" s="5" t="n">
         <v>7950000</v>
       </c>
-      <c r="L58" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M58" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" s="5" t="n">
         <v>7941961.35</v>
       </c>
-      <c r="N58" s="5" t="inlineStr">
+      <c r="O58" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O58" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P58" s="7" t="n">
-        <v>45155</v>
+      <c r="P58" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="Q58" s="7" t="n">
         <v>45155</v>
       </c>
-      <c r="R58" s="5" t="inlineStr">
+      <c r="R58" s="7" t="n">
+        <v>45155</v>
+      </c>
+      <c r="S58" s="5" t="inlineStr">
         <is>
           <t>INFRA-NE-Emergency-22-2023</t>
         </is>
       </c>
-      <c r="S58" s="5" t="inlineStr">
+      <c r="T58" s="5" t="inlineStr">
         <is>
           <t>INFRA-NE-Emergency-22-2023</t>
         </is>
       </c>
-      <c r="T58" s="7" t="n">
+      <c r="U58" s="7" t="n">
         <v>44985</v>
       </c>
-      <c r="U58" s="5" t="inlineStr"/>
-      <c r="V58" s="7" t="n">
+      <c r="V58" s="5" t="inlineStr"/>
+      <c r="W58" s="7" t="n">
         <v>44993</v>
       </c>
-      <c r="W58" s="7" t="n">
+      <c r="X58" s="7" t="n">
         <v>44998</v>
       </c>
-      <c r="X58" s="7" t="n">
+      <c r="Y58" s="7" t="n">
         <v>45002</v>
       </c>
-      <c r="Y58" s="5" t="inlineStr">
+      <c r="Z58" s="5" t="inlineStr">
         <is>
           <t>J.V. BUAN CONSTRUCTION *T</t>
         </is>
       </c>
-      <c r="Z58" s="5" t="inlineStr"/>
-      <c r="AA58" s="6" t="n"/>
+      <c r="AA58" s="5" t="inlineStr"/>
+      <c r="AB58" s="6" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="inlineStr">
+      <c r="A59" s="5" t="n">
+        <v>2696</v>
+      </c>
+      <c r="B59" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
-      <c r="B59" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C59" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D59" s="5" t="inlineStr">
+        <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D59" s="5" t="n">
+      <c r="E59" s="5" t="n">
         <v>105368</v>
       </c>
-      <c r="E59" s="5" t="inlineStr">
+      <c r="F59" s="5" t="inlineStr">
         <is>
           <t>Gen. Tinio West Central School</t>
         </is>
       </c>
-      <c r="F59" s="5" t="inlineStr">
+      <c r="G59" s="5" t="inlineStr">
         <is>
           <t>GENERAL TINIO (PAPAYA)</t>
         </is>
       </c>
-      <c r="G59" s="5" t="inlineStr">
+      <c r="H59" s="5" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
       </c>
-      <c r="H59" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I59" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J59" s="5" t="inlineStr">
+      <c r="K59" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K59" s="5" t="n">
+      <c r="L59" s="5" t="n">
         <v>1650000</v>
       </c>
-      <c r="L59" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M59" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" s="5" t="n">
         <v>1647978.72</v>
       </c>
-      <c r="N59" s="5" t="inlineStr">
+      <c r="O59" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O59" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P59" s="7" t="n">
-        <v>45155</v>
+      <c r="P59" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="Q59" s="7" t="n">
         <v>45155</v>
       </c>
-      <c r="R59" s="5" t="inlineStr">
+      <c r="R59" s="7" t="n">
+        <v>45155</v>
+      </c>
+      <c r="S59" s="5" t="inlineStr">
         <is>
           <t>INFRA-NE-Emergency-23-2023</t>
         </is>
       </c>
-      <c r="S59" s="5" t="inlineStr">
+      <c r="T59" s="5" t="inlineStr">
         <is>
           <t>INFRA-NE-Emergency-23-2023</t>
         </is>
       </c>
-      <c r="T59" s="7" t="n">
+      <c r="U59" s="7" t="n">
         <v>44985</v>
       </c>
-      <c r="U59" s="5" t="inlineStr"/>
-      <c r="V59" s="7" t="n">
+      <c r="V59" s="5" t="inlineStr"/>
+      <c r="W59" s="7" t="n">
         <v>44993</v>
       </c>
-      <c r="W59" s="7" t="n">
+      <c r="X59" s="7" t="n">
         <v>44998</v>
       </c>
-      <c r="X59" s="7" t="n">
+      <c r="Y59" s="7" t="n">
         <v>45002</v>
       </c>
-      <c r="Y59" s="5" t="inlineStr">
+      <c r="Z59" s="5" t="inlineStr">
         <is>
           <t>JOYUS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z59" s="5" t="inlineStr"/>
-      <c r="AA59" s="6" t="n"/>
+      <c r="AA59" s="5" t="inlineStr"/>
+      <c r="AB59" s="6" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="inlineStr">
+      <c r="A60" s="5" t="n">
+        <v>2697</v>
+      </c>
+      <c r="B60" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
-      <c r="B60" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C60" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D60" s="5" t="inlineStr">
+        <is>
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D60" s="5" t="n">
+      <c r="E60" s="5" t="n">
         <v>105741</v>
       </c>
-      <c r="E60" s="5" t="inlineStr">
+      <c r="F60" s="5" t="inlineStr">
         <is>
           <t>San Leonardo Central School</t>
         </is>
       </c>
-      <c r="F60" s="5" t="inlineStr">
+      <c r="G60" s="5" t="inlineStr">
         <is>
           <t>SAN LEONARDO</t>
         </is>
       </c>
-      <c r="G60" s="5" t="inlineStr">
+      <c r="H60" s="5" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
       </c>
-      <c r="H60" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I60" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J60" s="5" t="inlineStr">
+      <c r="K60" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K60" s="5" t="n">
+      <c r="L60" s="5" t="n">
         <v>3850000</v>
       </c>
-      <c r="L60" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M60" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" s="5" t="n">
         <v>3846350.56</v>
       </c>
-      <c r="N60" s="5" t="inlineStr">
+      <c r="O60" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O60" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P60" s="7" t="n">
-        <v>45155</v>
+      <c r="P60" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="Q60" s="7" t="n">
         <v>45155</v>
       </c>
-      <c r="R60" s="5" t="inlineStr">
+      <c r="R60" s="7" t="n">
+        <v>45155</v>
+      </c>
+      <c r="S60" s="5" t="inlineStr">
         <is>
           <t>INFRA-NE-Emergency-24-2023</t>
         </is>
       </c>
-      <c r="S60" s="5" t="inlineStr">
+      <c r="T60" s="5" t="inlineStr">
         <is>
           <t>INFRA-NE-Emergency-24-2023</t>
         </is>
       </c>
-      <c r="T60" s="7" t="n">
+      <c r="U60" s="7" t="n">
         <v>44985</v>
       </c>
-      <c r="U60" s="5" t="inlineStr"/>
-      <c r="V60" s="7" t="n">
+      <c r="V60" s="5" t="inlineStr"/>
+      <c r="W60" s="7" t="n">
         <v>44993</v>
       </c>
-      <c r="W60" s="7" t="n">
+      <c r="X60" s="7" t="n">
         <v>44998</v>
       </c>
-      <c r="X60" s="7" t="n">
+      <c r="Y60" s="7" t="n">
         <v>45002</v>
       </c>
-      <c r="Y60" s="5" t="inlineStr">
+      <c r="Z60" s="5" t="inlineStr">
         <is>
           <t>IJK MAE CONSTRUCTION INC.</t>
         </is>
       </c>
-      <c r="Z60" s="5" t="inlineStr"/>
-      <c r="AA60" s="6" t="n"/>
+      <c r="AA60" s="5" t="inlineStr"/>
+      <c r="AB60" s="6" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="inlineStr">
+      <c r="A61" s="5" t="n">
+        <v>2698</v>
+      </c>
+      <c r="B61" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
-      <c r="B61" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C61" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D61" s="5" t="inlineStr">
+        <is>
           <t>Tarlac</t>
         </is>
       </c>
-      <c r="D61" s="5" t="n">
+      <c r="E61" s="5" t="n">
         <v>300989</v>
       </c>
-      <c r="E61" s="5" t="inlineStr">
+      <c r="F61" s="5" t="inlineStr">
         <is>
           <t>San Pedro National High School</t>
         </is>
       </c>
-      <c r="F61" s="5" t="inlineStr">
+      <c r="G61" s="5" t="inlineStr">
         <is>
           <t>MONCADA</t>
         </is>
       </c>
-      <c r="G61" s="5" t="inlineStr">
+      <c r="H61" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H61" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I61" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="J61" s="5" t="inlineStr">
+      <c r="K61" s="5" t="inlineStr">
         <is>
           <t>Replacement</t>
         </is>
       </c>
-      <c r="K61" s="5" t="n">
+      <c r="L61" s="5" t="n">
         <v>36000000</v>
       </c>
-      <c r="L61" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M61" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" s="5" t="n">
         <v>35898680.53</v>
       </c>
-      <c r="N61" s="5" t="inlineStr">
+      <c r="O61" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O61" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P61" s="7" t="n">
+      <c r="P61" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="7" t="n">
         <v>45805</v>
       </c>
-      <c r="Q61" s="5" t="inlineStr"/>
       <c r="R61" s="5" t="inlineStr"/>
-      <c r="S61" s="5" t="inlineStr">
+      <c r="S61" s="5" t="inlineStr"/>
+      <c r="T61" s="5" t="inlineStr">
         <is>
           <t>CSCB-CY2023-002</t>
         </is>
       </c>
-      <c r="T61" s="7" t="n">
+      <c r="U61" s="7" t="n">
         <v>45134</v>
       </c>
-      <c r="U61" s="7" t="n">
+      <c r="V61" s="7" t="n">
         <v>45142</v>
       </c>
-      <c r="V61" s="7" t="n">
+      <c r="W61" s="7" t="n">
         <v>45155</v>
       </c>
-      <c r="W61" s="5" t="inlineStr"/>
-      <c r="X61" s="7" t="n">
+      <c r="X61" s="5" t="inlineStr"/>
+      <c r="Y61" s="7" t="n">
         <v>45173</v>
       </c>
-      <c r="Y61" s="5" t="inlineStr">
+      <c r="Z61" s="5" t="inlineStr">
         <is>
           <t>FROMARC BUILDERS &amp; GENERAL MERCHANDISE</t>
         </is>
       </c>
-      <c r="Z61" s="5" t="inlineStr"/>
-      <c r="AA61" s="6" t="n"/>
+      <c r="AA61" s="5" t="inlineStr"/>
+      <c r="AB61" s="6" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="5" t="inlineStr">
+      <c r="A62" s="5" t="n">
+        <v>2699</v>
+      </c>
+      <c r="B62" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
-      <c r="B62" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C62" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D62" s="5" t="inlineStr">
+        <is>
           <t>Tarlac</t>
         </is>
       </c>
-      <c r="D62" s="5" t="n">
+      <c r="E62" s="5" t="n">
         <v>300989</v>
       </c>
-      <c r="E62" s="5" t="inlineStr">
+      <c r="F62" s="5" t="inlineStr">
         <is>
           <t>San Pedro National High School</t>
         </is>
       </c>
-      <c r="F62" s="5" t="inlineStr">
+      <c r="G62" s="5" t="inlineStr">
         <is>
           <t>MONCADA</t>
         </is>
       </c>
-      <c r="G62" s="5" t="inlineStr">
+      <c r="H62" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H62" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I62" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J62" s="5" t="inlineStr">
+      <c r="K62" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K62" s="5" t="n">
+      <c r="L62" s="5" t="n">
         <v>1300000</v>
       </c>
-      <c r="L62" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M62" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" s="5" t="n">
         <v>35898680.53</v>
       </c>
-      <c r="N62" s="5" t="inlineStr">
+      <c r="O62" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O62" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P62" s="7" t="n">
+      <c r="P62" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="7" t="n">
         <v>45474</v>
       </c>
-      <c r="Q62" s="5" t="inlineStr"/>
       <c r="R62" s="5" t="inlineStr"/>
-      <c r="S62" s="5" t="inlineStr">
+      <c r="S62" s="5" t="inlineStr"/>
+      <c r="T62" s="5" t="inlineStr">
         <is>
           <t>CSCB-CY2023-002</t>
         </is>
       </c>
-      <c r="T62" s="7" t="n">
+      <c r="U62" s="7" t="n">
         <v>45134</v>
       </c>
-      <c r="U62" s="7" t="n">
+      <c r="V62" s="7" t="n">
         <v>45142</v>
       </c>
-      <c r="V62" s="7" t="n">
+      <c r="W62" s="7" t="n">
         <v>45155</v>
       </c>
-      <c r="W62" s="5" t="inlineStr"/>
-      <c r="X62" s="7" t="n">
+      <c r="X62" s="5" t="inlineStr"/>
+      <c r="Y62" s="7" t="n">
         <v>45190</v>
       </c>
-      <c r="Y62" s="5" t="inlineStr">
+      <c r="Z62" s="5" t="inlineStr">
         <is>
           <t>High Vision Builders</t>
         </is>
       </c>
-      <c r="Z62" s="5" t="inlineStr"/>
-      <c r="AA62" s="6" t="n"/>
+      <c r="AA62" s="5" t="inlineStr"/>
+      <c r="AB62" s="6" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="5" t="inlineStr">
+      <c r="A63" s="5" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B63" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
-      <c r="B63" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C63" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D63" s="5" t="inlineStr">
+        <is>
           <t>Tarlac</t>
         </is>
       </c>
-      <c r="D63" s="5" t="n">
+      <c r="E63" s="5" t="n">
         <v>300982</v>
       </c>
-      <c r="E63" s="5" t="inlineStr">
+      <c r="F63" s="5" t="inlineStr">
         <is>
           <t>Ramos National High School</t>
         </is>
       </c>
-      <c r="F63" s="5" t="inlineStr">
+      <c r="G63" s="5" t="inlineStr">
         <is>
           <t>RAMOS</t>
         </is>
       </c>
-      <c r="G63" s="5" t="inlineStr">
+      <c r="H63" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H63" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I63" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="J63" s="5" t="inlineStr">
+      <c r="K63" s="5" t="inlineStr">
         <is>
           <t>Replacement</t>
         </is>
       </c>
-      <c r="K63" s="5" t="n">
+      <c r="L63" s="5" t="n">
         <v>48000000</v>
       </c>
-      <c r="L63" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M63" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" s="5" t="n">
         <v>478945595.27</v>
       </c>
-      <c r="N63" s="5" t="inlineStr">
+      <c r="O63" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O63" s="5" t="n">
+      <c r="P63" s="5" t="n">
         <v>0.25</v>
       </c>
-      <c r="P63" s="7" t="n">
+      <c r="Q63" s="7" t="n">
         <v>45474</v>
       </c>
-      <c r="Q63" s="5" t="inlineStr"/>
       <c r="R63" s="5" t="inlineStr"/>
-      <c r="S63" s="5" t="inlineStr">
+      <c r="S63" s="5" t="inlineStr"/>
+      <c r="T63" s="5" t="inlineStr">
         <is>
           <t>CSCB-CY2023-003</t>
         </is>
       </c>
-      <c r="T63" s="7" t="n">
+      <c r="U63" s="7" t="n">
         <v>45134</v>
       </c>
-      <c r="U63" s="7" t="n">
+      <c r="V63" s="7" t="n">
         <v>45142</v>
       </c>
-      <c r="V63" s="7" t="n">
+      <c r="W63" s="7" t="n">
         <v>45155</v>
       </c>
-      <c r="W63" s="5" t="inlineStr"/>
-      <c r="X63" s="7" t="n">
+      <c r="X63" s="5" t="inlineStr"/>
+      <c r="Y63" s="7" t="n">
         <v>45173</v>
       </c>
-      <c r="Y63" s="5" t="inlineStr">
+      <c r="Z63" s="5" t="inlineStr">
         <is>
           <t>IJK MAE CONSTRUCTION, INC.</t>
         </is>
       </c>
-      <c r="Z63" s="5" t="inlineStr">
+      <c r="AA63" s="5" t="inlineStr">
         <is>
           <t>Suspended</t>
         </is>
       </c>
-      <c r="AA63" s="6" t="n"/>
+      <c r="AB63" s="6" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="5" t="inlineStr">
+      <c r="A64" s="5" t="n">
+        <v>2833</v>
+      </c>
+      <c r="B64" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B64" s="5" t="inlineStr">
-        <is>
-          <t>Region III</t>
-        </is>
-      </c>
       <c r="C64" s="5" t="inlineStr">
         <is>
+          <t>Region III</t>
+        </is>
+      </c>
+      <c r="D64" s="5" t="inlineStr">
+        <is>
           <t>Tarlac</t>
         </is>
       </c>
-      <c r="D64" s="5" t="n">
+      <c r="E64" s="5" t="n">
         <v>106605</v>
       </c>
-      <c r="E64" s="5" t="inlineStr">
+      <c r="F64" s="5" t="inlineStr">
         <is>
           <t>Pura Central ES</t>
         </is>
       </c>
-      <c r="F64" s="5" t="inlineStr">
+      <c r="G64" s="5" t="inlineStr">
         <is>
           <t>PURA</t>
         </is>
       </c>
-      <c r="G64" s="5" t="inlineStr">
+      <c r="H64" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H64" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I64" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="J64" s="5" t="inlineStr">
+      <c r="K64" s="5" t="inlineStr">
         <is>
           <t>2STY8CL</t>
         </is>
       </c>
-      <c r="K64" s="5" t="n">
+      <c r="L64" s="5" t="n">
         <v>22950000</v>
       </c>
-      <c r="L64" s="5" t="inlineStr">
+      <c r="M64" s="5" t="inlineStr">
         <is>
           <t>2- NC</t>
         </is>
       </c>
-      <c r="M64" s="5" t="n">
+      <c r="N64" s="5" t="n">
         <v>15742082.99</v>
       </c>
-      <c r="N64" s="5" t="inlineStr">
+      <c r="O64" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O64" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P64" s="7" t="n">
+      <c r="P64" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="7" t="n">
         <v>45638</v>
       </c>
-      <c r="Q64" s="7" t="n">
+      <c r="R64" s="7" t="n">
         <v>45698</v>
       </c>
-      <c r="R64" s="5" t="inlineStr"/>
       <c r="S64" s="5" t="inlineStr"/>
-      <c r="T64" s="7" t="n">
+      <c r="T64" s="5" t="inlineStr"/>
+      <c r="U64" s="7" t="n">
         <v>45253</v>
       </c>
-      <c r="U64" s="7" t="n">
+      <c r="V64" s="7" t="n">
         <v>45259</v>
       </c>
-      <c r="V64" s="7" t="n">
+      <c r="W64" s="7" t="n">
         <v>45272</v>
       </c>
-      <c r="W64" s="7" t="n">
+      <c r="X64" s="7" t="n">
         <v>45289</v>
       </c>
-      <c r="X64" s="7" t="n">
+      <c r="Y64" s="7" t="n">
         <v>45293</v>
       </c>
-      <c r="Y64" s="5" t="inlineStr">
+      <c r="Z64" s="5" t="inlineStr">
         <is>
           <t>ARESBI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z64" s="5" t="inlineStr"/>
-      <c r="AA64" s="6" t="n"/>
+      <c r="AA64" s="5" t="inlineStr"/>
+      <c r="AB64" s="6" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AA2:AA64" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AB2:AB64" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
